--- a/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\ejemplos escalestas y cronogramas\ESCALETAS 7-8-9\ESCALETAS MAT 8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -21,12 +16,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="232">
   <si>
     <t>Asignatura</t>
   </si>
@@ -399,9 +394,6 @@
   </si>
   <si>
     <t>m101a</t>
-  </si>
-  <si>
-    <t>MT</t>
   </si>
   <si>
     <t>F6B</t>
@@ -680,12 +672,6 @@
     <t>Fin de tema</t>
   </si>
   <si>
-    <t>Banco de contenidos</t>
-  </si>
-  <si>
-    <t>MT_09_12</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -732,6 +718,18 @@
   </si>
   <si>
     <t>Recurso M5A-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>MTC</t>
+  </si>
+  <si>
+    <t>MTC_09_12</t>
   </si>
 </sst>
 </file>
@@ -949,185 +947,185 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,7 +1202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1239,7 +1237,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1451,1777 +1449,1768 @@
   <dimension ref="A1:U78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="80" zoomScaleNormal="110" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="23" style="43" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="31" style="43" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="35" style="43" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="23" style="22" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="31" style="22" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="35" style="22" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="4" customWidth="1"/>
     <col min="9" max="9" width="11" style="4" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" style="22" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="47.7109375" style="46" customWidth="1"/>
+    <col min="15" max="15" width="47.7109375" style="25" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="4" customWidth="1"/>
     <col min="17" max="17" width="17.7109375" style="4" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" style="3" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38" style="22" customWidth="1"/>
     <col min="21" max="21" width="19.7109375" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="43"/>
+    <col min="22" max="16384" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="64"/>
+      <c r="O1" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="46" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="28" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="60"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="47"/>
     </row>
     <row r="3" spans="1:21" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="34">
+      <c r="D3" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="13">
         <v>1</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q3" s="5">
         <v>9</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="S3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T3" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="47" t="s">
+      <c r="H4" s="13">
+        <v>2</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="34">
-        <v>2</v>
-      </c>
-      <c r="I4" s="33" t="s">
+      <c r="K4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="P4" s="8" t="s">
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q4" s="5">
         <v>9</v>
       </c>
       <c r="R4" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="13">
+        <v>3</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="39">
+        <v>6</v>
+      </c>
+      <c r="R5" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="S5" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="T5" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="U5" s="39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" s="13">
+        <v>4</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="39">
+        <v>6</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="13">
+        <v>5</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="N7" s="18"/>
+      <c r="O7" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="39">
+        <v>6</v>
+      </c>
+      <c r="R7" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="T7" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="U7" s="39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="H5" s="34">
-        <v>3</v>
-      </c>
-      <c r="I5" s="33" t="s">
+      <c r="D8" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="13">
+        <v>6</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="36" t="s">
+      <c r="J8" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="63">
-        <v>6</v>
-      </c>
-      <c r="R5" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="S5" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="T5" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="U5" s="63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="H6" s="34">
-        <v>4</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="63">
-        <v>6</v>
-      </c>
-      <c r="R6" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="S6" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="T6" s="65" t="s">
-        <v>219</v>
-      </c>
-      <c r="U6" s="63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="34">
-        <v>5</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="63">
-        <v>6</v>
-      </c>
-      <c r="R7" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="S7" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="T7" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="U7" s="63" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="34">
-        <v>6</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="8" t="s">
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="5">
         <v>9</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="T8" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="13">
+        <v>7</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>9</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="T9" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E9" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="49" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="13">
+        <v>8</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="18"/>
+      <c r="O10" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="H9" s="34">
-        <v>7</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="K9" s="38" t="s">
+      <c r="P10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="8" t="s">
+      <c r="Q10" s="39">
+        <v>6</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="S10" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="T10" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="U10" s="39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="13">
+        <v>9</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="63">
-        <v>9</v>
-      </c>
-      <c r="R9" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="S9" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="T9" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="U9" s="63" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="34">
-        <v>9</v>
-      </c>
-      <c r="I10" s="40" t="s">
+      <c r="J11" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="63">
-        <v>6</v>
-      </c>
-      <c r="R10" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="S10" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="T10" s="65" t="s">
-        <v>224</v>
-      </c>
-      <c r="U10" s="63" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="34">
-        <v>10</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="P11" s="8" t="s">
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="5">
         <v>9</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
+      </c>
+      <c r="T11" s="41" t="s">
+        <v>160</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="56" t="s">
+      <c r="D12" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="13">
+        <v>10</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="34">
-        <v>11</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="8" t="s">
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="5">
         <v>9</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>165</v>
+        <v>141</v>
+      </c>
+      <c r="T12" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="G13" s="49" t="s">
+      <c r="D13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="13">
+        <v>11</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="34">
-        <v>12</v>
-      </c>
-      <c r="I13" s="40" t="s">
+      <c r="K13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="P13" s="8" t="s">
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q13" s="5">
         <v>9</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+      <c r="T13" s="41" t="s">
+        <v>147</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="D14" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="13">
+        <v>12</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="H14" s="34">
+      <c r="K14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="39">
+        <v>6</v>
+      </c>
+      <c r="R14" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="T14" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="13">
         <v>13</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="36" t="s">
+      <c r="J15" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="63">
-        <v>6</v>
-      </c>
-      <c r="R14" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="S14" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="T14" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="U14" s="63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="H15" s="34">
-        <v>14</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="8" t="s">
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q15" s="5">
         <v>9</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="T15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="U15" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="49" t="s">
+      <c r="H16" s="13">
+        <v>14</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="H16" s="34">
-        <v>15</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="36" t="s">
+      <c r="L16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="8" t="s">
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="5">
         <v>9</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="T16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="13">
+        <v>15</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="39">
+        <v>6</v>
+      </c>
+      <c r="R17" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="S17" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="T17" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="U17" s="39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="U16" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="34">
+      <c r="H18" s="13">
         <v>16</v>
       </c>
-      <c r="I17" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="K17" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="O17" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="P17" s="8" t="s">
+      <c r="I18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="63">
-        <v>6</v>
-      </c>
-      <c r="R17" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="S17" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="T17" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="U17" s="63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="49" t="s">
+      <c r="J18" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="34">
-        <v>17</v>
-      </c>
-      <c r="I18" s="40" t="s">
+      <c r="K18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="P18" s="8" t="s">
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="5">
         <v>9</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
+      </c>
+      <c r="T18" s="41" t="s">
+        <v>155</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="49" t="s">
+      <c r="F19" s="24"/>
+      <c r="G19" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="13">
+        <v>17</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="H19" s="34">
-        <v>18</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="36" t="s">
+      <c r="L19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="8" t="s">
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="5">
         <v>9</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
+      </c>
+      <c r="T19" s="41" t="s">
+        <v>159</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="F20" s="24"/>
+      <c r="G20" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="13">
+        <v>18</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>6</v>
+      </c>
+      <c r="R20" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="S20" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="T20" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="U20" s="39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" s="13">
+        <v>19</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="39">
+        <v>6</v>
+      </c>
+      <c r="R21" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="S21" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="T21" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="U21" s="39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="13">
+        <v>20</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="39">
+        <v>6</v>
+      </c>
+      <c r="R22" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="T22" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="U22" s="39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="H20" s="34">
+      <c r="H23" s="13">
+        <v>21</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="L23" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="39">
+        <v>9</v>
+      </c>
+      <c r="R23" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="S23" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="T23" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="U23" s="39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="13">
+        <v>22</v>
+      </c>
+      <c r="I24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="K20" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="41" t="s">
+      <c r="J24" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="63">
-        <v>6</v>
-      </c>
-      <c r="R20" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="S20" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="T20" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="U20" s="63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="34">
-        <v>20</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="41"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="63">
-        <v>6</v>
-      </c>
-      <c r="R21" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="S21" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="T21" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="U21" s="63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="34">
-        <v>21</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="K22" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="63">
-        <v>6</v>
-      </c>
-      <c r="R22" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="S22" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="T22" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="U22" s="63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="34">
-        <v>22</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="63">
-        <v>9</v>
-      </c>
-      <c r="R23" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="S23" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="T23" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="U23" s="63" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="34">
-        <v>23</v>
-      </c>
-      <c r="I24" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="K24" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="8" t="s">
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="5">
         <v>9</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="T24" s="7" t="s">
-        <v>170</v>
+        <v>141</v>
+      </c>
+      <c r="T24" s="41" t="s">
+        <v>169</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="56" t="s">
+      <c r="D25" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="49" t="s">
+      <c r="H25" s="13">
+        <v>23</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="34">
-        <v>24</v>
-      </c>
-      <c r="I25" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="K25" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="8" t="s">
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="6"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="7"/>
+      <c r="T25" s="41"/>
       <c r="U25" s="5"/>
     </row>
     <row r="26" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" s="13">
+        <v>24</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="39">
+        <v>6</v>
+      </c>
+      <c r="R26" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="E26" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="H26" s="34">
+      <c r="S26" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="T26" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="U26" s="39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H27" s="13">
         <v>25</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="59" t="s">
+      <c r="J27" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="K26" s="38" t="s">
+      <c r="K27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="41" t="s">
+      <c r="L27" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="63">
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="39">
         <v>6</v>
       </c>
-      <c r="R26" s="64" t="s">
+      <c r="R27" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="S27" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="T27" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="U27" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="S26" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="T26" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="U26" s="63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="H27" s="34">
-        <v>26</v>
-      </c>
-      <c r="I27" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="K27" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="63">
-        <v>9</v>
-      </c>
-      <c r="R27" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="S27" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="T27" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="U27" s="63" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="28" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="50"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="42" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="22" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="22" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="22" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="22" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="22" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="22" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="22" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="43" t="s">
+      <c r="A78" s="22" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U2">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
@@ -3253,7 +3242,7 @@
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K18:K19 K23:K24 K3:K16 K27 I3:I27 P3:P27</xm:sqref>
+          <xm:sqref>K18:K19 K23:K24 K3:K16 P3:P27 I3:I27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3265,7 +3254,7 @@
           <x14:formula1>
             <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>K20:K22 L9 K17:L17 L20:L23 O26:O27 L25:M27 K25:K26</xm:sqref>
+          <xm:sqref>K20:K22 L9 K17:L17 L20:L23 O26:O27 K25:M27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion12\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -16,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="238">
   <si>
     <t>Asignatura</t>
   </si>
@@ -730,13 +735,31 @@
   </si>
   <si>
     <t>MTC_09_12</t>
+  </si>
+  <si>
+    <t>Jennifer R</t>
+  </si>
+  <si>
+    <t>Jenifer R</t>
+  </si>
+  <si>
+    <t>Josué</t>
+  </si>
+  <si>
+    <t>13 aprovechados</t>
+  </si>
+  <si>
+    <t>Regresado por solicitus gráfica mal construida 25/02/2016</t>
+  </si>
+  <si>
+    <t>Debe agregar 5 ejercicios más</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,8 +811,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,6 +891,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -931,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1004,9 +1039,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1022,9 +1054,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1056,6 +1085,55 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,7 +1280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1237,7 +1315,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1446,11 +1524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U78"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="80" zoomScaleNormal="110" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1479,97 +1557,97 @@
     <col min="22" max="16384" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="44" t="s">
+      <c r="N1" s="79"/>
+      <c r="O1" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="61" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="59"/>
+    <row r="2" spans="1:23" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="72"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="74"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="47"/>
-    </row>
-    <row r="3" spans="1:21" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="62"/>
+    </row>
+    <row r="3" spans="1:23" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1582,9 +1660,9 @@
       <c r="D3" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="26" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="43" t="s">
         <v>140</v>
       </c>
       <c r="H3" s="13">
@@ -1593,40 +1671,43 @@
       <c r="I3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
       <c r="O3" s="23" t="s">
         <v>173</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="44">
         <v>9</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="44" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1639,11 +1720,11 @@
       <c r="D4" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="43" t="s">
         <v>142</v>
       </c>
       <c r="H4" s="13">
@@ -1652,40 +1733,43 @@
       <c r="I4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
       <c r="O4" s="23" t="s">
         <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="44">
         <v>9</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="T4" s="41" t="s">
+      <c r="T4" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="44" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1698,11 +1782,11 @@
       <c r="D5" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="27" t="s">
+      <c r="F5" s="30"/>
+      <c r="G5" s="26" t="s">
         <v>188</v>
       </c>
       <c r="H5" s="13">
@@ -1711,7 +1795,7 @@
       <c r="I5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="32" t="s">
         <v>170</v>
       </c>
       <c r="K5" s="17" t="s">
@@ -1730,23 +1814,26 @@
       <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="39">
+      <c r="Q5" s="37">
         <v>6</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="U5" s="39" t="s">
+      <c r="U5" s="37" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1759,57 +1846,63 @@
       <c r="D6" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="33" t="s">
         <v>129</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="51">
         <v>4</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18" t="s">
+      <c r="M6" s="52"/>
+      <c r="N6" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="Q6" s="56">
         <v>6</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R6" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="S6" s="39" t="s">
+      <c r="S6" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="T6" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="U6" s="39" t="s">
+      <c r="U6" s="56" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="W6" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -1822,11 +1915,11 @@
       <c r="D7" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="33" t="s">
         <v>130</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>190</v>
       </c>
       <c r="H7" s="13">
@@ -1835,7 +1928,7 @@
       <c r="I7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="34" t="s">
         <v>191</v>
       </c>
       <c r="K7" s="17" t="s">
@@ -1854,23 +1947,23 @@
       <c r="P7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q7" s="37">
         <v>6</v>
       </c>
-      <c r="R7" s="40" t="s">
+      <c r="R7" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="T7" s="42" t="s">
+      <c r="T7" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="U7" s="39" t="s">
+      <c r="U7" s="37" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -1883,51 +1976,54 @@
       <c r="D8" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="33" t="s">
         <v>130</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="47" t="s">
         <v>144</v>
       </c>
       <c r="H8" s="13">
         <v>6</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
       <c r="O8" s="24"/>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="44">
         <v>9</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="T8" s="41" t="s">
+      <c r="T8" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="44" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
@@ -1940,51 +2036,54 @@
       <c r="D9" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="33" t="s">
         <v>122</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="47" t="s">
         <v>194</v>
       </c>
       <c r="H9" s="13">
         <v>7</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
       <c r="O9" s="24"/>
       <c r="P9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="48">
         <v>9</v>
       </c>
-      <c r="R9" s="40" t="s">
+      <c r="R9" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="S9" s="39" t="s">
+      <c r="S9" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="T9" s="43" t="s">
+      <c r="T9" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="U9" s="39" t="s">
+      <c r="U9" s="48" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1997,9 +2096,9 @@
       <c r="D10" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>132</v>
       </c>
       <c r="H10" s="13">
@@ -2008,7 +2107,7 @@
       <c r="I10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="34" t="s">
         <v>201</v>
       </c>
       <c r="K10" s="14" t="s">
@@ -2025,23 +2124,23 @@
       <c r="P10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="37">
         <v>6</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="S10" s="39" t="s">
+      <c r="S10" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="T10" s="42" t="s">
+      <c r="T10" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="U10" s="39" t="s">
+      <c r="U10" s="37" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
@@ -2054,55 +2153,58 @@
       <c r="D11" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="33" t="s">
         <v>133</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="47" t="s">
         <v>160</v>
       </c>
       <c r="H11" s="13">
         <v>9</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
       <c r="O11" s="24" t="s">
         <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="44">
         <v>9</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="T11" s="41" t="s">
+      <c r="T11" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="44" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -2115,53 +2217,56 @@
       <c r="D12" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="33" t="s">
         <v>133</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="47" t="s">
         <v>162</v>
       </c>
       <c r="H12" s="13">
         <v>10</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
       <c r="O12" s="24"/>
       <c r="P12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="44">
         <v>9</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="T12" s="41" t="s">
+      <c r="T12" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="44" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -2174,55 +2279,58 @@
       <c r="D13" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="33" t="s">
         <v>133</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="47" t="s">
         <v>147</v>
       </c>
       <c r="H13" s="13">
         <v>11</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
       <c r="O13" s="24" t="s">
         <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="44">
         <v>9</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="T13" s="41" t="s">
+      <c r="T13" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="U13" s="44" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -2235,57 +2343,63 @@
       <c r="D14" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="33" t="s">
         <v>133</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="51">
         <v>12</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18" t="s">
+      <c r="M14" s="52"/>
+      <c r="N14" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="O14" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="56">
         <v>6</v>
       </c>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="S14" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="T14" s="42" t="s">
+      <c r="T14" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="U14" s="39" t="s">
+      <c r="U14" s="56" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="W14" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -2298,49 +2412,52 @@
       <c r="D15" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="47" t="s">
         <v>149</v>
       </c>
       <c r="H15" s="13">
         <v>13</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
       <c r="O15" s="24"/>
       <c r="P15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="44">
         <v>9</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="T15" s="41" t="s">
+      <c r="T15" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="44" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2353,49 +2470,52 @@
       <c r="D16" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E16" s="35"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="47" t="s">
         <v>152</v>
       </c>
       <c r="H16" s="13">
         <v>14</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
       <c r="O16" s="24"/>
       <c r="P16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="44">
         <v>9</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="T16" s="41" t="s">
+      <c r="T16" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="U16" s="44" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -2408,55 +2528,61 @@
       <c r="D17" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="33" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="51">
         <v>15</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18" t="s">
+      <c r="M17" s="52"/>
+      <c r="N17" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="24" t="s">
+      <c r="O17" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="56">
         <v>6</v>
       </c>
-      <c r="R17" s="40" t="s">
+      <c r="R17" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="S17" s="39" t="s">
+      <c r="S17" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="T17" s="42" t="s">
+      <c r="T17" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="U17" s="39" t="s">
+      <c r="U17" s="56" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V17" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="W17" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -2469,53 +2595,56 @@
       <c r="D18" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="33" t="s">
         <v>137</v>
       </c>
       <c r="F18" s="24"/>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="47" t="s">
         <v>155</v>
       </c>
       <c r="H18" s="13">
         <v>16</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
       <c r="O18" s="24" t="s">
         <v>172</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="44">
         <v>9</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="S18" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="T18" s="41" t="s">
+      <c r="T18" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="44" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -2528,51 +2657,54 @@
       <c r="D19" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="33" t="s">
         <v>137</v>
       </c>
       <c r="F19" s="24"/>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="47" t="s">
         <v>157</v>
       </c>
       <c r="H19" s="13">
         <v>17</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
       <c r="O19" s="24"/>
       <c r="P19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="44">
         <v>9</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="T19" s="41" t="s">
+      <c r="T19" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="44" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>15</v>
       </c>
@@ -2585,55 +2717,61 @@
       <c r="D20" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="33" t="s">
         <v>137</v>
       </c>
       <c r="F20" s="24"/>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="51">
         <v>18</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18" t="s">
+      <c r="M20" s="52"/>
+      <c r="N20" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="24" t="s">
+      <c r="O20" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="39">
+      <c r="Q20" s="56">
         <v>6</v>
       </c>
-      <c r="R20" s="40" t="s">
+      <c r="R20" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="S20" s="39" t="s">
+      <c r="S20" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="T20" s="42" t="s">
+      <c r="T20" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="U20" s="39" t="s">
+      <c r="U20" s="56" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V20" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="W20" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>15</v>
       </c>
@@ -2643,54 +2781,60 @@
       <c r="C21" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="51">
         <v>19</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18" t="s">
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="24" t="s">
+      <c r="O21" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="39">
+      <c r="Q21" s="56">
         <v>6</v>
       </c>
-      <c r="R21" s="40" t="s">
+      <c r="R21" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="S21" s="39" t="s">
+      <c r="S21" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="T21" s="42" t="s">
+      <c r="T21" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="U21" s="39" t="s">
+      <c r="U21" s="56" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V21" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="W21" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>15</v>
       </c>
@@ -2703,53 +2847,59 @@
       <c r="D22" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="35"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="24"/>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="51">
         <v>20</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18" t="s">
+      <c r="M22" s="52"/>
+      <c r="N22" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="O22" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="39">
+      <c r="Q22" s="56">
         <v>6</v>
       </c>
-      <c r="R22" s="40" t="s">
+      <c r="R22" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="S22" s="39" t="s">
+      <c r="S22" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="T22" s="42" t="s">
+      <c r="T22" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="U22" s="39" t="s">
+      <c r="U22" s="56" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V22" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="W22" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>15</v>
       </c>
@@ -2762,51 +2912,54 @@
       <c r="D23" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="47" t="s">
         <v>138</v>
       </c>
       <c r="H23" s="13">
         <v>21</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="36" t="s">
+      <c r="J23" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
       <c r="O23" s="24"/>
       <c r="P23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="39">
+      <c r="Q23" s="48">
         <v>9</v>
       </c>
-      <c r="R23" s="40" t="s">
+      <c r="R23" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="S23" s="39" t="s">
+      <c r="S23" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="T23" s="43" t="s">
+      <c r="T23" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="U23" s="39" t="s">
+      <c r="U23" s="48" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V23" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>15</v>
       </c>
@@ -2819,51 +2972,54 @@
       <c r="D24" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="33" t="s">
         <v>228</v>
       </c>
       <c r="F24" s="24"/>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="47" t="s">
         <v>167</v>
       </c>
       <c r="H24" s="13">
         <v>22</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
       <c r="O24" s="24"/>
       <c r="P24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="44">
         <v>9</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="T24" s="41" t="s">
+      <c r="T24" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="44" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V24" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
@@ -2876,9 +3032,9 @@
       <c r="D25" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="13">
@@ -2887,7 +3043,7 @@
       <c r="I25" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="36" t="s">
         <v>202</v>
       </c>
       <c r="K25" s="17" t="s">
@@ -2905,10 +3061,10 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="6"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="41"/>
+      <c r="T25" s="39"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>15</v>
       </c>
@@ -2921,9 +3077,9 @@
       <c r="D26" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="35"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="27" t="s">
         <v>199</v>
       </c>
       <c r="H26" s="13">
@@ -2932,7 +3088,7 @@
       <c r="I26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="36" t="s">
         <v>203</v>
       </c>
       <c r="K26" s="17" t="s">
@@ -2951,23 +3107,26 @@
       <c r="P26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="39">
+      <c r="Q26" s="37">
         <v>6</v>
       </c>
-      <c r="R26" s="40" t="s">
+      <c r="R26" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="S26" s="39" t="s">
+      <c r="S26" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="T26" s="42" t="s">
+      <c r="T26" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="U26" s="39" t="s">
+      <c r="U26" s="37" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V26" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
@@ -2980,9 +3139,9 @@
       <c r="D27" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>181</v>
       </c>
       <c r="H27" s="13">
@@ -2991,7 +3150,7 @@
       <c r="I27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="36" t="s">
         <v>204</v>
       </c>
       <c r="K27" s="17" t="s">
@@ -3006,24 +3165,29 @@
       <c r="P27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="39">
+      <c r="Q27" s="37">
         <v>6</v>
       </c>
-      <c r="R27" s="40" t="s">
+      <c r="R27" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="S27" s="39" t="s">
+      <c r="S27" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="T27" s="43" t="s">
+      <c r="T27" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="U27" s="39" t="s">
+      <c r="U27" s="37" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="29"/>
+    <row r="28" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="28"/>
+    </row>
+    <row r="30" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T30" s="22" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="42" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">

--- a/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion12\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -21,12 +16,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="232">
   <si>
     <t>Asignatura</t>
   </si>
@@ -735,31 +730,13 @@
   </si>
   <si>
     <t>MTC_09_12</t>
-  </si>
-  <si>
-    <t>Jennifer R</t>
-  </si>
-  <si>
-    <t>Jenifer R</t>
-  </si>
-  <si>
-    <t>Josué</t>
-  </si>
-  <si>
-    <t>13 aprovechados</t>
-  </si>
-  <si>
-    <t>Regresado por solicitus gráfica mal construida 25/02/2016</t>
-  </si>
-  <si>
-    <t>Debe agregar 5 ejercicios más</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,14 +788,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -891,12 +862,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -966,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1039,6 +1004,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1054,6 +1022,9 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1085,55 +1056,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1280,7 +1202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1315,7 +1237,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1524,11 +1446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="80" zoomScaleNormal="110" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1557,97 +1479,97 @@
     <col min="22" max="16384" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="79"/>
-      <c r="O1" s="59" t="s">
+      <c r="N1" s="64"/>
+      <c r="O1" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="46" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="74"/>
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="59"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="62"/>
-    </row>
-    <row r="3" spans="1:23" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="47"/>
+    </row>
+    <row r="3" spans="1:21" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1660,9 +1582,9 @@
       <c r="D3" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="43" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="26" t="s">
         <v>140</v>
       </c>
       <c r="H3" s="13">
@@ -1671,43 +1593,40 @@
       <c r="I3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="23" t="s">
         <v>173</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="44">
+      <c r="Q3" s="5">
         <v>9</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="R3" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="S3" s="44" t="s">
+      <c r="S3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="U3" s="44" t="s">
+      <c r="U3" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V3" s="45" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1720,11 +1639,11 @@
       <c r="D4" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="26" t="s">
         <v>142</v>
       </c>
       <c r="H4" s="13">
@@ -1733,43 +1652,40 @@
       <c r="I4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="23" t="s">
         <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="5">
         <v>9</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="S4" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="T4" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="U4" s="44" t="s">
+      <c r="U4" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V4" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1782,11 +1698,11 @@
       <c r="D5" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="26" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="27" t="s">
         <v>188</v>
       </c>
       <c r="H5" s="13">
@@ -1795,7 +1711,7 @@
       <c r="I5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="34" t="s">
         <v>170</v>
       </c>
       <c r="K5" s="17" t="s">
@@ -1814,26 +1730,23 @@
       <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="39">
         <v>6</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="S5" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="T5" s="40" t="s">
+      <c r="T5" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="U5" s="37" t="s">
+      <c r="U5" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="V5" s="22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1846,63 +1759,57 @@
       <c r="D6" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="35" t="s">
         <v>129</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="13">
         <v>4</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52" t="s">
+      <c r="M6" s="18"/>
+      <c r="N6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="54" t="s">
+      <c r="O6" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="P6" s="55" t="s">
+      <c r="P6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="56">
+      <c r="Q6" s="39">
         <v>6</v>
       </c>
-      <c r="R6" s="56" t="s">
+      <c r="R6" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="S6" s="56" t="s">
+      <c r="S6" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="T6" s="57" t="s">
+      <c r="T6" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="U6" s="56" t="s">
+      <c r="U6" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="V6" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="W6" s="22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -1915,11 +1822,11 @@
       <c r="D7" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="35" t="s">
         <v>130</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="28" t="s">
         <v>190</v>
       </c>
       <c r="H7" s="13">
@@ -1928,7 +1835,7 @@
       <c r="I7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="36" t="s">
         <v>191</v>
       </c>
       <c r="K7" s="17" t="s">
@@ -1947,23 +1854,23 @@
       <c r="P7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="39">
         <v>6</v>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="R7" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="S7" s="37" t="s">
+      <c r="S7" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="T7" s="40" t="s">
+      <c r="T7" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="U7" s="37" t="s">
+      <c r="U7" s="39" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -1976,54 +1883,51 @@
       <c r="D8" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="35" t="s">
         <v>130</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="28" t="s">
         <v>144</v>
       </c>
       <c r="H8" s="13">
         <v>6</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
       <c r="O8" s="24"/>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="5">
         <v>9</v>
       </c>
-      <c r="R8" s="44" t="s">
+      <c r="R8" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="S8" s="44" t="s">
+      <c r="S8" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="T8" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="U8" s="44" t="s">
+      <c r="U8" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V8" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
@@ -2036,54 +1940,51 @@
       <c r="D9" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="35" t="s">
         <v>122</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="28" t="s">
         <v>194</v>
       </c>
       <c r="H9" s="13">
         <v>7</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="L9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
       <c r="O9" s="24"/>
       <c r="P9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="Q9" s="39">
         <v>9</v>
       </c>
-      <c r="R9" s="48" t="s">
+      <c r="R9" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="S9" s="48" t="s">
+      <c r="S9" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="T9" s="49" t="s">
+      <c r="T9" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="U9" s="48" t="s">
+      <c r="U9" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="V9" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2096,9 +1997,9 @@
       <c r="D10" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="28" t="s">
         <v>132</v>
       </c>
       <c r="H10" s="13">
@@ -2107,7 +2008,7 @@
       <c r="I10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="36" t="s">
         <v>201</v>
       </c>
       <c r="K10" s="14" t="s">
@@ -2124,23 +2025,23 @@
       <c r="P10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="39">
         <v>6</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="S10" s="37" t="s">
+      <c r="S10" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="T10" s="40" t="s">
+      <c r="T10" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="U10" s="37" t="s">
+      <c r="U10" s="39" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
@@ -2153,58 +2054,55 @@
       <c r="D11" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="35" t="s">
         <v>133</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="28" t="s">
         <v>160</v>
       </c>
       <c r="H11" s="13">
         <v>9</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="47" t="s">
+      <c r="J11" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
       <c r="O11" s="24" t="s">
         <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="5">
         <v>9</v>
       </c>
-      <c r="R11" s="44" t="s">
+      <c r="R11" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="S11" s="44" t="s">
+      <c r="S11" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T11" s="24" t="s">
+      <c r="T11" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="U11" s="44" t="s">
+      <c r="U11" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V11" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -2217,56 +2115,53 @@
       <c r="D12" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="35" t="s">
         <v>133</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="28" t="s">
         <v>162</v>
       </c>
       <c r="H12" s="13">
         <v>10</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
       <c r="O12" s="24"/>
       <c r="P12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="Q12" s="5">
         <v>9</v>
       </c>
-      <c r="R12" s="44" t="s">
+      <c r="R12" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="S12" s="44" t="s">
+      <c r="S12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T12" s="24" t="s">
+      <c r="T12" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="U12" s="44" t="s">
+      <c r="U12" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V12" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -2279,58 +2174,55 @@
       <c r="D13" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="35" t="s">
         <v>133</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="28" t="s">
         <v>147</v>
       </c>
       <c r="H13" s="13">
         <v>11</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="24" t="s">
         <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="44">
+      <c r="Q13" s="5">
         <v>9</v>
       </c>
-      <c r="R13" s="44" t="s">
+      <c r="R13" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="S13" s="44" t="s">
+      <c r="S13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T13" s="24" t="s">
+      <c r="T13" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="U13" s="44" t="s">
+      <c r="U13" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V13" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -2343,63 +2235,57 @@
       <c r="D14" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="35" t="s">
         <v>133</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="H14" s="51">
+      <c r="H14" s="13">
         <v>12</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="K14" s="53" t="s">
+      <c r="K14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="53" t="s">
+      <c r="L14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52" t="s">
+      <c r="M14" s="18"/>
+      <c r="N14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="54" t="s">
+      <c r="O14" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P14" s="55" t="s">
+      <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="56">
+      <c r="Q14" s="39">
         <v>6</v>
       </c>
-      <c r="R14" s="56" t="s">
+      <c r="R14" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="S14" s="56" t="s">
+      <c r="S14" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="T14" s="57" t="s">
+      <c r="T14" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="U14" s="56" t="s">
+      <c r="U14" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="V14" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="W14" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -2412,52 +2298,49 @@
       <c r="D15" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E15" s="33"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="28" t="s">
         <v>149</v>
       </c>
       <c r="H15" s="13">
         <v>13</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="47" t="s">
+      <c r="J15" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
       <c r="O15" s="24"/>
       <c r="P15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="44">
+      <c r="Q15" s="5">
         <v>9</v>
       </c>
-      <c r="R15" s="44" t="s">
+      <c r="R15" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="S15" s="44" t="s">
+      <c r="S15" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T15" s="24" t="s">
+      <c r="T15" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="U15" s="44" t="s">
+      <c r="U15" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V15" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2470,52 +2353,49 @@
       <c r="D16" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E16" s="33"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="28" t="s">
         <v>152</v>
       </c>
       <c r="H16" s="13">
         <v>14</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="47" t="s">
+      <c r="J16" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
       <c r="O16" s="24"/>
       <c r="P16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="5">
         <v>9</v>
       </c>
-      <c r="R16" s="44" t="s">
+      <c r="R16" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="S16" s="44" t="s">
+      <c r="S16" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T16" s="24" t="s">
+      <c r="T16" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="U16" s="44" t="s">
+      <c r="U16" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V16" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -2528,61 +2408,55 @@
       <c r="D17" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="35" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="13">
         <v>15</v>
       </c>
-      <c r="I17" s="52" t="s">
+      <c r="I17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="K17" s="52" t="s">
+      <c r="K17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="52" t="s">
+      <c r="L17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52" t="s">
+      <c r="M17" s="18"/>
+      <c r="N17" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="54" t="s">
+      <c r="O17" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="P17" s="55" t="s">
+      <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="56">
+      <c r="Q17" s="39">
         <v>6</v>
       </c>
-      <c r="R17" s="56" t="s">
+      <c r="R17" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="S17" s="56" t="s">
+      <c r="S17" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="T17" s="57" t="s">
+      <c r="T17" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="U17" s="56" t="s">
+      <c r="U17" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="V17" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="W17" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -2595,56 +2469,53 @@
       <c r="D18" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="35" t="s">
         <v>137</v>
       </c>
       <c r="F18" s="24"/>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="28" t="s">
         <v>155</v>
       </c>
       <c r="H18" s="13">
         <v>16</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
       <c r="O18" s="24" t="s">
         <v>172</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="5">
         <v>9</v>
       </c>
-      <c r="R18" s="44" t="s">
+      <c r="R18" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="S18" s="44" t="s">
+      <c r="S18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T18" s="24" t="s">
+      <c r="T18" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="U18" s="44" t="s">
+      <c r="U18" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V18" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -2657,54 +2528,51 @@
       <c r="D19" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="35" t="s">
         <v>137</v>
       </c>
       <c r="F19" s="24"/>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="28" t="s">
         <v>157</v>
       </c>
       <c r="H19" s="13">
         <v>17</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="47" t="s">
+      <c r="J19" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
       <c r="O19" s="24"/>
       <c r="P19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="Q19" s="5">
         <v>9</v>
       </c>
-      <c r="R19" s="44" t="s">
+      <c r="R19" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="S19" s="44" t="s">
+      <c r="S19" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T19" s="24" t="s">
+      <c r="T19" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="U19" s="44" t="s">
+      <c r="U19" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V19" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>15</v>
       </c>
@@ -2717,61 +2585,55 @@
       <c r="D20" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="35" t="s">
         <v>137</v>
       </c>
       <c r="F20" s="24"/>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="H20" s="51">
+      <c r="H20" s="13">
         <v>18</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="I20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="50" t="s">
+      <c r="J20" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="K20" s="52" t="s">
+      <c r="K20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="52" t="s">
+      <c r="L20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52" t="s">
+      <c r="M20" s="18"/>
+      <c r="N20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="54" t="s">
+      <c r="O20" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="P20" s="55" t="s">
+      <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="56">
+      <c r="Q20" s="39">
         <v>6</v>
       </c>
-      <c r="R20" s="56" t="s">
+      <c r="R20" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="S20" s="56" t="s">
+      <c r="S20" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="T20" s="57" t="s">
+      <c r="T20" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="U20" s="56" t="s">
+      <c r="U20" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="V20" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="W20" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>15</v>
       </c>
@@ -2781,60 +2643,54 @@
       <c r="C21" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="13">
         <v>19</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="K21" s="52" t="s">
+      <c r="K21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52" t="s">
+      <c r="L21" s="20"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="54" t="s">
+      <c r="O21" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="P21" s="55" t="s">
+      <c r="P21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="56">
+      <c r="Q21" s="39">
         <v>6</v>
       </c>
-      <c r="R21" s="56" t="s">
+      <c r="R21" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="S21" s="56" t="s">
+      <c r="S21" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="T21" s="57" t="s">
+      <c r="T21" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="U21" s="56" t="s">
+      <c r="U21" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="V21" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="W21" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>15</v>
       </c>
@@ -2847,59 +2703,53 @@
       <c r="D22" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="24"/>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="51">
+      <c r="H22" s="13">
         <v>20</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="K22" s="52" t="s">
+      <c r="K22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="52" t="s">
+      <c r="L22" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52" t="s">
+      <c r="M22" s="18"/>
+      <c r="N22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="54" t="s">
+      <c r="O22" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="P22" s="55" t="s">
+      <c r="P22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="56">
+      <c r="Q22" s="39">
         <v>6</v>
       </c>
-      <c r="R22" s="56" t="s">
+      <c r="R22" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="S22" s="56" t="s">
+      <c r="S22" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="T22" s="57" t="s">
+      <c r="T22" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="U22" s="56" t="s">
+      <c r="U22" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="V22" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="W22" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>15</v>
       </c>
@@ -2912,54 +2762,51 @@
       <c r="D23" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="35" t="s">
         <v>122</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="28" t="s">
         <v>138</v>
       </c>
       <c r="H23" s="13">
         <v>21</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="47" t="s">
+      <c r="J23" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
       <c r="O23" s="24"/>
       <c r="P23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="48">
+      <c r="Q23" s="39">
         <v>9</v>
       </c>
-      <c r="R23" s="48" t="s">
+      <c r="R23" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="S23" s="48" t="s">
+      <c r="S23" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="T23" s="49" t="s">
+      <c r="T23" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="U23" s="48" t="s">
+      <c r="U23" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="V23" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>15</v>
       </c>
@@ -2972,54 +2819,51 @@
       <c r="D24" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="35" t="s">
         <v>228</v>
       </c>
       <c r="F24" s="24"/>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="28" t="s">
         <v>167</v>
       </c>
       <c r="H24" s="13">
         <v>22</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
       <c r="O24" s="24"/>
       <c r="P24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="44">
+      <c r="Q24" s="5">
         <v>9</v>
       </c>
-      <c r="R24" s="44" t="s">
+      <c r="R24" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="S24" s="44" t="s">
+      <c r="S24" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T24" s="24" t="s">
+      <c r="T24" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="U24" s="44" t="s">
+      <c r="U24" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V24" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
@@ -3032,9 +2876,9 @@
       <c r="D25" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E25" s="33"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="28" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="13">
@@ -3043,7 +2887,7 @@
       <c r="I25" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="36" t="s">
+      <c r="J25" s="38" t="s">
         <v>202</v>
       </c>
       <c r="K25" s="17" t="s">
@@ -3061,10 +2905,10 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="6"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="39"/>
+      <c r="T25" s="41"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>15</v>
       </c>
@@ -3077,9 +2921,9 @@
       <c r="D26" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="33"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="28" t="s">
         <v>199</v>
       </c>
       <c r="H26" s="13">
@@ -3088,7 +2932,7 @@
       <c r="I26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="38" t="s">
         <v>203</v>
       </c>
       <c r="K26" s="17" t="s">
@@ -3107,26 +2951,23 @@
       <c r="P26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="37">
+      <c r="Q26" s="39">
         <v>6</v>
       </c>
-      <c r="R26" s="38" t="s">
+      <c r="R26" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="S26" s="37" t="s">
+      <c r="S26" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="T26" s="40" t="s">
+      <c r="T26" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="U26" s="37" t="s">
+      <c r="U26" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="V26" s="22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
@@ -3139,9 +2980,9 @@
       <c r="D27" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E27" s="33"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="28" t="s">
         <v>181</v>
       </c>
       <c r="H27" s="13">
@@ -3150,7 +2991,7 @@
       <c r="I27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="36" t="s">
+      <c r="J27" s="38" t="s">
         <v>204</v>
       </c>
       <c r="K27" s="17" t="s">
@@ -3165,29 +3006,24 @@
       <c r="P27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="39">
         <v>6</v>
       </c>
-      <c r="R27" s="38" t="s">
+      <c r="R27" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="S27" s="37" t="s">
+      <c r="S27" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="T27" s="41" t="s">
+      <c r="T27" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="U27" s="37" t="s">
+      <c r="U27" s="39" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="28"/>
-    </row>
-    <row r="30" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T30" s="22" t="s">
-        <v>235</v>
-      </c>
+    <row r="28" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="29"/>
     </row>
     <row r="42" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">

--- a/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion12\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -931,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1058,12 +1063,57 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1082,50 +1132,8 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1202,7 +1210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1237,7 +1245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1449,8 +1457,8 @@
   <dimension ref="A1:U78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="80" zoomScaleNormal="110" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H27"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1469,7 @@
     <col min="4" max="4" width="26.140625" style="22" customWidth="1"/>
     <col min="5" max="5" width="31" style="22" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="35" style="22" customWidth="1"/>
+    <col min="7" max="7" width="43" style="22" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="4" customWidth="1"/>
     <col min="9" max="9" width="11" style="4" customWidth="1"/>
     <col min="10" max="10" width="41.140625" style="22" customWidth="1"/>
@@ -1480,94 +1488,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="44" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="61" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="59"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="62"/>
     </row>
     <row r="3" spans="1:21" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -2121,7 +2129,7 @@
       <c r="F12" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="67" t="s">
         <v>162</v>
       </c>
       <c r="H12" s="13">
@@ -3212,6 +3220,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3226,12 +3240,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="233">
   <si>
     <t>Asignatura</t>
   </si>
@@ -735,6 +735,9 @@
   </si>
   <si>
     <t>MTC_09_12</t>
+  </si>
+  <si>
+    <t>14 aprovechados</t>
   </si>
 </sst>
 </file>
@@ -794,7 +797,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -867,8 +870,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -932,11 +941,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -946,18 +1197,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,164 +1218,422 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1454,1778 +1954,1777 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U78"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="80" zoomScaleNormal="110" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="23" style="22" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="31" style="22" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="43" style="22" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="23" style="13" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="31" style="13" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="43" style="13" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="4" customWidth="1"/>
     <col min="9" max="9" width="11" style="4" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" style="13" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="47.7109375" style="25" customWidth="1"/>
+    <col min="15" max="15" width="47.7109375" style="16" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="4" customWidth="1"/>
     <col min="17" max="17" width="17.7109375" style="4" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" style="3" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38" style="22" customWidth="1"/>
+    <col min="20" max="20" width="38" style="13" customWidth="1"/>
     <col min="21" max="21" width="19.7109375" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="22"/>
+    <col min="22" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="46" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="27" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="8" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="62"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="28"/>
     </row>
     <row r="3" spans="1:21" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="26" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="57">
         <v>1</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="23" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="62">
         <v>9</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="63" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="23" t="s">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="46">
         <v>9</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="T4" s="41" t="s">
+      <c r="T4" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="65" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="27" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="103">
         <v>3</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16" t="s">
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="39">
+      <c r="Q5" s="107">
         <v>6</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="108" t="s">
         <v>214</v>
       </c>
-      <c r="U5" s="39" t="s">
+      <c r="U5" s="109" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="103">
         <v>4</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="111" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18" t="s">
+      <c r="M6" s="24"/>
+      <c r="N6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="Q6" s="107">
         <v>6</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R6" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="S6" s="39" t="s">
+      <c r="S6" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="T6" s="108" t="s">
         <v>216</v>
       </c>
-      <c r="U6" s="39" t="s">
+      <c r="U6" s="109" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="28" t="s">
+      <c r="F7" s="48"/>
+      <c r="G7" s="110" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="103">
         <v>5</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="24" t="s">
+      <c r="N7" s="24"/>
+      <c r="O7" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q7" s="107">
         <v>6</v>
       </c>
-      <c r="R7" s="40" t="s">
+      <c r="R7" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="T7" s="42" t="s">
+      <c r="T7" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="U7" s="39" t="s">
+      <c r="U7" s="109" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="28" t="s">
+      <c r="F8" s="48"/>
+      <c r="G8" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="10">
         <v>6</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="7" t="s">
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="46">
         <v>9</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="T8" s="41" t="s">
+      <c r="T8" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="65" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="28" t="s">
+      <c r="F9" s="48"/>
+      <c r="G9" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="68">
         <v>7</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="7" t="s">
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="76">
         <v>9</v>
       </c>
-      <c r="R9" s="40" t="s">
+      <c r="R9" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="S9" s="39" t="s">
+      <c r="S9" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="T9" s="43" t="s">
+      <c r="T9" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="U9" s="39" t="s">
+      <c r="U9" s="79" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="28" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="118">
         <v>8</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="18" t="s">
+      <c r="L10" s="119"/>
+      <c r="M10" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="119"/>
+      <c r="O10" s="121" t="s">
         <v>195</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="122">
         <v>6</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="122" t="s">
         <v>217</v>
       </c>
-      <c r="S10" s="39" t="s">
+      <c r="S10" s="122" t="s">
         <v>218</v>
       </c>
-      <c r="T10" s="42" t="s">
+      <c r="T10" s="123" t="s">
         <v>221</v>
       </c>
-      <c r="U10" s="39" t="s">
+      <c r="U10" s="113" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="10">
         <v>9</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="24" t="s">
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="46">
         <v>9</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="T11" s="41" t="s">
+      <c r="T11" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="114" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="142" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="10">
         <v>10</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="7" t="s">
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="46">
         <v>9</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="T12" s="41" t="s">
+      <c r="T12" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="114" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="10">
         <v>11</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="24" t="s">
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="46">
         <v>9</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="T13" s="41" t="s">
+      <c r="T13" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="U13" s="114" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="85" t="s">
         <v>185</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="82">
         <v>12</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18" t="s">
+      <c r="M14" s="25"/>
+      <c r="N14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="O14" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="84">
         <v>6</v>
       </c>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="S14" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="T14" s="42" t="s">
+      <c r="T14" s="124" t="s">
         <v>222</v>
       </c>
-      <c r="U14" s="39" t="s">
+      <c r="U14" s="115" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="28" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="10">
         <v>13</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="7" t="s">
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="46">
         <v>9</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="T15" s="41" t="s">
+      <c r="T15" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="114" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="28" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="10">
         <v>14</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="7" t="s">
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="46">
         <v>9</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="T16" s="41" t="s">
+      <c r="T16" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="U16" s="114" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:22" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="28" t="s">
+      <c r="F17" s="48"/>
+      <c r="G17" s="125" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="126">
         <v>15</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="128" t="s">
         <v>206</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18" t="s">
+      <c r="M17" s="127"/>
+      <c r="N17" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="24" t="s">
+      <c r="O17" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="131">
         <v>6</v>
       </c>
-      <c r="R17" s="40" t="s">
+      <c r="R17" s="131" t="s">
         <v>212</v>
       </c>
-      <c r="S17" s="39" t="s">
+      <c r="S17" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="T17" s="42" t="s">
+      <c r="T17" s="132" t="s">
         <v>223</v>
       </c>
-      <c r="U17" s="39" t="s">
+      <c r="U17" s="133" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="28" t="s">
+      <c r="F18" s="48"/>
+      <c r="G18" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="57">
         <v>16</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="24" t="s">
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="62">
         <v>9</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="S18" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="T18" s="41" t="s">
+      <c r="T18" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="63" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="28" t="s">
+      <c r="F19" s="48"/>
+      <c r="G19" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="10">
         <v>17</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="7" t="s">
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="46">
         <v>9</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="T19" s="41" t="s">
+      <c r="T19" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="65" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="28" t="s">
+      <c r="F20" s="48"/>
+      <c r="G20" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="88">
         <v>18</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18" t="s">
+      <c r="M20" s="89"/>
+      <c r="N20" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="24" t="s">
+      <c r="O20" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="39">
+      <c r="Q20" s="22">
         <v>6</v>
       </c>
-      <c r="R20" s="40" t="s">
+      <c r="R20" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="S20" s="39" t="s">
+      <c r="S20" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="T20" s="42" t="s">
+      <c r="T20" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="U20" s="39" t="s">
+      <c r="U20" s="66" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="28" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="88">
         <v>19</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18" t="s">
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="24" t="s">
+      <c r="O21" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="39">
+      <c r="Q21" s="22">
         <v>6</v>
       </c>
-      <c r="R21" s="40" t="s">
+      <c r="R21" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="S21" s="39" t="s">
+      <c r="S21" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="T21" s="42" t="s">
+      <c r="T21" s="90" t="s">
         <v>225</v>
       </c>
-      <c r="U21" s="39" t="s">
+      <c r="U21" s="66" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="28" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="88">
         <v>20</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18" t="s">
+      <c r="M22" s="89"/>
+      <c r="N22" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="O22" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="39">
+      <c r="Q22" s="22">
         <v>6</v>
       </c>
-      <c r="R22" s="40" t="s">
+      <c r="R22" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="S22" s="39" t="s">
+      <c r="S22" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="T22" s="42" t="s">
+      <c r="T22" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="U22" s="39" t="s">
+      <c r="U22" s="66" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:22" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="28" t="s">
+      <c r="F23" s="48"/>
+      <c r="G23" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="68">
         <v>21</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="36" t="s">
+      <c r="J23" s="146" t="s">
         <v>207</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="7" t="s">
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="39">
+      <c r="Q23" s="148">
         <v>9</v>
       </c>
-      <c r="R23" s="40" t="s">
+      <c r="R23" s="148" t="s">
         <v>230</v>
       </c>
-      <c r="S23" s="39" t="s">
+      <c r="S23" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="T23" s="43" t="s">
+      <c r="T23" s="149" t="s">
         <v>138</v>
       </c>
-      <c r="U23" s="39" t="s">
+      <c r="U23" s="150" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="28" t="s">
+      <c r="F24" s="48"/>
+      <c r="G24" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="57">
         <v>22</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="7" t="s">
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="62">
         <v>9</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="T24" s="41" t="s">
+      <c r="T24" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="63" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="28" t="s">
+      <c r="E25" s="20"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="10">
         <v>23</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="7" t="s">
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="5"/>
-    </row>
-    <row r="26" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="65"/>
+    </row>
+    <row r="26" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="28" t="s">
+      <c r="E26" s="20"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="100" t="s">
         <v>199</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="94">
         <v>24</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18" t="s">
+      <c r="M26" s="95"/>
+      <c r="N26" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="24" t="s">
+      <c r="O26" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P26" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="39">
+      <c r="Q26" s="97">
         <v>6</v>
       </c>
-      <c r="R26" s="40" t="s">
+      <c r="R26" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="S26" s="39" t="s">
+      <c r="S26" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="T26" s="42" t="s">
+      <c r="T26" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="U26" s="39" t="s">
+      <c r="U26" s="99" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:22" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="28" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="135">
         <v>25</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="137" t="s">
         <v>204</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="20" t="s">
+      <c r="L27" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="7" t="s">
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="39">
+      <c r="Q27" s="139">
         <v>6</v>
       </c>
-      <c r="R27" s="40" t="s">
+      <c r="R27" s="139" t="s">
         <v>212</v>
       </c>
-      <c r="S27" s="39" t="s">
+      <c r="S27" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="T27" s="43" t="s">
+      <c r="T27" s="140" t="s">
         <v>229</v>
       </c>
-      <c r="U27" s="39" t="s">
+      <c r="U27" s="141" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="29"/>
+    <row r="28" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V29" s="13" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="42" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="13" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3240,6 +3739,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -596,9 +596,6 @@
     <t>Presentar la probabilidad de algunos sucesos y plantear la operación a ejecutar, por ejemplo P(A) = 2/5  y P(B)= 1/3 y P(AnB) = 3/4 hallar  P(A u B) para aplicar las propiedades correspondiente s</t>
   </si>
   <si>
-    <t>Aplica las propieddaes de la probabilidad</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actividad para aplicar las propiedades de la probabilidad </t>
   </si>
   <si>
@@ -738,6 +735,9 @@
   </si>
   <si>
     <t>14 aprovechados</t>
+  </si>
+  <si>
+    <t>Aplica las propiedades de la probabilidad</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1260,9 +1260,363 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1281,359 +1635,8 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1956,9 +1959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1988,94 +1991,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="26" t="s">
+      <c r="N1" s="141"/>
+      <c r="O1" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="145" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="53" t="s">
+      <c r="A2" s="134"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="28"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="146"/>
     </row>
     <row r="3" spans="1:21" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2088,50 +2091,50 @@
         <v>127</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" s="18"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="56" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="33">
         <v>1</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="58" t="s">
+      <c r="J3" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="60" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="62">
+      <c r="P3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="38">
         <v>9</v>
       </c>
-      <c r="R3" s="62" t="s">
+      <c r="R3" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="U3" s="39" t="s">
         <v>230</v>
-      </c>
-      <c r="S3" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="T3" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="U3" s="63" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2145,13 +2148,13 @@
         <v>127</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="64" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="40" t="s">
         <v>142</v>
       </c>
       <c r="H4" s="10">
@@ -2160,7 +2163,7 @@
       <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="26" t="s">
         <v>143</v>
       </c>
       <c r="K4" s="9" t="s">
@@ -2177,20 +2180,20 @@
       <c r="P4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="27">
         <v>9</v>
       </c>
-      <c r="R4" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="S4" s="46" t="s">
+      <c r="R4" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="S4" s="27" t="s">
         <v>141</v>
       </c>
       <c r="T4" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="U4" s="65" t="s">
-        <v>231</v>
+      <c r="U4" s="41" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2204,22 +2207,22 @@
         <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="102" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="103">
+      <c r="F5" s="28"/>
+      <c r="G5" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="79">
         <v>3</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="80" t="s">
         <v>170</v>
       </c>
       <c r="K5" s="24" t="s">
@@ -2232,26 +2235,26 @@
       <c r="N5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="105" t="s">
-        <v>187</v>
-      </c>
-      <c r="P5" s="106" t="s">
+      <c r="O5" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="P5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="107">
+      <c r="Q5" s="83">
         <v>6</v>
       </c>
-      <c r="R5" s="107" t="s">
+      <c r="R5" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="S5" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="S5" s="107" t="s">
+      <c r="T5" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="T5" s="108" t="s">
+      <c r="U5" s="85" t="s">
         <v>214</v>
-      </c>
-      <c r="U5" s="109" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2265,24 +2268,24 @@
         <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="110" t="s">
-        <v>192</v>
-      </c>
-      <c r="H6" s="103">
+      <c r="G6" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="79">
         <v>4</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="111" t="s">
+      <c r="J6" s="87" t="s">
         <v>171</v>
       </c>
       <c r="K6" s="24" t="s">
@@ -2295,26 +2298,26 @@
       <c r="N6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="112" t="s">
-        <v>189</v>
-      </c>
-      <c r="P6" s="106" t="s">
+      <c r="O6" s="88" t="s">
+        <v>188</v>
+      </c>
+      <c r="P6" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="107">
+      <c r="Q6" s="83">
         <v>6</v>
       </c>
-      <c r="R6" s="107" t="s">
+      <c r="R6" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="S6" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="S6" s="107" t="s">
-        <v>213</v>
-      </c>
-      <c r="T6" s="108" t="s">
-        <v>216</v>
-      </c>
-      <c r="U6" s="109" t="s">
+      <c r="T6" s="84" t="s">
         <v>215</v>
+      </c>
+      <c r="U6" s="85" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2328,23 +2331,23 @@
         <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="110" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="103">
+      <c r="F7" s="29"/>
+      <c r="G7" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="79">
         <v>5</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="111" t="s">
-        <v>191</v>
+      <c r="J7" s="87" t="s">
+        <v>190</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>20</v>
@@ -2356,26 +2359,26 @@
         <v>124</v>
       </c>
       <c r="N7" s="24"/>
-      <c r="O7" s="112" t="s">
+      <c r="O7" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="P7" s="106" t="s">
+      <c r="P7" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="107">
+      <c r="Q7" s="83">
         <v>6</v>
       </c>
-      <c r="R7" s="107" t="s">
+      <c r="R7" s="83" t="s">
+        <v>216</v>
+      </c>
+      <c r="S7" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="S7" s="107" t="s">
+      <c r="T7" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="T7" s="108" t="s">
+      <c r="U7" s="85" t="s">
         <v>219</v>
-      </c>
-      <c r="U7" s="109" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2389,13 +2392,13 @@
         <v>127</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="80" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="118" t="s">
         <v>144</v>
       </c>
       <c r="H8" s="10">
@@ -2404,7 +2407,7 @@
       <c r="I8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="57" t="s">
         <v>145</v>
       </c>
       <c r="K8" s="23" t="s">
@@ -2419,20 +2422,20 @@
       <c r="P8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="27">
         <v>9</v>
       </c>
-      <c r="R8" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="S8" s="46" t="s">
+      <c r="R8" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="S8" s="27" t="s">
         <v>141</v>
       </c>
       <c r="T8" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="U8" s="65" t="s">
-        <v>231</v>
+      <c r="U8" s="41" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2446,50 +2449,50 @@
         <v>127</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="H9" s="68">
+      <c r="F9" s="29"/>
+      <c r="G9" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="44">
         <v>7</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="K9" s="71" t="s">
+      <c r="J9" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="72" t="s">
+      <c r="L9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="75" t="s">
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="76">
+      <c r="Q9" s="52">
         <v>9</v>
       </c>
-      <c r="R9" s="77" t="s">
+      <c r="R9" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="S9" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="T9" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="U9" s="55" t="s">
         <v>230</v>
-      </c>
-      <c r="S9" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="T9" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="U9" s="79" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2503,50 +2506,50 @@
         <v>127</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="117" t="s">
+      <c r="F10" s="29"/>
+      <c r="G10" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="118">
+      <c r="H10" s="94">
         <v>8</v>
       </c>
-      <c r="I10" s="119" t="s">
+      <c r="I10" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="K10" s="119" t="s">
+      <c r="J10" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119" t="s">
+      <c r="L10" s="95"/>
+      <c r="M10" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="119"/>
-      <c r="O10" s="121" t="s">
-        <v>195</v>
-      </c>
-      <c r="P10" s="122" t="s">
+      <c r="N10" s="95"/>
+      <c r="O10" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="122">
+      <c r="Q10" s="98">
         <v>6</v>
       </c>
-      <c r="R10" s="122" t="s">
+      <c r="R10" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="S10" s="98" t="s">
         <v>217</v>
       </c>
-      <c r="S10" s="122" t="s">
-        <v>218</v>
-      </c>
-      <c r="T10" s="123" t="s">
-        <v>221</v>
-      </c>
-      <c r="U10" s="113" t="s">
+      <c r="T10" s="99" t="s">
         <v>220</v>
+      </c>
+      <c r="U10" s="89" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2560,15 +2563,15 @@
         <v>127</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="80" t="s">
+      <c r="G11" s="56" t="s">
         <v>160</v>
       </c>
       <c r="H11" s="10">
@@ -2577,7 +2580,7 @@
       <c r="I11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="81" t="s">
+      <c r="J11" s="57" t="s">
         <v>161</v>
       </c>
       <c r="K11" s="9" t="s">
@@ -2594,20 +2597,20 @@
       <c r="P11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="27">
         <v>9</v>
       </c>
-      <c r="R11" s="46" t="s">
+      <c r="R11" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="S11" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="T11" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="U11" s="90" t="s">
         <v>230</v>
-      </c>
-      <c r="S11" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="T11" s="116" t="s">
-        <v>160</v>
-      </c>
-      <c r="U11" s="114" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2621,15 +2624,15 @@
         <v>127</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="142" t="s">
+      <c r="G12" s="118" t="s">
         <v>162</v>
       </c>
       <c r="H12" s="10">
@@ -2638,7 +2641,7 @@
       <c r="I12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="81" t="s">
+      <c r="J12" s="57" t="s">
         <v>163</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -2653,20 +2656,20 @@
       <c r="P12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="27">
         <v>9</v>
       </c>
-      <c r="R12" s="46" t="s">
+      <c r="R12" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="T12" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="U12" s="90" t="s">
         <v>230</v>
-      </c>
-      <c r="S12" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="T12" s="116" t="s">
-        <v>164</v>
-      </c>
-      <c r="U12" s="114" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2680,15 +2683,15 @@
         <v>127</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="56" t="s">
         <v>147</v>
       </c>
       <c r="H13" s="10">
@@ -2697,7 +2700,7 @@
       <c r="I13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="81" t="s">
+      <c r="J13" s="57" t="s">
         <v>148</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -2714,20 +2717,20 @@
       <c r="P13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="27">
         <v>9</v>
       </c>
-      <c r="R13" s="46" t="s">
+      <c r="R13" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="S13" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="T13" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="U13" s="90" t="s">
         <v>230</v>
-      </c>
-      <c r="S13" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="T13" s="116" t="s">
-        <v>147</v>
-      </c>
-      <c r="U13" s="114" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2741,25 +2744,25 @@
         <v>127</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="82">
+      <c r="G14" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="58">
         <v>12</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="86" t="s">
-        <v>186</v>
+      <c r="J14" s="62" t="s">
+        <v>185</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>20</v>
@@ -2771,26 +2774,26 @@
       <c r="N14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="87" t="s">
+      <c r="O14" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="P14" s="83" t="s">
+      <c r="P14" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="84">
+      <c r="Q14" s="60">
         <v>6</v>
       </c>
-      <c r="R14" s="84" t="s">
+      <c r="R14" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="S14" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="S14" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="T14" s="124" t="s">
-        <v>222</v>
-      </c>
-      <c r="U14" s="115" t="s">
-        <v>215</v>
+      <c r="T14" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="U14" s="91" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2804,11 +2807,11 @@
         <v>127</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="80" t="s">
+      <c r="F15" s="29"/>
+      <c r="G15" s="118" t="s">
         <v>149</v>
       </c>
       <c r="H15" s="10">
@@ -2817,7 +2820,7 @@
       <c r="I15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="81" t="s">
+      <c r="J15" s="57" t="s">
         <v>150</v>
       </c>
       <c r="K15" s="9" t="s">
@@ -2832,20 +2835,20 @@
       <c r="P15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="27">
         <v>9</v>
       </c>
-      <c r="R15" s="46" t="s">
+      <c r="R15" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="S15" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="U15" s="90" t="s">
         <v>230</v>
-      </c>
-      <c r="S15" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="T15" s="116" t="s">
-        <v>151</v>
-      </c>
-      <c r="U15" s="114" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2859,11 +2862,11 @@
         <v>127</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16" s="20"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="80" t="s">
+      <c r="F16" s="29"/>
+      <c r="G16" s="118" t="s">
         <v>152</v>
       </c>
       <c r="H16" s="10">
@@ -2872,7 +2875,7 @@
       <c r="I16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="81" t="s">
+      <c r="J16" s="57" t="s">
         <v>153</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -2887,20 +2890,20 @@
       <c r="P16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="27">
         <v>9</v>
       </c>
-      <c r="R16" s="46" t="s">
+      <c r="R16" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="S16" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="U16" s="90" t="s">
         <v>230</v>
-      </c>
-      <c r="S16" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="T16" s="116" t="s">
-        <v>154</v>
-      </c>
-      <c r="U16" s="114" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2914,54 +2917,54 @@
         <v>127</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="125" t="s">
+      <c r="F17" s="29"/>
+      <c r="G17" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="126">
+      <c r="H17" s="102">
         <v>15</v>
       </c>
-      <c r="I17" s="127" t="s">
+      <c r="I17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="128" t="s">
-        <v>206</v>
-      </c>
-      <c r="K17" s="127" t="s">
+      <c r="J17" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="127" t="s">
+      <c r="L17" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127" t="s">
+      <c r="M17" s="103"/>
+      <c r="N17" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="129" t="s">
+      <c r="O17" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="P17" s="130" t="s">
+      <c r="P17" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="131">
+      <c r="Q17" s="107">
         <v>6</v>
       </c>
-      <c r="R17" s="131" t="s">
+      <c r="R17" s="107" t="s">
+        <v>211</v>
+      </c>
+      <c r="S17" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="S17" s="131" t="s">
-        <v>213</v>
-      </c>
-      <c r="T17" s="132" t="s">
-        <v>223</v>
-      </c>
-      <c r="U17" s="133" t="s">
-        <v>215</v>
+      <c r="T17" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="U17" s="109" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2980,47 +2983,47 @@
       <c r="E18" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="143" t="s">
+      <c r="F18" s="29"/>
+      <c r="G18" s="119" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="33">
         <v>16</v>
       </c>
-      <c r="I18" s="58" t="s">
+      <c r="I18" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="144" t="s">
+      <c r="J18" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="58" t="s">
+      <c r="K18" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="58" t="s">
+      <c r="L18" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="60" t="s">
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="P18" s="61" t="s">
+      <c r="P18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="62">
+      <c r="Q18" s="38">
         <v>9</v>
       </c>
-      <c r="R18" s="62" t="s">
+      <c r="R18" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="S18" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="T18" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="U18" s="39" t="s">
         <v>230</v>
-      </c>
-      <c r="S18" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="T18" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="U18" s="63" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3039,8 +3042,8 @@
       <c r="E19" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="80" t="s">
+      <c r="F19" s="29"/>
+      <c r="G19" s="118" t="s">
         <v>157</v>
       </c>
       <c r="H19" s="10">
@@ -3049,7 +3052,7 @@
       <c r="I19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="81" t="s">
+      <c r="J19" s="57" t="s">
         <v>158</v>
       </c>
       <c r="K19" s="9" t="s">
@@ -3064,20 +3067,20 @@
       <c r="P19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="27">
         <v>9</v>
       </c>
-      <c r="R19" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="S19" s="46" t="s">
+      <c r="R19" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="S19" s="27" t="s">
         <v>141</v>
       </c>
       <c r="T19" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="U19" s="65" t="s">
-        <v>231</v>
+      <c r="U19" s="41" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3096,49 +3099,49 @@
       <c r="E20" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="91" t="s">
-        <v>196</v>
-      </c>
-      <c r="H20" s="88">
+      <c r="F20" s="29"/>
+      <c r="G20" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" s="64">
         <v>18</v>
       </c>
-      <c r="I20" s="89" t="s">
+      <c r="I20" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="92" t="s">
+      <c r="J20" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="K20" s="89" t="s">
+      <c r="K20" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="89" t="s">
+      <c r="L20" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89" t="s">
+      <c r="M20" s="65"/>
+      <c r="N20" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="93" t="s">
+      <c r="O20" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="P20" s="55" t="s">
+      <c r="P20" s="31" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="22">
         <v>6</v>
       </c>
       <c r="R20" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="S20" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="S20" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="T20" s="90" t="s">
-        <v>224</v>
-      </c>
-      <c r="U20" s="66" t="s">
-        <v>215</v>
+      <c r="T20" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="U20" s="42" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3155,47 +3158,47 @@
         <v>136</v>
       </c>
       <c r="E21" s="20"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="91" t="s">
-        <v>197</v>
-      </c>
-      <c r="H21" s="88">
+      <c r="F21" s="29"/>
+      <c r="G21" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="64">
         <v>19</v>
       </c>
-      <c r="I21" s="89" t="s">
+      <c r="I21" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="92" t="s">
+      <c r="J21" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="K21" s="89" t="s">
+      <c r="K21" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89" t="s">
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="93" t="s">
+      <c r="O21" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="P21" s="55" t="s">
+      <c r="P21" s="31" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="22">
         <v>6</v>
       </c>
       <c r="R21" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="S21" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="S21" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="T21" s="90" t="s">
-        <v>225</v>
-      </c>
-      <c r="U21" s="66" t="s">
-        <v>215</v>
+      <c r="T21" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="U21" s="42" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3212,49 +3215,49 @@
         <v>136</v>
       </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="91" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="88">
+      <c r="F22" s="29"/>
+      <c r="G22" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="64">
         <v>20</v>
       </c>
-      <c r="I22" s="89" t="s">
+      <c r="I22" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="92" t="s">
+      <c r="J22" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="K22" s="89" t="s">
+      <c r="K22" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="89" t="s">
+      <c r="L22" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89" t="s">
+      <c r="M22" s="65"/>
+      <c r="N22" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="93" t="s">
+      <c r="O22" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="P22" s="55" t="s">
+      <c r="P22" s="31" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="22">
         <v>6</v>
       </c>
       <c r="R22" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="S22" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="S22" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="T22" s="90" t="s">
-        <v>226</v>
-      </c>
-      <c r="U22" s="66" t="s">
-        <v>215</v>
+      <c r="T22" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="U22" s="42" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3273,45 +3276,45 @@
       <c r="E23" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="145" t="s">
+      <c r="F23" s="29"/>
+      <c r="G23" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="44">
         <v>21</v>
       </c>
-      <c r="I23" s="69" t="s">
+      <c r="I23" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="146" t="s">
-        <v>207</v>
-      </c>
-      <c r="K23" s="147" t="s">
+      <c r="J23" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="69" t="s">
+      <c r="L23" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="75" t="s">
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="148">
+      <c r="Q23" s="124">
         <v>9</v>
       </c>
-      <c r="R23" s="148" t="s">
+      <c r="R23" s="124" t="s">
+        <v>229</v>
+      </c>
+      <c r="S23" s="124" t="s">
+        <v>141</v>
+      </c>
+      <c r="T23" s="125" t="s">
+        <v>138</v>
+      </c>
+      <c r="U23" s="126" t="s">
         <v>230</v>
-      </c>
-      <c r="S23" s="148" t="s">
-        <v>141</v>
-      </c>
-      <c r="T23" s="149" t="s">
-        <v>138</v>
-      </c>
-      <c r="U23" s="150" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3325,50 +3328,50 @@
         <v>127</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="143" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="33">
         <v>22</v>
       </c>
-      <c r="I24" s="58" t="s">
+      <c r="I24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="144" t="s">
+      <c r="J24" s="120" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="58" t="s">
+      <c r="K24" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="58" t="s">
+      <c r="L24" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="61" t="s">
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="62">
+      <c r="Q24" s="38">
         <v>9</v>
       </c>
-      <c r="R24" s="62" t="s">
+      <c r="R24" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="S24" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="T24" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="U24" s="39" t="s">
         <v>230</v>
-      </c>
-      <c r="S24" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="T24" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="U24" s="63" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3382,11 +3385,11 @@
         <v>127</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E25" s="20"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="80" t="s">
+      <c r="F25" s="29"/>
+      <c r="G25" s="56" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="10">
@@ -3396,7 +3399,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K25" s="23" t="s">
         <v>20</v>
@@ -3410,11 +3413,11 @@
       <c r="P25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
       <c r="T25" s="15"/>
-      <c r="U25" s="65"/>
+      <c r="U25" s="41"/>
     </row>
     <row r="26" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -3427,52 +3430,52 @@
         <v>127</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="70">
+        <v>24</v>
+      </c>
+      <c r="I26" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="73">
+        <v>6</v>
+      </c>
+      <c r="R26" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="100" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="94">
-        <v>24</v>
-      </c>
-      <c r="I26" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="101" t="s">
-        <v>203</v>
-      </c>
-      <c r="K26" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="95" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="P26" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="97">
-        <v>6</v>
-      </c>
-      <c r="R26" s="97" t="s">
+      <c r="S26" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="S26" s="97" t="s">
-        <v>213</v>
-      </c>
-      <c r="T26" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="U26" s="99" t="s">
-        <v>215</v>
+      <c r="T26" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="U26" s="75" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3486,48 +3489,48 @@
         <v>127</v>
       </c>
       <c r="D27" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="110" t="s">
+        <v>181</v>
+      </c>
+      <c r="H27" s="111">
+        <v>25</v>
+      </c>
+      <c r="I27" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="115">
+        <v>6</v>
+      </c>
+      <c r="R27" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="134" t="s">
-        <v>181</v>
-      </c>
-      <c r="H27" s="135">
-        <v>25</v>
-      </c>
-      <c r="I27" s="136" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="137" t="s">
-        <v>204</v>
-      </c>
-      <c r="K27" s="136" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="136" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="139">
-        <v>6</v>
-      </c>
-      <c r="R27" s="139" t="s">
+      <c r="S27" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="S27" s="139" t="s">
-        <v>213</v>
-      </c>
-      <c r="T27" s="140" t="s">
-        <v>229</v>
-      </c>
-      <c r="U27" s="141" t="s">
-        <v>215</v>
+      <c r="T27" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="U27" s="117" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3535,7 +3538,7 @@
     </row>
     <row r="29" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V29" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3725,6 +3728,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3739,12 +3748,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="235">
   <si>
     <t>Asignatura</t>
   </si>
@@ -738,6 +738,12 @@
   </si>
   <si>
     <t>Aplica las propiedades de la probabilidad</t>
+  </si>
+  <si>
+    <t>Jennifer Rojas</t>
+  </si>
+  <si>
+    <t>Jennifer ROjas</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1311,45 +1317,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1563,18 +1542,39 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1616,27 +1616,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1959,9 +1938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1990,26 +1969,26 @@
     <col min="22" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="131" t="s">
+      <c r="E1" s="129" t="s">
         <v>111</v>
       </c>
       <c r="F1" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="133" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="127" t="s">
@@ -2018,69 +1997,69 @@
       <c r="I1" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="139" t="s">
+      <c r="J1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="137" t="s">
+      <c r="K1" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="135" t="s">
+      <c r="L1" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="141" t="s">
+      <c r="M1" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="141"/>
-      <c r="O1" s="129" t="s">
+      <c r="N1" s="139"/>
+      <c r="O1" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="129" t="s">
+      <c r="P1" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="145" t="s">
+      <c r="Q1" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="149" t="s">
+      <c r="R1" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="145" t="s">
+      <c r="S1" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="147" t="s">
+      <c r="T1" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="145" t="s">
+      <c r="U1" s="121" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="134"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="136"/>
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="132"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="134"/>
       <c r="H2" s="128"/>
       <c r="I2" s="128"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="136"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="134"/>
       <c r="M2" s="30" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="146"/>
-    </row>
-    <row r="3" spans="1:21" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="122"/>
+    </row>
+    <row r="3" spans="1:22" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2137,7 +2116,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -2196,7 +2175,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -2213,16 +2192,16 @@
         <v>128</v>
       </c>
       <c r="F5" s="28"/>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="H5" s="79">
+      <c r="H5" s="70">
         <v>3</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="80" t="s">
+      <c r="J5" s="71" t="s">
         <v>170</v>
       </c>
       <c r="K5" s="24" t="s">
@@ -2235,29 +2214,32 @@
       <c r="N5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="81" t="s">
+      <c r="O5" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="P5" s="82" t="s">
+      <c r="P5" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="83">
+      <c r="Q5" s="74">
         <v>6</v>
       </c>
-      <c r="R5" s="83" t="s">
+      <c r="R5" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="S5" s="83" t="s">
+      <c r="S5" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="T5" s="84" t="s">
+      <c r="T5" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="U5" s="85" t="s">
+      <c r="U5" s="76" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2276,16 +2258,16 @@
       <c r="F6" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H6" s="70">
         <v>4</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="87" t="s">
+      <c r="J6" s="78" t="s">
         <v>171</v>
       </c>
       <c r="K6" s="24" t="s">
@@ -2298,29 +2280,32 @@
       <c r="N6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="88" t="s">
+      <c r="O6" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="82" t="s">
+      <c r="P6" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="83">
+      <c r="Q6" s="74">
         <v>6</v>
       </c>
-      <c r="R6" s="83" t="s">
+      <c r="R6" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="S6" s="83" t="s">
+      <c r="S6" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="T6" s="84" t="s">
+      <c r="T6" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="76" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -2337,16 +2322,16 @@
         <v>130</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="H7" s="79">
+      <c r="H7" s="70">
         <v>5</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="87" t="s">
+      <c r="J7" s="78" t="s">
         <v>190</v>
       </c>
       <c r="K7" s="24" t="s">
@@ -2359,29 +2344,29 @@
         <v>124</v>
       </c>
       <c r="N7" s="24"/>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="P7" s="82" t="s">
+      <c r="P7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="83">
+      <c r="Q7" s="74">
         <v>6</v>
       </c>
-      <c r="R7" s="83" t="s">
+      <c r="R7" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="S7" s="83" t="s">
+      <c r="S7" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="T7" s="84" t="s">
+      <c r="T7" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="U7" s="85" t="s">
+      <c r="U7" s="76" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2398,7 +2383,7 @@
         <v>130</v>
       </c>
       <c r="F8" s="29"/>
-      <c r="G8" s="118" t="s">
+      <c r="G8" s="109" t="s">
         <v>144</v>
       </c>
       <c r="H8" s="10">
@@ -2407,7 +2392,7 @@
       <c r="I8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="48" t="s">
         <v>145</v>
       </c>
       <c r="K8" s="23" t="s">
@@ -2438,7 +2423,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -2455,47 +2440,47 @@
         <v>122</v>
       </c>
       <c r="F9" s="29"/>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="43">
         <v>7</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="48" t="s">
+      <c r="L9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="51" t="s">
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="52">
+      <c r="Q9" s="115">
         <v>9</v>
       </c>
-      <c r="R9" s="53" t="s">
+      <c r="R9" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="S9" s="52" t="s">
+      <c r="S9" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="T9" s="54" t="s">
+      <c r="T9" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="U9" s="55" t="s">
+      <c r="U9" s="117" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -2510,49 +2495,49 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="93" t="s">
+      <c r="G10" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="94">
+      <c r="H10" s="85">
         <v>8</v>
       </c>
-      <c r="I10" s="95" t="s">
+      <c r="I10" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="96" t="s">
+      <c r="J10" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95" t="s">
+      <c r="L10" s="86"/>
+      <c r="M10" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="95"/>
-      <c r="O10" s="97" t="s">
+      <c r="N10" s="86"/>
+      <c r="O10" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="P10" s="98" t="s">
+      <c r="P10" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="98">
+      <c r="Q10" s="89">
         <v>6</v>
       </c>
-      <c r="R10" s="98" t="s">
+      <c r="R10" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="S10" s="98" t="s">
+      <c r="S10" s="89" t="s">
         <v>217</v>
       </c>
-      <c r="T10" s="99" t="s">
+      <c r="T10" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="U10" s="89" t="s">
+      <c r="U10" s="80" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -2571,7 +2556,7 @@
       <c r="F11" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="47" t="s">
         <v>160</v>
       </c>
       <c r="H11" s="10">
@@ -2580,7 +2565,7 @@
       <c r="I11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="48" t="s">
         <v>161</v>
       </c>
       <c r="K11" s="9" t="s">
@@ -2606,14 +2591,14 @@
       <c r="S11" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="T11" s="92" t="s">
+      <c r="T11" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="U11" s="90" t="s">
+      <c r="U11" s="81" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -2632,7 +2617,7 @@
       <c r="F12" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="118" t="s">
+      <c r="G12" s="109" t="s">
         <v>162</v>
       </c>
       <c r="H12" s="10">
@@ -2641,7 +2626,7 @@
       <c r="I12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="J12" s="48" t="s">
         <v>163</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -2665,14 +2650,14 @@
       <c r="S12" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="T12" s="92" t="s">
+      <c r="T12" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="81" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -2691,7 +2676,7 @@
       <c r="F13" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="47" t="s">
         <v>147</v>
       </c>
       <c r="H13" s="10">
@@ -2700,7 +2685,7 @@
       <c r="I13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="48" t="s">
         <v>148</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -2726,14 +2711,14 @@
       <c r="S13" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="T13" s="92" t="s">
+      <c r="T13" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="U13" s="90" t="s">
+      <c r="U13" s="81" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -2752,16 +2737,16 @@
       <c r="F14" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="49">
         <v>12</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="53" t="s">
         <v>185</v>
       </c>
       <c r="K14" s="8" t="s">
@@ -2774,29 +2759,32 @@
       <c r="N14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="63" t="s">
+      <c r="O14" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="P14" s="59" t="s">
+      <c r="P14" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="60">
+      <c r="Q14" s="51">
         <v>6</v>
       </c>
-      <c r="R14" s="60" t="s">
+      <c r="R14" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="S14" s="60" t="s">
+      <c r="S14" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="T14" s="100" t="s">
+      <c r="T14" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="U14" s="91" t="s">
+      <c r="U14" s="82" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -2811,7 +2799,7 @@
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="118" t="s">
+      <c r="G15" s="109" t="s">
         <v>149</v>
       </c>
       <c r="H15" s="10">
@@ -2820,7 +2808,7 @@
       <c r="I15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="57" t="s">
+      <c r="J15" s="48" t="s">
         <v>150</v>
       </c>
       <c r="K15" s="9" t="s">
@@ -2844,14 +2832,14 @@
       <c r="S15" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="T15" s="92" t="s">
+      <c r="T15" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="U15" s="90" t="s">
+      <c r="U15" s="81" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2866,7 +2854,7 @@
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="118" t="s">
+      <c r="G16" s="109" t="s">
         <v>152</v>
       </c>
       <c r="H16" s="10">
@@ -2875,7 +2863,7 @@
       <c r="I16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="57" t="s">
+      <c r="J16" s="48" t="s">
         <v>153</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -2899,10 +2887,10 @@
       <c r="S16" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="T16" s="92" t="s">
+      <c r="T16" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="U16" s="90" t="s">
+      <c r="U16" s="81" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2923,48 +2911,51 @@
         <v>122</v>
       </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="101" t="s">
+      <c r="G17" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="102">
+      <c r="H17" s="93">
         <v>15</v>
       </c>
-      <c r="I17" s="103" t="s">
+      <c r="I17" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="104" t="s">
+      <c r="J17" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="K17" s="103" t="s">
+      <c r="K17" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="103" t="s">
+      <c r="L17" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103" t="s">
+      <c r="M17" s="94"/>
+      <c r="N17" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="105" t="s">
+      <c r="O17" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="P17" s="106" t="s">
+      <c r="P17" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="107">
+      <c r="Q17" s="98">
         <v>6</v>
       </c>
-      <c r="R17" s="107" t="s">
+      <c r="R17" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="S17" s="107" t="s">
+      <c r="S17" s="98" t="s">
         <v>212</v>
       </c>
-      <c r="T17" s="108" t="s">
+      <c r="T17" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="U17" s="109" t="s">
+      <c r="U17" s="100" t="s">
         <v>214</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2984,7 +2975,7 @@
         <v>137</v>
       </c>
       <c r="F18" s="29"/>
-      <c r="G18" s="119" t="s">
+      <c r="G18" s="110" t="s">
         <v>155</v>
       </c>
       <c r="H18" s="33">
@@ -2993,7 +2984,7 @@
       <c r="I18" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="120" t="s">
+      <c r="J18" s="111" t="s">
         <v>156</v>
       </c>
       <c r="K18" s="34" t="s">
@@ -3043,7 +3034,7 @@
         <v>137</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="118" t="s">
+      <c r="G19" s="109" t="s">
         <v>157</v>
       </c>
       <c r="H19" s="10">
@@ -3052,7 +3043,7 @@
       <c r="I19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="57" t="s">
+      <c r="J19" s="48" t="s">
         <v>158</v>
       </c>
       <c r="K19" s="9" t="s">
@@ -3100,29 +3091,29 @@
         <v>137</v>
       </c>
       <c r="F20" s="29"/>
-      <c r="G20" s="67" t="s">
+      <c r="G20" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="55">
         <v>18</v>
       </c>
-      <c r="I20" s="65" t="s">
+      <c r="I20" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="68" t="s">
+      <c r="J20" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="K20" s="65" t="s">
+      <c r="K20" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="65" t="s">
+      <c r="L20" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65" t="s">
+      <c r="M20" s="56"/>
+      <c r="N20" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="69" t="s">
+      <c r="O20" s="60" t="s">
         <v>178</v>
       </c>
       <c r="P20" s="31" t="s">
@@ -3137,11 +3128,14 @@
       <c r="S20" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="T20" s="66" t="s">
+      <c r="T20" s="57" t="s">
         <v>223</v>
       </c>
       <c r="U20" s="42" t="s">
         <v>214</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3159,27 +3153,27 @@
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="H21" s="64">
+      <c r="H21" s="55">
         <v>19</v>
       </c>
-      <c r="I21" s="65" t="s">
+      <c r="I21" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="68" t="s">
+      <c r="J21" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="K21" s="65" t="s">
+      <c r="K21" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65" t="s">
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="69" t="s">
+      <c r="O21" s="60" t="s">
         <v>182</v>
       </c>
       <c r="P21" s="31" t="s">
@@ -3194,11 +3188,14 @@
       <c r="S21" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="T21" s="66" t="s">
+      <c r="T21" s="57" t="s">
         <v>224</v>
       </c>
       <c r="U21" s="42" t="s">
         <v>214</v>
+      </c>
+      <c r="V21" s="13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3216,29 +3213,29 @@
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="55">
         <v>20</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="68" t="s">
+      <c r="J22" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="K22" s="65" t="s">
+      <c r="K22" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="65" t="s">
+      <c r="L22" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65" t="s">
+      <c r="M22" s="56"/>
+      <c r="N22" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="69" t="s">
+      <c r="O22" s="60" t="s">
         <v>180</v>
       </c>
       <c r="P22" s="31" t="s">
@@ -3253,11 +3250,14 @@
       <c r="S22" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="T22" s="66" t="s">
+      <c r="T22" s="57" t="s">
         <v>225</v>
       </c>
       <c r="U22" s="42" t="s">
         <v>214</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3277,43 +3277,43 @@
         <v>122</v>
       </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="121" t="s">
+      <c r="G23" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="43">
         <v>21</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="122" t="s">
+      <c r="J23" s="113" t="s">
         <v>206</v>
       </c>
-      <c r="K23" s="123" t="s">
+      <c r="K23" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="45" t="s">
+      <c r="L23" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="51" t="s">
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="124">
+      <c r="Q23" s="115">
         <v>9</v>
       </c>
-      <c r="R23" s="124" t="s">
+      <c r="R23" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="S23" s="124" t="s">
+      <c r="S23" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="T23" s="125" t="s">
+      <c r="T23" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="U23" s="126" t="s">
+      <c r="U23" s="117" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
         <v>227</v>
       </c>
       <c r="F24" s="29"/>
-      <c r="G24" s="151" t="s">
+      <c r="G24" s="118" t="s">
         <v>167</v>
       </c>
       <c r="H24" s="33">
@@ -3343,7 +3343,7 @@
       <c r="I24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="120" t="s">
+      <c r="J24" s="111" t="s">
         <v>168</v>
       </c>
       <c r="K24" s="34" t="s">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="29"/>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="47" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="10">
@@ -3434,47 +3434,47 @@
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="29"/>
-      <c r="G26" s="76" t="s">
+      <c r="G26" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="H26" s="70">
+      <c r="H26" s="61">
         <v>24</v>
       </c>
-      <c r="I26" s="71" t="s">
+      <c r="I26" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="77" t="s">
+      <c r="J26" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="K26" s="71" t="s">
+      <c r="K26" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="71" t="s">
+      <c r="L26" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71" t="s">
+      <c r="M26" s="62"/>
+      <c r="N26" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="77" t="s">
+      <c r="O26" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="P26" s="72" t="s">
+      <c r="P26" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="73">
+      <c r="Q26" s="64">
         <v>6</v>
       </c>
-      <c r="R26" s="73" t="s">
+      <c r="R26" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="S26" s="73" t="s">
+      <c r="S26" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="T26" s="74" t="s">
+      <c r="T26" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="U26" s="75" t="s">
+      <c r="U26" s="66" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3493,43 +3493,43 @@
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="29"/>
-      <c r="G27" s="110" t="s">
+      <c r="G27" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="H27" s="111">
+      <c r="H27" s="102">
         <v>25</v>
       </c>
-      <c r="I27" s="112" t="s">
+      <c r="I27" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="113" t="s">
+      <c r="J27" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="K27" s="112" t="s">
+      <c r="K27" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="112" t="s">
+      <c r="L27" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="114" t="s">
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="115">
+      <c r="Q27" s="106">
         <v>6</v>
       </c>
-      <c r="R27" s="115" t="s">
+      <c r="R27" s="106" t="s">
         <v>211</v>
       </c>
-      <c r="S27" s="115" t="s">
+      <c r="S27" s="106" t="s">
         <v>212</v>
       </c>
-      <c r="T27" s="116" t="s">
+      <c r="T27" s="107" t="s">
         <v>228</v>
       </c>
-      <c r="U27" s="117" t="s">
+      <c r="U27" s="108" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3728,12 +3728,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3748,6 +3742,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="240">
   <si>
     <t>Asignatura</t>
   </si>
@@ -563,9 +563,6 @@
     <t>Redactar las preguntas en la sección de aplica de una forma mejor, por ejemplo ¿Qué dos tipos de fenómenos presenta el video? Por… En el video se presentan dos tipos de fenómenos, ¿cuáles son?¿Qué diferencia el uno del otro?</t>
   </si>
   <si>
-    <t xml:space="preserve">Para la redacción cambiar las palabras creéis por crees.  Exponer más ejemplos sobre experimentos aleatorios antes de iniciar con sucesos </t>
-  </si>
-  <si>
     <t xml:space="preserve">Presentar en el recurso los diferentes tipos de operaciones y la solución de situaciones a partir del trabajo por conjuntos de forma gráfica o por extensión </t>
   </si>
   <si>
@@ -744,6 +741,24 @@
   </si>
   <si>
     <t>Jennifer ROjas</t>
+  </si>
+  <si>
+    <t>Corrección de estilo</t>
+  </si>
+  <si>
+    <t>Imágenes</t>
+  </si>
+  <si>
+    <t>NO se necesita</t>
+  </si>
+  <si>
+    <t>Josué Malagón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para la redacción cambiar las palabras creéis por crees. </t>
+  </si>
+  <si>
+    <t>No se necesita</t>
   </si>
 </sst>
 </file>
@@ -803,7 +818,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,8 +897,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1103,45 +1136,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1179,13 +1173,170 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1193,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1230,9 +1381,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1266,9 +1414,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1284,17 +1429,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1305,18 +1444,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1386,26 +1513,14 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1416,9 +1531,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1428,15 +1540,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1464,10 +1567,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1479,142 +1582,331 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1936,11 +2228,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1950,7 +2242,7 @@
     <col min="3" max="3" width="23" style="13" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="13" customWidth="1"/>
     <col min="5" max="5" width="31" style="13" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="15" customWidth="1"/>
     <col min="7" max="7" width="43" style="13" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="4" customWidth="1"/>
     <col min="9" max="9" width="11" style="4" customWidth="1"/>
@@ -1959,107 +2251,120 @@
     <col min="12" max="12" width="17.42578125" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="47.7109375" style="16" customWidth="1"/>
+    <col min="15" max="15" width="47.7109375" style="15" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="4" customWidth="1"/>
     <col min="17" max="17" width="17.7109375" style="4" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" style="3" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="38" style="13" customWidth="1"/>
     <col min="21" max="21" width="19.7109375" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="13"/>
+    <col min="22" max="22" width="20" style="13" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" style="13" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" style="13" customWidth="1"/>
+    <col min="25" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+    <row r="1" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="E1" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="133" t="s">
+      <c r="G1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="H1" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="137" t="s">
+      <c r="J1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="135" t="s">
+      <c r="K1" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="133" t="s">
+      <c r="L1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="139" t="s">
+      <c r="M1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="139"/>
-      <c r="O1" s="119" t="s">
+      <c r="N1" s="114"/>
+      <c r="O1" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="119" t="s">
+      <c r="P1" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="121" t="s">
+      <c r="Q1" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="125" t="s">
+      <c r="R1" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="121" t="s">
+      <c r="S1" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="123" t="s">
+      <c r="T1" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="121" t="s">
+      <c r="U1" s="118" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="30" t="s">
+      <c r="V1" s="137"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+    </row>
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="107"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="122"/>
-    </row>
-    <row r="3" spans="1:22" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="143" t="s">
+        <v>234</v>
+      </c>
+      <c r="X2" s="145" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2070,53 +2375,62 @@
         <v>127</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="161" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="162">
         <v>1</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="K3" s="34" t="s">
+      <c r="J3" s="164" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="36" t="s">
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="165" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="38">
+      <c r="P3" s="166" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="167">
         <v>9</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="167" t="s">
+        <v>228</v>
+      </c>
+      <c r="S3" s="167" t="s">
+        <v>141</v>
+      </c>
+      <c r="T3" s="165" t="s">
+        <v>140</v>
+      </c>
+      <c r="U3" s="168" t="s">
         <v>229</v>
       </c>
-      <c r="S3" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="U3" s="39" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="160" t="s">
+        <v>237</v>
+      </c>
+      <c r="W3" s="144">
+        <v>42458</v>
+      </c>
+      <c r="X3" s="135" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -2127,55 +2441,64 @@
         <v>127</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="40" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="169" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="147">
         <v>2</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="170" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="P4" s="5" t="s">
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="151" t="s">
+        <v>238</v>
+      </c>
+      <c r="P4" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="171">
         <v>9</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="R4" s="171" t="s">
+        <v>228</v>
+      </c>
+      <c r="S4" s="171" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" s="158" t="s">
+        <v>142</v>
+      </c>
+      <c r="U4" s="172" t="s">
         <v>229</v>
       </c>
-      <c r="S4" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="U4" s="41" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="W4" s="144">
+        <v>42458</v>
+      </c>
+      <c r="X4" s="135" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -2186,60 +2509,66 @@
         <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="H5" s="70">
+      <c r="F5" s="26"/>
+      <c r="G5" s="146" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" s="147">
         <v>3</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="149" t="s">
         <v>170</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="148"/>
+      <c r="N5" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="P5" s="73" t="s">
+      <c r="O5" s="151" t="s">
+        <v>185</v>
+      </c>
+      <c r="P5" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="74">
+      <c r="Q5" s="153">
         <v>6</v>
       </c>
-      <c r="R5" s="74" t="s">
+      <c r="R5" s="153" t="s">
+        <v>210</v>
+      </c>
+      <c r="S5" s="153" t="s">
         <v>211</v>
       </c>
-      <c r="S5" s="74" t="s">
+      <c r="T5" s="154" t="s">
         <v>212</v>
       </c>
-      <c r="T5" s="75" t="s">
+      <c r="U5" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="U5" s="76" t="s">
-        <v>214</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="140" t="s">
+        <v>232</v>
+      </c>
+      <c r="W5" s="144">
+        <v>42458</v>
+      </c>
+      <c r="X5" s="135" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2250,62 +2579,68 @@
         <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="H6" s="70">
+      <c r="G6" s="156" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="147">
         <v>4</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="157" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24" t="s">
+      <c r="M6" s="150"/>
+      <c r="N6" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="P6" s="73" t="s">
+      <c r="O6" s="158" t="s">
+        <v>187</v>
+      </c>
+      <c r="P6" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="74">
+      <c r="Q6" s="153">
         <v>6</v>
       </c>
-      <c r="R6" s="74" t="s">
+      <c r="R6" s="153" t="s">
+        <v>210</v>
+      </c>
+      <c r="S6" s="153" t="s">
         <v>211</v>
       </c>
-      <c r="S6" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="T6" s="75" t="s">
-        <v>215</v>
-      </c>
-      <c r="U6" s="76" t="s">
+      <c r="T6" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="V6" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="155" t="s">
+        <v>213</v>
+      </c>
+      <c r="V6" s="140" t="s">
+        <v>232</v>
+      </c>
+      <c r="W6" s="144">
+        <v>42458</v>
+      </c>
+      <c r="X6" s="135" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -2316,57 +2651,60 @@
         <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="77" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="60">
+        <v>5</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="H7" s="70">
-        <v>5</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="P7" s="73" t="s">
+      <c r="N7" s="23"/>
+      <c r="O7" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="P7" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="74">
+      <c r="Q7" s="62">
         <v>6</v>
       </c>
-      <c r="R7" s="74" t="s">
+      <c r="R7" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="S7" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="S7" s="74" t="s">
+      <c r="T7" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="T7" s="75" t="s">
+      <c r="U7" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="U7" s="76" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="139"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="135"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2377,53 +2715,62 @@
         <v>127</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="109" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="173" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="147">
         <v>6</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="5" t="s">
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="171">
         <v>9</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="R8" s="171" t="s">
+        <v>228</v>
+      </c>
+      <c r="S8" s="171" t="s">
+        <v>141</v>
+      </c>
+      <c r="T8" s="158" t="s">
+        <v>146</v>
+      </c>
+      <c r="U8" s="172" t="s">
         <v>229</v>
       </c>
-      <c r="S8" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="U8" s="41" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V8" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="W8" s="144">
+        <v>42458</v>
+      </c>
+      <c r="X8" s="135" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -2434,53 +2781,60 @@
         <v>127</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="112" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" s="43">
+      <c r="F9" s="27"/>
+      <c r="G9" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="175">
         <v>7</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="113" t="s">
-        <v>204</v>
-      </c>
-      <c r="K9" s="44" t="s">
+      <c r="J9" s="177" t="s">
+        <v>203</v>
+      </c>
+      <c r="K9" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="46" t="s">
+      <c r="M9" s="176"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="178"/>
+      <c r="P9" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="115">
+      <c r="Q9" s="180">
         <v>9</v>
       </c>
-      <c r="R9" s="115" t="s">
+      <c r="R9" s="180" t="s">
+        <v>228</v>
+      </c>
+      <c r="S9" s="180" t="s">
+        <v>141</v>
+      </c>
+      <c r="T9" s="181" t="s">
+        <v>191</v>
+      </c>
+      <c r="U9" s="182" t="s">
         <v>229</v>
       </c>
-      <c r="S9" s="115" t="s">
-        <v>141</v>
-      </c>
-      <c r="T9" s="116" t="s">
-        <v>192</v>
-      </c>
-      <c r="U9" s="117" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="W9" s="144">
+        <v>42642</v>
+      </c>
+      <c r="X9" s="135"/>
+    </row>
+    <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -2491,53 +2845,56 @@
         <v>127</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="85">
+      <c r="H10" s="69">
         <v>8</v>
       </c>
-      <c r="I10" s="86" t="s">
+      <c r="I10" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="K10" s="86" t="s">
+      <c r="J10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86" t="s">
+      <c r="L10" s="70"/>
+      <c r="M10" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="86"/>
-      <c r="O10" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="P10" s="89" t="s">
+      <c r="N10" s="70"/>
+      <c r="O10" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="P10" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="89">
+      <c r="Q10" s="73">
         <v>6</v>
       </c>
-      <c r="R10" s="89" t="s">
+      <c r="R10" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="S10" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="S10" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="T10" s="90" t="s">
-        <v>220</v>
-      </c>
-      <c r="U10" s="80" t="s">
+      <c r="T10" s="74" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="128" t="s">
+        <v>218</v>
+      </c>
+      <c r="V10" s="139"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+    </row>
+    <row r="11" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -2548,24 +2905,24 @@
         <v>127</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E11" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="39" t="s">
         <v>160</v>
       </c>
       <c r="H11" s="10">
         <v>9</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="40" t="s">
         <v>161</v>
       </c>
       <c r="K11" s="9" t="s">
@@ -2574,31 +2931,34 @@
       <c r="L11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="15" t="s">
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="14" t="s">
         <v>165</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="25">
         <v>9</v>
       </c>
-      <c r="R11" s="27" t="s">
+      <c r="R11" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="S11" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="T11" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="U11" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="S11" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="T11" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="U11" s="81" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="139"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+    </row>
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -2609,24 +2969,24 @@
         <v>127</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="109" t="s">
+      <c r="G12" s="91" t="s">
         <v>162</v>
       </c>
       <c r="H12" s="10">
         <v>10</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="40" t="s">
         <v>163</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -2635,29 +2995,32 @@
       <c r="L12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="15"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="14"/>
       <c r="P12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="25">
         <v>9</v>
       </c>
-      <c r="R12" s="27" t="s">
+      <c r="R12" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="T12" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="U12" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="S12" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="T12" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="U12" s="81" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="139"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+    </row>
+    <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -2668,24 +3031,24 @@
         <v>127</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="39" t="s">
         <v>147</v>
       </c>
       <c r="H13" s="10">
         <v>11</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="40" t="s">
         <v>148</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -2694,31 +3057,34 @@
       <c r="L13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="15" t="s">
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="14" t="s">
         <v>166</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="25">
         <v>9</v>
       </c>
-      <c r="R13" s="27" t="s">
+      <c r="R13" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="T13" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="U13" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="S13" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="T13" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="U13" s="81" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="139"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+    </row>
+    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -2729,25 +3095,25 @@
         <v>127</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E14" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="H14" s="49">
+      <c r="G14" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="41">
         <v>12</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="53" t="s">
-        <v>185</v>
+      <c r="J14" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>20</v>
@@ -2755,36 +3121,40 @@
       <c r="L14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25" t="s">
+      <c r="M14" s="24"/>
+      <c r="N14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="P14" s="50" t="s">
+      <c r="O14" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="P14" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="43">
         <v>6</v>
       </c>
-      <c r="R14" s="51" t="s">
+      <c r="R14" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="S14" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="S14" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="T14" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="U14" s="82" t="s">
-        <v>214</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="U14" s="130" t="s">
+        <v>213</v>
+      </c>
+      <c r="V14" s="139" t="s">
+        <v>232</v>
+      </c>
+      <c r="W14" s="135"/>
+      <c r="X14" s="159">
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -2795,20 +3165,20 @@
         <v>127</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="91" t="s">
         <v>149</v>
       </c>
       <c r="H15" s="10">
         <v>13</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="40" t="s">
         <v>150</v>
       </c>
       <c r="K15" s="9" t="s">
@@ -2817,29 +3187,32 @@
       <c r="L15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="15"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="14"/>
       <c r="P15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="25">
         <v>9</v>
       </c>
-      <c r="R15" s="27" t="s">
+      <c r="R15" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="U15" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="S15" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="T15" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="U15" s="81" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="139"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2850,20 +3223,20 @@
         <v>127</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="91" t="s">
         <v>152</v>
       </c>
       <c r="H16" s="10">
         <v>14</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="48" t="s">
+      <c r="J16" s="40" t="s">
         <v>153</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -2872,29 +3245,32 @@
       <c r="L16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="15"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="14"/>
       <c r="P16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="25">
         <v>9</v>
       </c>
-      <c r="R16" s="27" t="s">
+      <c r="R16" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="S16" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="U16" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="S16" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="T16" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="U16" s="81" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V16" s="139"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -2905,60 +3281,62 @@
         <v>127</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E17" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="92" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="93">
+      <c r="H17" s="77">
         <v>15</v>
       </c>
-      <c r="I17" s="94" t="s">
+      <c r="I17" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="95" t="s">
-        <v>205</v>
-      </c>
-      <c r="K17" s="94" t="s">
+      <c r="J17" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="K17" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="94" t="s">
+      <c r="L17" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94" t="s">
+      <c r="M17" s="78"/>
+      <c r="N17" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="96" t="s">
-        <v>176</v>
-      </c>
-      <c r="P17" s="97" t="s">
+      <c r="O17" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="98">
+      <c r="Q17" s="82">
         <v>6</v>
       </c>
-      <c r="R17" s="98" t="s">
+      <c r="R17" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="S17" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="S17" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="T17" s="99" t="s">
-        <v>222</v>
-      </c>
-      <c r="U17" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="U17" s="131" t="s">
+        <v>213</v>
+      </c>
+      <c r="V17" s="139" t="s">
+        <v>232</v>
+      </c>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -2971,53 +3349,56 @@
       <c r="D18" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="110" t="s">
+      <c r="F18" s="27"/>
+      <c r="G18" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="30">
         <v>16</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="111" t="s">
+      <c r="J18" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="34" t="s">
+      <c r="L18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="36" t="s">
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="P18" s="37" t="s">
+      <c r="P18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="Q18" s="34">
         <v>9</v>
       </c>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="S18" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="T18" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="U18" s="124" t="s">
         <v>229</v>
       </c>
-      <c r="S18" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="T18" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="U18" s="39" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="139"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+    </row>
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
@@ -3030,20 +3411,20 @@
       <c r="D19" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="109" t="s">
+      <c r="F19" s="27"/>
+      <c r="G19" s="91" t="s">
         <v>157</v>
       </c>
       <c r="H19" s="10">
         <v>17</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="48" t="s">
+      <c r="J19" s="40" t="s">
         <v>158</v>
       </c>
       <c r="K19" s="9" t="s">
@@ -3052,29 +3433,32 @@
       <c r="L19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="15"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="14"/>
       <c r="P19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="25">
         <v>9</v>
       </c>
-      <c r="R19" s="27" t="s">
+      <c r="R19" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="S19" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U19" s="125" t="s">
         <v>229</v>
       </c>
-      <c r="S19" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="T19" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="U19" s="41" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="139"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+    </row>
+    <row r="20" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
@@ -3087,58 +3471,60 @@
       <c r="D20" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="H20" s="55">
+      <c r="F20" s="27"/>
+      <c r="G20" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="47">
         <v>18</v>
       </c>
-      <c r="I20" s="56" t="s">
+      <c r="I20" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="59" t="s">
+      <c r="J20" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="K20" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="P20" s="31" t="s">
+      <c r="P20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="21">
         <v>6</v>
       </c>
-      <c r="R20" s="22" t="s">
+      <c r="R20" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="S20" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="S20" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="T20" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="U20" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="V20" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="U20" s="132" t="s">
+        <v>213</v>
+      </c>
+      <c r="V20" s="139" t="s">
+        <v>232</v>
+      </c>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+    </row>
+    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
@@ -3148,57 +3534,59 @@
       <c r="C21" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="H21" s="55">
+      <c r="E21" s="19"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" s="47">
         <v>19</v>
       </c>
-      <c r="I21" s="56" t="s">
+      <c r="I21" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="K21" s="56" t="s">
+      <c r="J21" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56" t="s">
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="P21" s="31" t="s">
+      <c r="O21" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="P21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="21">
         <v>6</v>
       </c>
-      <c r="R21" s="22" t="s">
+      <c r="R21" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="S21" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="S21" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="T21" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="U21" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="V21" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="U21" s="132" t="s">
+        <v>213</v>
+      </c>
+      <c r="V21" s="139" t="s">
+        <v>232</v>
+      </c>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+    </row>
+    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
@@ -3211,56 +3599,58 @@
       <c r="D22" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="H22" s="55">
+      <c r="E22" s="19"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="47">
         <v>20</v>
       </c>
-      <c r="I22" s="56" t="s">
+      <c r="I22" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="K22" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="P22" s="31" t="s">
+      <c r="P22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="21">
         <v>6</v>
       </c>
-      <c r="R22" s="22" t="s">
+      <c r="R22" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="S22" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="S22" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="T22" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="U22" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T22" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="U22" s="132" t="s">
+        <v>213</v>
+      </c>
+      <c r="V22" s="139" t="s">
+        <v>233</v>
+      </c>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
@@ -3273,51 +3663,54 @@
       <c r="D23" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="112" t="s">
+      <c r="F23" s="27"/>
+      <c r="G23" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="35">
         <v>21</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="K23" s="114" t="s">
+      <c r="J23" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="44" t="s">
+      <c r="L23" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="46" t="s">
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="115">
+      <c r="Q23" s="97">
         <v>9</v>
       </c>
-      <c r="R23" s="115" t="s">
+      <c r="R23" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="S23" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="T23" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="U23" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="S23" s="115" t="s">
-        <v>141</v>
-      </c>
-      <c r="T23" s="116" t="s">
-        <v>138</v>
-      </c>
-      <c r="U23" s="117" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V23" s="139"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+    </row>
+    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -3328,53 +3721,56 @@
         <v>127</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="30">
         <v>22</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="111" t="s">
+      <c r="J24" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="34" t="s">
+      <c r="L24" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="37" t="s">
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="38">
+      <c r="Q24" s="34">
         <v>9</v>
       </c>
-      <c r="R24" s="38" t="s">
+      <c r="R24" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="S24" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="T24" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="U24" s="124" t="s">
         <v>229</v>
       </c>
-      <c r="S24" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="T24" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="U24" s="39" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V24" s="139"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+    </row>
+    <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
@@ -3385,41 +3781,50 @@
         <v>127</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="184">
         <v>23</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="K25" s="23" t="s">
+      <c r="J25" s="186" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="5" t="s">
+      <c r="M25" s="185"/>
+      <c r="N25" s="185"/>
+      <c r="O25" s="186"/>
+      <c r="P25" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="41"/>
-    </row>
-    <row r="26" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="188"/>
+      <c r="R25" s="188"/>
+      <c r="S25" s="188"/>
+      <c r="T25" s="186"/>
+      <c r="U25" s="189"/>
+      <c r="V25" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="W25" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="X25" s="135" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>15</v>
       </c>
@@ -3430,55 +3835,60 @@
         <v>127</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="53">
+        <v>24</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="56">
+        <v>6</v>
+      </c>
+      <c r="R26" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="67" t="s">
-        <v>198</v>
-      </c>
-      <c r="H26" s="61">
-        <v>24</v>
-      </c>
-      <c r="I26" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="K26" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="P26" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="64">
-        <v>6</v>
-      </c>
-      <c r="R26" s="64" t="s">
+      <c r="S26" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="S26" s="64" t="s">
-        <v>212</v>
-      </c>
-      <c r="T26" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="U26" s="66" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T26" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="U26" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="V26" s="139" t="s">
+        <v>232</v>
+      </c>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+    </row>
+    <row r="27" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
@@ -3489,56 +3899,59 @@
         <v>127</v>
       </c>
       <c r="D27" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="H27" s="85">
+        <v>25</v>
+      </c>
+      <c r="I27" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="K27" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="89">
+        <v>6</v>
+      </c>
+      <c r="R27" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="H27" s="102">
-        <v>25</v>
-      </c>
-      <c r="I27" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="104" t="s">
-        <v>203</v>
-      </c>
-      <c r="K27" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="106">
-        <v>6</v>
-      </c>
-      <c r="R27" s="106" t="s">
+      <c r="S27" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="S27" s="106" t="s">
-        <v>212</v>
-      </c>
-      <c r="T27" s="107" t="s">
-        <v>228</v>
-      </c>
-      <c r="U27" s="108" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T27" s="90" t="s">
+        <v>227</v>
+      </c>
+      <c r="U27" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="V27" s="141"/>
+      <c r="W27" s="136"/>
+      <c r="X27" s="136"/>
+    </row>
+    <row r="28" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V29" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3728,6 +4141,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3742,12 +4161,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="243">
   <si>
     <t>Asignatura</t>
   </si>
@@ -523,11 +523,6 @@
     <t>Interactivo que sirve para calcular sucesos equiprobables aplicando la ley de Laplace</t>
   </si>
   <si>
-    <t xml:space="preserve"> 
-Aplica la ley de Laplace
-</t>
-  </si>
-  <si>
     <t>Ejercicios que contienen problemas del cálculo de probabilidades</t>
   </si>
   <si>
@@ -759,6 +754,19 @@
   </si>
   <si>
     <t>No se necesita</t>
+  </si>
+  <si>
+    <t>Vacío</t>
+  </si>
+  <si>
+    <t>Vacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplica la ley de Laplace
+</t>
+  </si>
+  <si>
+    <t>Pedi cambios a Pedro el 30/03/2016</t>
   </si>
 </sst>
 </file>
@@ -818,7 +826,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -915,6 +923,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -1344,7 +1358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1372,9 +1386,6 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,9 +1419,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,9 +1464,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1519,51 +1524,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1639,58 +1602,202 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1711,203 +1818,152 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2228,143 +2284,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X78"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23" style="13" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="31" style="13" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="43" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23" style="12" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="31" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="43" style="12" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="4" customWidth="1"/>
     <col min="9" max="9" width="11" style="4" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" style="12" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="47.7109375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="47.7109375" style="14" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="4" customWidth="1"/>
     <col min="17" max="17" width="17.7109375" style="4" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" style="3" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38" style="13" customWidth="1"/>
+    <col min="20" max="20" width="38" style="12" customWidth="1"/>
     <col min="21" max="21" width="19.7109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20" style="13" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" style="13" customWidth="1"/>
-    <col min="24" max="24" width="16.5703125" style="13" customWidth="1"/>
-    <col min="25" max="16384" width="11.42578125" style="13"/>
+    <col min="22" max="22" width="20" style="12" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" style="12" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" style="12" customWidth="1"/>
+    <col min="25" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="155" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="J1" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="108" t="s">
+      <c r="L1" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="M1" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="114"/>
-      <c r="O1" s="102" t="s">
+      <c r="N1" s="167"/>
+      <c r="O1" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="102" t="s">
+      <c r="P1" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="118" t="s">
+      <c r="Q1" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="122" t="s">
+      <c r="R1" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="118" t="s">
+      <c r="S1" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="120" t="s">
+      <c r="T1" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="118" t="s">
+      <c r="U1" s="149" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="137"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-    </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="28" t="s">
+      <c r="V1" s="94"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+    </row>
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="160"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="143" t="s">
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="150"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="X2" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="X2" s="145" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:25" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2375,62 +2431,62 @@
         <v>127</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="161" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="162">
+      <c r="H3" s="119">
         <v>1</v>
       </c>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="164" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="163" t="s">
+      <c r="J3" s="121" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="163" t="s">
+      <c r="L3" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="165" t="s">
-        <v>173</v>
-      </c>
-      <c r="P3" s="166" t="s">
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="P3" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="167">
+      <c r="Q3" s="124">
         <v>9</v>
       </c>
-      <c r="R3" s="167" t="s">
+      <c r="R3" s="124" t="s">
+        <v>227</v>
+      </c>
+      <c r="S3" s="124" t="s">
+        <v>141</v>
+      </c>
+      <c r="T3" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="U3" s="125" t="s">
         <v>228</v>
       </c>
-      <c r="S3" s="167" t="s">
-        <v>141</v>
-      </c>
-      <c r="T3" s="165" t="s">
-        <v>140</v>
-      </c>
-      <c r="U3" s="168" t="s">
-        <v>229</v>
-      </c>
-      <c r="V3" s="160" t="s">
-        <v>237</v>
-      </c>
-      <c r="W3" s="144">
+      <c r="V3" s="117" t="s">
+        <v>236</v>
+      </c>
+      <c r="W3" s="101">
         <v>42458</v>
       </c>
-      <c r="X3" s="135" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="92" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -2441,64 +2497,64 @@
         <v>127</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E4" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="169" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="126" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="147">
+      <c r="H4" s="104">
         <v>2</v>
       </c>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="170" t="s">
+      <c r="J4" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="148" t="s">
+      <c r="K4" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="148" t="s">
+      <c r="L4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="151" t="s">
-        <v>238</v>
-      </c>
-      <c r="P4" s="152" t="s">
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="108" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="171">
+      <c r="Q4" s="128">
         <v>9</v>
       </c>
-      <c r="R4" s="171" t="s">
+      <c r="R4" s="128" t="s">
+        <v>227</v>
+      </c>
+      <c r="S4" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="U4" s="129" t="s">
         <v>228</v>
       </c>
-      <c r="S4" s="171" t="s">
-        <v>141</v>
-      </c>
-      <c r="T4" s="158" t="s">
-        <v>142</v>
-      </c>
-      <c r="U4" s="172" t="s">
-        <v>229</v>
-      </c>
-      <c r="V4" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="W4" s="144">
+      <c r="V4" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="W4" s="101">
         <v>42458</v>
       </c>
-      <c r="X4" s="135" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="92" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -2509,66 +2565,66 @@
         <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="146" t="s">
-        <v>186</v>
-      </c>
-      <c r="H5" s="147">
+      <c r="F5" s="24"/>
+      <c r="G5" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="104">
         <v>3</v>
       </c>
-      <c r="I5" s="148" t="s">
+      <c r="I5" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="149" t="s">
-        <v>170</v>
-      </c>
-      <c r="K5" s="150" t="s">
+      <c r="J5" s="106" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="148" t="s">
+      <c r="L5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148" t="s">
+      <c r="M5" s="105"/>
+      <c r="N5" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="151" t="s">
-        <v>185</v>
-      </c>
-      <c r="P5" s="152" t="s">
+      <c r="O5" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="P5" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="153">
+      <c r="Q5" s="110">
         <v>6</v>
       </c>
-      <c r="R5" s="153" t="s">
+      <c r="R5" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="S5" s="110" t="s">
         <v>210</v>
       </c>
-      <c r="S5" s="153" t="s">
+      <c r="T5" s="111" t="s">
         <v>211</v>
       </c>
-      <c r="T5" s="154" t="s">
+      <c r="U5" s="112" t="s">
         <v>212</v>
       </c>
-      <c r="U5" s="155" t="s">
-        <v>213</v>
-      </c>
-      <c r="V5" s="140" t="s">
-        <v>232</v>
-      </c>
-      <c r="W5" s="144">
+      <c r="V5" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="W5" s="101">
         <v>42458</v>
       </c>
-      <c r="X5" s="135" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="92" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2579,68 +2635,68 @@
         <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="156" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" s="147">
+      <c r="G6" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="104">
         <v>4</v>
       </c>
-      <c r="I6" s="148" t="s">
+      <c r="I6" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="157" t="s">
-        <v>171</v>
-      </c>
-      <c r="K6" s="150" t="s">
+      <c r="J6" s="114" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="148" t="s">
+      <c r="L6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150" t="s">
+      <c r="M6" s="107"/>
+      <c r="N6" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="158" t="s">
-        <v>187</v>
-      </c>
-      <c r="P6" s="152" t="s">
+      <c r="O6" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="P6" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="153">
+      <c r="Q6" s="110">
         <v>6</v>
       </c>
-      <c r="R6" s="153" t="s">
+      <c r="R6" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="S6" s="110" t="s">
         <v>210</v>
       </c>
-      <c r="S6" s="153" t="s">
-        <v>211</v>
-      </c>
-      <c r="T6" s="154" t="s">
-        <v>214</v>
-      </c>
-      <c r="U6" s="155" t="s">
+      <c r="T6" s="111" t="s">
         <v>213</v>
       </c>
-      <c r="V6" s="140" t="s">
-        <v>232</v>
-      </c>
-      <c r="W6" s="144">
+      <c r="U6" s="112" t="s">
+        <v>212</v>
+      </c>
+      <c r="V6" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="W6" s="101">
         <v>42458</v>
       </c>
-      <c r="X6" s="135" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X6" s="92" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -2651,60 +2707,62 @@
         <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="64" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="171" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="172">
+        <v>5</v>
+      </c>
+      <c r="I7" s="173" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="174" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="60">
+      <c r="K7" s="173" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="M7" s="173" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="173"/>
+      <c r="O7" s="176" t="s">
+        <v>173</v>
+      </c>
+      <c r="P7" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="P7" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="62">
+      <c r="Q7" s="178">
         <v>6</v>
       </c>
-      <c r="R7" s="62" t="s">
+      <c r="R7" s="178" t="s">
+        <v>214</v>
+      </c>
+      <c r="S7" s="178" t="s">
         <v>215</v>
       </c>
-      <c r="S7" s="62" t="s">
+      <c r="T7" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="T7" s="63" t="s">
+      <c r="U7" s="180" t="s">
         <v>217</v>
       </c>
-      <c r="U7" s="126" t="s">
-        <v>218</v>
-      </c>
-      <c r="V7" s="139"/>
-      <c r="W7" s="135"/>
-      <c r="X7" s="135"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="181"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="92" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2715,62 +2773,62 @@
         <v>127</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E8" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="173" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="147">
+      <c r="H8" s="104">
         <v>6</v>
       </c>
-      <c r="I8" s="150" t="s">
+      <c r="I8" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="157" t="s">
+      <c r="J8" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="K8" s="150" t="s">
+      <c r="K8" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="150" t="s">
+      <c r="L8" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="158"/>
-      <c r="P8" s="152" t="s">
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="171">
+      <c r="Q8" s="128">
         <v>9</v>
       </c>
-      <c r="R8" s="171" t="s">
+      <c r="R8" s="128" t="s">
+        <v>227</v>
+      </c>
+      <c r="S8" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="T8" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="U8" s="129" t="s">
         <v>228</v>
       </c>
-      <c r="S8" s="171" t="s">
-        <v>141</v>
-      </c>
-      <c r="T8" s="158" t="s">
-        <v>146</v>
-      </c>
-      <c r="U8" s="172" t="s">
-        <v>229</v>
-      </c>
-      <c r="V8" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="W8" s="144">
+      <c r="V8" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="W8" s="101">
         <v>42458</v>
       </c>
-      <c r="X8" s="135" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X8" s="92" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -2781,60 +2839,62 @@
         <v>127</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E9" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="174" t="s">
-        <v>192</v>
-      </c>
-      <c r="H9" s="175">
+      <c r="F9" s="25"/>
+      <c r="G9" s="131" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="132">
         <v>7</v>
       </c>
-      <c r="I9" s="176" t="s">
+      <c r="I9" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="177" t="s">
-        <v>203</v>
-      </c>
-      <c r="K9" s="176" t="s">
+      <c r="J9" s="134" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="176" t="s">
+      <c r="L9" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="176"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="178"/>
-      <c r="P9" s="179" t="s">
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="180">
+      <c r="Q9" s="137">
         <v>9</v>
       </c>
-      <c r="R9" s="180" t="s">
+      <c r="R9" s="137" t="s">
+        <v>227</v>
+      </c>
+      <c r="S9" s="137" t="s">
+        <v>141</v>
+      </c>
+      <c r="T9" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="U9" s="139" t="s">
         <v>228</v>
       </c>
-      <c r="S9" s="180" t="s">
-        <v>141</v>
-      </c>
-      <c r="T9" s="181" t="s">
-        <v>191</v>
-      </c>
-      <c r="U9" s="182" t="s">
-        <v>229</v>
-      </c>
-      <c r="V9" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="W9" s="144">
+      <c r="V9" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="W9" s="101">
         <v>42642</v>
       </c>
-      <c r="X9" s="135"/>
-    </row>
-    <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="92" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -2845,56 +2905,58 @@
         <v>127</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="183" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="184">
         <v>8</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="K10" s="70" t="s">
+      <c r="J10" s="186" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70" t="s">
+      <c r="L10" s="185"/>
+      <c r="M10" s="185" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="70"/>
-      <c r="O10" s="72" t="s">
-        <v>193</v>
-      </c>
-      <c r="P10" s="73" t="s">
+      <c r="N10" s="185"/>
+      <c r="O10" s="187" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="73">
+      <c r="Q10" s="188">
         <v>6</v>
       </c>
-      <c r="R10" s="73" t="s">
+      <c r="R10" s="188" t="s">
+        <v>214</v>
+      </c>
+      <c r="S10" s="188" t="s">
         <v>215</v>
       </c>
-      <c r="S10" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="T10" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="U10" s="128" t="s">
+      <c r="T10" s="189" t="s">
         <v>218</v>
       </c>
-      <c r="V10" s="139"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-    </row>
-    <row r="11" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="190" t="s">
+        <v>217</v>
+      </c>
+      <c r="V10" s="181"/>
+      <c r="W10" s="182"/>
+      <c r="X10" s="92" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -2905,60 +2967,66 @@
         <v>127</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="104">
         <v>9</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="P11" s="5" t="s">
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q11" s="128">
         <v>9</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="128" t="s">
+        <v>227</v>
+      </c>
+      <c r="S11" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="T11" s="191" t="s">
+        <v>160</v>
+      </c>
+      <c r="U11" s="192" t="s">
         <v>228</v>
       </c>
-      <c r="S11" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="T11" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="U11" s="129" t="s">
-        <v>229</v>
-      </c>
-      <c r="V11" s="139"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
-    </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="W11" s="101">
+        <v>42459</v>
+      </c>
+      <c r="X11" s="92" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -2969,58 +3037,64 @@
         <v>127</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="91" t="s">
+      <c r="G12" s="130" t="s">
+        <v>241</v>
+      </c>
+      <c r="H12" s="104">
+        <v>10</v>
+      </c>
+      <c r="I12" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="10">
-        <v>10</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="40" t="s">
+      <c r="K12" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="128">
+        <v>9</v>
+      </c>
+      <c r="R12" s="128" t="s">
+        <v>227</v>
+      </c>
+      <c r="S12" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="T12" s="191" t="s">
         <v>163</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>9</v>
-      </c>
-      <c r="R12" s="25" t="s">
+      <c r="U12" s="192" t="s">
         <v>228</v>
       </c>
-      <c r="S12" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="T12" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="U12" s="129" t="s">
-        <v>229</v>
-      </c>
-      <c r="V12" s="139"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-    </row>
-    <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="W12" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="X12" s="92" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -3031,60 +3105,65 @@
         <v>127</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="193" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="194">
         <v>11</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="196" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="P13" s="5" t="s">
+      <c r="M13" s="195"/>
+      <c r="N13" s="195"/>
+      <c r="O13" s="198" t="s">
+        <v>165</v>
+      </c>
+      <c r="P13" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="Q13" s="200">
         <v>9</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="200" t="s">
+        <v>227</v>
+      </c>
+      <c r="S13" s="200" t="s">
+        <v>141</v>
+      </c>
+      <c r="T13" s="201" t="s">
+        <v>147</v>
+      </c>
+      <c r="U13" s="202" t="s">
         <v>228</v>
       </c>
-      <c r="S13" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="T13" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="U13" s="129" t="s">
-        <v>229</v>
-      </c>
-      <c r="V13" s="139"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-    </row>
-    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="203" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -3095,25 +3174,25 @@
         <v>127</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" s="41">
+      <c r="G14" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" s="38">
         <v>12</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="45" t="s">
-        <v>184</v>
+      <c r="J14" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>20</v>
@@ -3121,40 +3200,40 @@
       <c r="L14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24" t="s">
+      <c r="M14" s="22"/>
+      <c r="N14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="P14" s="42" t="s">
+      <c r="O14" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="P14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="43">
+      <c r="Q14" s="40">
         <v>6</v>
       </c>
-      <c r="R14" s="43" t="s">
+      <c r="R14" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="S14" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="S14" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="T14" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="U14" s="130" t="s">
-        <v>213</v>
-      </c>
-      <c r="V14" s="139" t="s">
-        <v>232</v>
-      </c>
-      <c r="W14" s="135"/>
-      <c r="X14" s="159">
+      <c r="T14" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="U14" s="87" t="s">
+        <v>212</v>
+      </c>
+      <c r="V14" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="W14" s="92"/>
+      <c r="X14" s="116">
         <v>42458</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -3165,20 +3244,20 @@
         <v>127</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="74" t="s">
         <v>149</v>
       </c>
       <c r="H15" s="10">
         <v>13</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="37" t="s">
         <v>150</v>
       </c>
       <c r="K15" s="9" t="s">
@@ -3187,32 +3266,32 @@
       <c r="L15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="14"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="13"/>
       <c r="P15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="Q15" s="23">
         <v>9</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="U15" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="S15" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="T15" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="U15" s="129" t="s">
-        <v>229</v>
-      </c>
-      <c r="V15" s="139"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="96"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -3223,20 +3302,20 @@
         <v>127</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="74" t="s">
         <v>152</v>
       </c>
       <c r="H16" s="10">
         <v>14</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="37" t="s">
         <v>153</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -3245,30 +3324,30 @@
       <c r="L16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="14"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="13"/>
       <c r="P16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="25">
+      <c r="Q16" s="23">
         <v>9</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="U16" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="S16" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="T16" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="U16" s="129" t="s">
-        <v>229</v>
-      </c>
-      <c r="V16" s="139"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -3281,60 +3360,60 @@
         <v>127</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="76" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="60">
         <v>15</v>
       </c>
-      <c r="I17" s="78" t="s">
+      <c r="I17" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="79" t="s">
-        <v>204</v>
-      </c>
-      <c r="K17" s="78" t="s">
+      <c r="J17" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="78" t="s">
+      <c r="L17" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78" t="s">
+      <c r="M17" s="61"/>
+      <c r="N17" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="P17" s="81" t="s">
+      <c r="O17" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="82">
+      <c r="Q17" s="65">
         <v>6</v>
       </c>
-      <c r="R17" s="82" t="s">
+      <c r="R17" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="S17" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="S17" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="T17" s="83" t="s">
-        <v>221</v>
-      </c>
-      <c r="U17" s="131" t="s">
-        <v>213</v>
-      </c>
-      <c r="V17" s="139" t="s">
-        <v>232</v>
-      </c>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
+      <c r="T17" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="U17" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="V17" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="W17" s="92"/>
+      <c r="X17" s="92"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -3346,57 +3425,57 @@
       <c r="C18" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="92" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="28">
         <v>16</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="93" t="s">
+      <c r="J18" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="P18" s="33" t="s">
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="32">
         <v>9</v>
       </c>
-      <c r="R18" s="34" t="s">
+      <c r="R18" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="S18" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="U18" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="S18" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="T18" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="U18" s="124" t="s">
-        <v>229</v>
-      </c>
-      <c r="V18" s="139"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -3408,23 +3487,23 @@
       <c r="C19" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="91" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="74" t="s">
         <v>157</v>
       </c>
       <c r="H19" s="10">
         <v>17</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="37" t="s">
         <v>158</v>
       </c>
       <c r="K19" s="9" t="s">
@@ -3433,30 +3512,30 @@
       <c r="L19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="14"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="13"/>
       <c r="P19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="Q19" s="23">
         <v>9</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="R19" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="U19" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="S19" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="U19" s="125" t="s">
-        <v>229</v>
-      </c>
-      <c r="V19" s="139"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
     </row>
     <row r="20" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -3468,61 +3547,61 @@
       <c r="C20" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="H20" s="47">
+      <c r="F20" s="25"/>
+      <c r="G20" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="44">
         <v>18</v>
       </c>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="51" t="s">
+      <c r="J20" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="K20" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="P20" s="29" t="s">
+      <c r="P20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="20">
         <v>6</v>
       </c>
-      <c r="R20" s="21" t="s">
+      <c r="R20" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="S20" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="S20" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="T20" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="U20" s="132" t="s">
-        <v>213</v>
-      </c>
-      <c r="V20" s="139" t="s">
-        <v>232</v>
-      </c>
-      <c r="W20" s="135"/>
-      <c r="X20" s="135"/>
+      <c r="T20" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="U20" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="V20" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
     </row>
     <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -3534,57 +3613,57 @@
       <c r="C21" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="H21" s="47">
+      <c r="E21" s="18"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" s="44">
         <v>19</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="K21" s="48" t="s">
+      <c r="J21" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48" t="s">
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="P21" s="29" t="s">
+      <c r="O21" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="P21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="Q21" s="20">
         <v>6</v>
       </c>
-      <c r="R21" s="21" t="s">
+      <c r="R21" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="S21" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="S21" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="T21" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="U21" s="132" t="s">
-        <v>213</v>
-      </c>
-      <c r="V21" s="139" t="s">
-        <v>232</v>
-      </c>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
+      <c r="T21" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="U21" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="V21" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3596,59 +3675,59 @@
       <c r="C22" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="H22" s="47">
+      <c r="E22" s="18"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="44">
         <v>20</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="51" t="s">
+      <c r="J22" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="K22" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="P22" s="29" t="s">
+      <c r="P22" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="20">
         <v>6</v>
       </c>
-      <c r="R22" s="21" t="s">
+      <c r="R22" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="S22" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="S22" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="T22" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="U22" s="132" t="s">
-        <v>213</v>
-      </c>
-      <c r="V22" s="139" t="s">
-        <v>233</v>
-      </c>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
+      <c r="T22" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="U22" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="V22" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -3660,55 +3739,55 @@
       <c r="C23" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="94" t="s">
+      <c r="F23" s="25"/>
+      <c r="G23" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="33">
         <v>21</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="95" t="s">
-        <v>205</v>
-      </c>
-      <c r="K23" s="96" t="s">
+      <c r="J23" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="L23" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="38" t="s">
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="97">
+      <c r="Q23" s="80">
         <v>9</v>
       </c>
-      <c r="R23" s="97" t="s">
+      <c r="R23" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="S23" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="T23" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="U23" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="S23" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="T23" s="98" t="s">
-        <v>138</v>
-      </c>
-      <c r="U23" s="127" t="s">
-        <v>229</v>
-      </c>
-      <c r="V23" s="139"/>
-      <c r="W23" s="135"/>
-      <c r="X23" s="135"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
     </row>
     <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -3721,54 +3800,54 @@
         <v>127</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="28">
+        <v>22</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="30">
-        <v>22</v>
-      </c>
-      <c r="I24" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="93" t="s">
+      <c r="K24" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="32">
+        <v>9</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="S24" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="T24" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="34">
-        <v>9</v>
-      </c>
-      <c r="R24" s="34" t="s">
+      <c r="U24" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="S24" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="T24" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="U24" s="124" t="s">
-        <v>229</v>
-      </c>
-      <c r="V24" s="139"/>
-      <c r="W24" s="135"/>
-      <c r="X24" s="135"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
     </row>
     <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -3780,48 +3859,48 @@
       <c r="C25" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="183" t="s">
+      <c r="D25" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="184">
+      <c r="H25" s="141">
         <v>23</v>
       </c>
-      <c r="I25" s="185" t="s">
+      <c r="I25" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="186" t="s">
-        <v>200</v>
-      </c>
-      <c r="K25" s="185" t="s">
+      <c r="J25" s="143" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="185" t="s">
+      <c r="L25" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="185"/>
-      <c r="N25" s="185"/>
-      <c r="O25" s="186"/>
-      <c r="P25" s="187" t="s">
+      <c r="M25" s="142"/>
+      <c r="N25" s="142"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="188"/>
-      <c r="R25" s="188"/>
-      <c r="S25" s="188"/>
-      <c r="T25" s="186"/>
-      <c r="U25" s="189"/>
-      <c r="V25" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="W25" s="135" t="s">
-        <v>239</v>
-      </c>
-      <c r="X25" s="135" t="s">
+      <c r="Q25" s="145"/>
+      <c r="R25" s="145"/>
+      <c r="S25" s="145"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="146"/>
+      <c r="V25" s="97" t="s">
         <v>236</v>
+      </c>
+      <c r="W25" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="X25" s="92" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3834,59 +3913,59 @@
       <c r="C26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" s="50">
+        <v>24</v>
+      </c>
+      <c r="I26" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="53">
+        <v>6</v>
+      </c>
+      <c r="R26" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="H26" s="53">
-        <v>24</v>
-      </c>
-      <c r="I26" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="K26" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="P26" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="56">
-        <v>6</v>
-      </c>
-      <c r="R26" s="56" t="s">
+      <c r="S26" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="S26" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="T26" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="U26" s="133" t="s">
-        <v>213</v>
-      </c>
-      <c r="V26" s="139" t="s">
-        <v>232</v>
-      </c>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
+      <c r="T26" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="U26" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="V26" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
@@ -3898,255 +3977,249 @@
       <c r="C27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" s="68">
+        <v>25</v>
+      </c>
+      <c r="I27" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="72">
+        <v>6</v>
+      </c>
+      <c r="R27" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="H27" s="85">
-        <v>25</v>
-      </c>
-      <c r="I27" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="K27" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="89">
-        <v>6</v>
-      </c>
-      <c r="R27" s="89" t="s">
+      <c r="S27" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="S27" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="T27" s="90" t="s">
-        <v>227</v>
-      </c>
-      <c r="U27" s="134" t="s">
-        <v>213</v>
-      </c>
-      <c r="V27" s="141"/>
-      <c r="W27" s="136"/>
-      <c r="X27" s="136"/>
+      <c r="T27" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="U27" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="V27" s="98"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
     </row>
     <row r="28" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="16"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V29" s="13" t="s">
-        <v>230</v>
+      <c r="V29" s="12" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="12" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4161,6 +4234,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="244">
   <si>
     <t>Asignatura</t>
   </si>
@@ -759,14 +759,17 @@
     <t>Vacío</t>
   </si>
   <si>
-    <t>Vacio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aplica la ley de Laplace
 </t>
   </si>
   <si>
     <t>Pedi cambios a Pedro el 30/03/2016</t>
+  </si>
+  <si>
+    <t>no mande</t>
+  </si>
+  <si>
+    <t>Cristian</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1419,9 +1422,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1467,24 +1467,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1524,36 +1506,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1611,15 +1563,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1794,10 +1737,127 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1818,152 +1878,89 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2286,9 +2283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2321,102 +2318,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="168" t="s">
+      <c r="C1" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="159" t="s">
+      <c r="D1" s="156" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="157" t="s">
+      <c r="E1" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="155" t="s">
+      <c r="F1" s="150" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="161" t="s">
+      <c r="G1" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="155" t="s">
+      <c r="H1" s="150" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="155" t="s">
+      <c r="I1" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="165" t="s">
+      <c r="J1" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="163" t="s">
+      <c r="K1" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="161" t="s">
+      <c r="L1" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="167" t="s">
+      <c r="M1" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="167"/>
-      <c r="O1" s="147" t="s">
+      <c r="N1" s="164"/>
+      <c r="O1" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="147" t="s">
+      <c r="P1" s="152" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="149" t="s">
+      <c r="Q1" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="153" t="s">
+      <c r="R1" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="149" t="s">
+      <c r="S1" s="168" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="151" t="s">
+      <c r="T1" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="149" t="s">
+      <c r="U1" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="94"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="160"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="26" t="s">
+      <c r="A2" s="157"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="100" t="s">
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="X2" s="102" t="s">
+      <c r="X2" s="82" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2434,55 +2431,55 @@
         <v>205</v>
       </c>
       <c r="E3" s="16"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="118" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="119">
+      <c r="H3" s="99">
         <v>1</v>
       </c>
-      <c r="I3" s="120" t="s">
+      <c r="I3" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="121" t="s">
+      <c r="J3" s="101" t="s">
         <v>197</v>
       </c>
-      <c r="K3" s="120" t="s">
+      <c r="K3" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="120" t="s">
+      <c r="L3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="122" t="s">
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="P3" s="123" t="s">
+      <c r="P3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="124">
+      <c r="Q3" s="104">
         <v>9</v>
       </c>
-      <c r="R3" s="124" t="s">
+      <c r="R3" s="104" t="s">
         <v>227</v>
       </c>
-      <c r="S3" s="124" t="s">
+      <c r="S3" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="T3" s="122" t="s">
+      <c r="T3" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="U3" s="125" t="s">
+      <c r="U3" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="V3" s="117" t="s">
+      <c r="V3" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="W3" s="101">
+      <c r="W3" s="81">
         <v>42458</v>
       </c>
-      <c r="X3" s="92" t="s">
+      <c r="X3" s="72" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2502,55 +2499,55 @@
       <c r="E4" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="126" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="104">
+      <c r="H4" s="84">
         <v>2</v>
       </c>
-      <c r="I4" s="105" t="s">
+      <c r="I4" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="127" t="s">
+      <c r="J4" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="105" t="s">
+      <c r="L4" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="108" t="s">
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="P4" s="109" t="s">
+      <c r="P4" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="128">
+      <c r="Q4" s="108">
         <v>9</v>
       </c>
-      <c r="R4" s="128" t="s">
+      <c r="R4" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="S4" s="128" t="s">
+      <c r="S4" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="T4" s="115" t="s">
+      <c r="T4" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="U4" s="129" t="s">
+      <c r="U4" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="W4" s="101">
+      <c r="W4" s="81">
         <v>42458</v>
       </c>
-      <c r="X4" s="92" t="s">
+      <c r="X4" s="72" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2570,57 +2567,57 @@
       <c r="E5" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="103" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="H5" s="104">
+      <c r="H5" s="84">
         <v>3</v>
       </c>
-      <c r="I5" s="105" t="s">
+      <c r="I5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="106" t="s">
+      <c r="J5" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="K5" s="107" t="s">
+      <c r="K5" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="105" t="s">
+      <c r="L5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105" t="s">
+      <c r="M5" s="85"/>
+      <c r="N5" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="108" t="s">
+      <c r="O5" s="88" t="s">
         <v>184</v>
       </c>
-      <c r="P5" s="109" t="s">
+      <c r="P5" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="110">
+      <c r="Q5" s="90">
         <v>6</v>
       </c>
-      <c r="R5" s="110" t="s">
+      <c r="R5" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="S5" s="110" t="s">
+      <c r="S5" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="T5" s="111" t="s">
+      <c r="T5" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="112" t="s">
+      <c r="U5" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="V5" s="97" t="s">
+      <c r="V5" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="W5" s="101">
+      <c r="W5" s="81">
         <v>42458</v>
       </c>
-      <c r="X5" s="92" t="s">
+      <c r="X5" s="72" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2640,59 +2637,59 @@
       <c r="E6" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="H6" s="104">
+      <c r="H6" s="84">
         <v>4</v>
       </c>
-      <c r="I6" s="105" t="s">
+      <c r="I6" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="114" t="s">
+      <c r="J6" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="107" t="s">
+      <c r="K6" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="105" t="s">
+      <c r="L6" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107" t="s">
+      <c r="M6" s="87"/>
+      <c r="N6" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="115" t="s">
+      <c r="O6" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="P6" s="109" t="s">
+      <c r="P6" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="110">
+      <c r="Q6" s="90">
         <v>6</v>
       </c>
-      <c r="R6" s="110" t="s">
+      <c r="R6" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="S6" s="110" t="s">
+      <c r="S6" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="T6" s="111" t="s">
+      <c r="T6" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="U6" s="112" t="s">
+      <c r="U6" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="V6" s="97" t="s">
+      <c r="V6" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="W6" s="101">
+      <c r="W6" s="81">
         <v>42458</v>
       </c>
-      <c r="X6" s="92" t="s">
+      <c r="X6" s="72" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2712,54 +2709,56 @@
       <c r="E7" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="171" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="H7" s="172">
+      <c r="H7" s="175">
         <v>5</v>
       </c>
-      <c r="I7" s="173" t="s">
+      <c r="I7" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="174" t="s">
+      <c r="J7" s="177" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="173" t="s">
+      <c r="K7" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="175" t="s">
+      <c r="L7" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="173" t="s">
+      <c r="M7" s="176" t="s">
         <v>124</v>
       </c>
-      <c r="N7" s="173"/>
-      <c r="O7" s="176" t="s">
+      <c r="N7" s="176"/>
+      <c r="O7" s="179" t="s">
         <v>173</v>
       </c>
-      <c r="P7" s="177" t="s">
+      <c r="P7" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="178">
+      <c r="Q7" s="181">
         <v>6</v>
       </c>
-      <c r="R7" s="178" t="s">
+      <c r="R7" s="181" t="s">
         <v>214</v>
       </c>
-      <c r="S7" s="178" t="s">
+      <c r="S7" s="181" t="s">
         <v>215</v>
       </c>
-      <c r="T7" s="179" t="s">
+      <c r="T7" s="191" t="s">
         <v>216</v>
       </c>
-      <c r="U7" s="180" t="s">
+      <c r="U7" s="192" t="s">
         <v>217</v>
       </c>
-      <c r="V7" s="181"/>
-      <c r="W7" s="182"/>
-      <c r="X7" s="92" t="s">
-        <v>240</v>
+      <c r="V7" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="W7" s="190"/>
+      <c r="X7" s="96">
+        <v>42459</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2778,53 +2777,53 @@
       <c r="E8" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="130" t="s">
+      <c r="F8" s="24"/>
+      <c r="G8" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="104">
+      <c r="H8" s="84">
         <v>6</v>
       </c>
-      <c r="I8" s="107" t="s">
+      <c r="I8" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="114" t="s">
+      <c r="J8" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="K8" s="107" t="s">
+      <c r="K8" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="107" t="s">
+      <c r="L8" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="109" t="s">
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="128">
+      <c r="Q8" s="108">
         <v>9</v>
       </c>
-      <c r="R8" s="128" t="s">
+      <c r="R8" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="S8" s="128" t="s">
+      <c r="S8" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="T8" s="115" t="s">
+      <c r="T8" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="U8" s="129" t="s">
+      <c r="U8" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="V8" s="97" t="s">
+      <c r="V8" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="W8" s="101">
+      <c r="W8" s="81">
         <v>42458</v>
       </c>
-      <c r="X8" s="92" t="s">
+      <c r="X8" s="72" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2844,53 +2843,53 @@
       <c r="E9" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="131" t="s">
+      <c r="F9" s="24"/>
+      <c r="G9" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="132">
+      <c r="H9" s="112">
         <v>7</v>
       </c>
-      <c r="I9" s="133" t="s">
+      <c r="I9" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="134" t="s">
+      <c r="J9" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="K9" s="133" t="s">
+      <c r="K9" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="133" t="s">
+      <c r="L9" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="136" t="s">
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="137">
+      <c r="Q9" s="117">
         <v>9</v>
       </c>
-      <c r="R9" s="137" t="s">
+      <c r="R9" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="S9" s="137" t="s">
+      <c r="S9" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="T9" s="138" t="s">
+      <c r="T9" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="U9" s="139" t="s">
+      <c r="U9" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="V9" s="97" t="s">
+      <c r="V9" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="W9" s="101">
+      <c r="W9" s="81">
         <v>42642</v>
       </c>
-      <c r="X9" s="92" t="s">
+      <c r="X9" s="72" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2908,51 +2907,51 @@
         <v>206</v>
       </c>
       <c r="E10" s="18"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="183" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="184">
+      <c r="H10" s="130">
         <v>8</v>
       </c>
-      <c r="I10" s="185" t="s">
+      <c r="I10" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="186" t="s">
+      <c r="J10" s="132" t="s">
         <v>198</v>
       </c>
-      <c r="K10" s="185" t="s">
+      <c r="K10" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185" t="s">
+      <c r="L10" s="131"/>
+      <c r="M10" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="185"/>
-      <c r="O10" s="187" t="s">
+      <c r="N10" s="131"/>
+      <c r="O10" s="133" t="s">
         <v>192</v>
       </c>
-      <c r="P10" s="188" t="s">
+      <c r="P10" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="188">
+      <c r="Q10" s="134">
         <v>6</v>
       </c>
-      <c r="R10" s="188" t="s">
+      <c r="R10" s="134" t="s">
         <v>214</v>
       </c>
-      <c r="S10" s="188" t="s">
+      <c r="S10" s="134" t="s">
         <v>215</v>
       </c>
-      <c r="T10" s="189" t="s">
+      <c r="T10" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="U10" s="190" t="s">
+      <c r="U10" s="136" t="s">
         <v>217</v>
       </c>
-      <c r="V10" s="181"/>
-      <c r="W10" s="182"/>
-      <c r="X10" s="92" t="s">
+      <c r="V10" s="127"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="72" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2972,57 +2971,57 @@
       <c r="E11" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="113" t="s">
+      <c r="G11" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="104">
+      <c r="H11" s="84">
         <v>9</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="114" t="s">
+      <c r="J11" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="K11" s="105" t="s">
+      <c r="K11" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="105" t="s">
+      <c r="L11" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="115" t="s">
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="P11" s="109" t="s">
+      <c r="P11" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="128">
+      <c r="Q11" s="108">
         <v>9</v>
       </c>
-      <c r="R11" s="128" t="s">
+      <c r="R11" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="S11" s="128" t="s">
+      <c r="S11" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="T11" s="191" t="s">
+      <c r="T11" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="U11" s="192" t="s">
+      <c r="U11" s="138" t="s">
         <v>228</v>
       </c>
-      <c r="V11" s="97" t="s">
+      <c r="V11" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="W11" s="101">
+      <c r="W11" s="81">
         <v>42459</v>
       </c>
-      <c r="X11" s="92" t="s">
+      <c r="X11" s="72" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3042,55 +3041,55 @@
       <c r="E12" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="130" t="s">
-        <v>241</v>
-      </c>
-      <c r="H12" s="104">
+      <c r="G12" s="110" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="84">
         <v>10</v>
       </c>
-      <c r="I12" s="107" t="s">
+      <c r="I12" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="114" t="s">
+      <c r="J12" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="K12" s="105" t="s">
+      <c r="K12" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="105" t="s">
+      <c r="L12" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="109" t="s">
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="128">
+      <c r="Q12" s="108">
         <v>9</v>
       </c>
-      <c r="R12" s="128" t="s">
+      <c r="R12" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="S12" s="128" t="s">
+      <c r="S12" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="T12" s="191" t="s">
+      <c r="T12" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="U12" s="192" t="s">
+      <c r="U12" s="138" t="s">
         <v>228</v>
       </c>
-      <c r="V12" s="97" t="s">
+      <c r="V12" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="W12" s="92" t="s">
+      <c r="W12" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="X12" s="92" t="s">
+      <c r="X12" s="72" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3110,57 +3109,59 @@
       <c r="E13" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="193" t="s">
+      <c r="G13" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="194">
+      <c r="H13" s="140">
         <v>11</v>
       </c>
-      <c r="I13" s="195" t="s">
+      <c r="I13" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="196" t="s">
+      <c r="J13" s="142" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="197" t="s">
+      <c r="K13" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="197" t="s">
+      <c r="L13" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="195"/>
-      <c r="N13" s="195"/>
-      <c r="O13" s="198" t="s">
+      <c r="M13" s="141"/>
+      <c r="N13" s="141"/>
+      <c r="O13" s="144" t="s">
         <v>165</v>
       </c>
-      <c r="P13" s="199" t="s">
+      <c r="P13" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="200">
+      <c r="Q13" s="146">
         <v>9</v>
       </c>
-      <c r="R13" s="200" t="s">
+      <c r="R13" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="S13" s="200" t="s">
+      <c r="S13" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="T13" s="201" t="s">
+      <c r="T13" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="U13" s="202" t="s">
+      <c r="U13" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="V13" s="97" t="s">
+      <c r="V13" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="203" t="s">
-        <v>242</v>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y13" s="149" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3179,57 +3180,59 @@
       <c r="E14" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="174" t="s">
         <v>230</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="175">
         <v>12</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="177" t="s">
         <v>183</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22" t="s">
+      <c r="M14" s="176"/>
+      <c r="N14" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="43" t="s">
+      <c r="O14" s="179" t="s">
         <v>182</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="40">
+      <c r="Q14" s="181">
         <v>6</v>
       </c>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="181" t="s">
         <v>209</v>
       </c>
-      <c r="S14" s="40" t="s">
+      <c r="S14" s="181" t="s">
         <v>210</v>
       </c>
-      <c r="T14" s="58" t="s">
+      <c r="T14" s="182" t="s">
         <v>219</v>
       </c>
-      <c r="U14" s="87" t="s">
+      <c r="U14" s="183" t="s">
         <v>212</v>
       </c>
-      <c r="V14" s="96" t="s">
+      <c r="V14" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="W14" s="92"/>
-      <c r="X14" s="116">
+      <c r="W14" s="184" t="s">
+        <v>242</v>
+      </c>
+      <c r="X14" s="96">
         <v>42458</v>
       </c>
     </row>
@@ -3247,49 +3250,55 @@
         <v>206</v>
       </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="74" t="s">
+      <c r="F15" s="24"/>
+      <c r="G15" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="121">
         <v>13</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="186" t="s">
         <v>150</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="5" t="s">
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="125">
         <v>9</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="R15" s="125" t="s">
         <v>227</v>
       </c>
-      <c r="S15" s="23" t="s">
+      <c r="S15" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="T15" s="57" t="s">
+      <c r="T15" s="188" t="s">
         <v>151</v>
       </c>
-      <c r="U15" s="86" t="s">
+      <c r="U15" s="189" t="s">
         <v>228</v>
       </c>
-      <c r="V15" s="96"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
+      <c r="V15" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="W15" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="X15" s="72" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -3305,49 +3314,55 @@
         <v>206</v>
       </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="74" t="s">
+      <c r="F16" s="24"/>
+      <c r="G16" s="185" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="121">
         <v>14</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="186" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="5" t="s">
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="125">
         <v>9</v>
       </c>
-      <c r="R16" s="23" t="s">
+      <c r="R16" s="125" t="s">
         <v>227</v>
       </c>
-      <c r="S16" s="23" t="s">
+      <c r="S16" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="T16" s="57" t="s">
+      <c r="T16" s="188" t="s">
         <v>154</v>
       </c>
-      <c r="U16" s="86" t="s">
+      <c r="U16" s="189" t="s">
         <v>228</v>
       </c>
-      <c r="V16" s="96"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
+      <c r="V16" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="W16" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="X16" s="72" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -3365,55 +3380,59 @@
       <c r="E17" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="59" t="s">
+      <c r="F17" s="24"/>
+      <c r="G17" s="193" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="194">
         <v>15</v>
       </c>
-      <c r="I17" s="61" t="s">
+      <c r="I17" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="62" t="s">
+      <c r="J17" s="196" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="61" t="s">
+      <c r="K17" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="61" t="s">
+      <c r="L17" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61" t="s">
+      <c r="M17" s="195"/>
+      <c r="N17" s="195" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="63" t="s">
+      <c r="O17" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="P17" s="64" t="s">
+      <c r="P17" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="65">
+      <c r="Q17" s="199">
         <v>6</v>
       </c>
-      <c r="R17" s="65" t="s">
+      <c r="R17" s="199" t="s">
         <v>209</v>
       </c>
-      <c r="S17" s="65" t="s">
+      <c r="S17" s="199" t="s">
         <v>210</v>
       </c>
-      <c r="T17" s="66" t="s">
+      <c r="T17" s="200" t="s">
         <v>220</v>
       </c>
-      <c r="U17" s="88" t="s">
+      <c r="U17" s="201" t="s">
         <v>212</v>
       </c>
-      <c r="V17" s="96" t="s">
+      <c r="V17" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
+      <c r="W17" s="81">
+        <v>42459</v>
+      </c>
+      <c r="X17" s="72" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -3431,51 +3450,51 @@
       <c r="E18" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="75" t="s">
+      <c r="F18" s="24"/>
+      <c r="G18" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <v>16</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="76" t="s">
+      <c r="J18" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="29" t="s">
+      <c r="L18" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30" t="s">
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="P18" s="31" t="s">
+      <c r="P18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="31">
         <v>9</v>
       </c>
-      <c r="R18" s="32" t="s">
+      <c r="R18" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="S18" s="32" t="s">
+      <c r="S18" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="T18" s="30" t="s">
+      <c r="T18" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="U18" s="83" t="s">
+      <c r="U18" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="V18" s="96"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -3493,8 +3512,8 @@
       <c r="E19" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="74" t="s">
+      <c r="F19" s="24"/>
+      <c r="G19" s="57" t="s">
         <v>157</v>
       </c>
       <c r="H19" s="10">
@@ -3503,7 +3522,7 @@
       <c r="I19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="36" t="s">
         <v>158</v>
       </c>
       <c r="K19" s="9" t="s">
@@ -3518,24 +3537,24 @@
       <c r="P19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="22">
         <v>9</v>
       </c>
-      <c r="R19" s="23" t="s">
+      <c r="R19" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="S19" s="23" t="s">
+      <c r="S19" s="22" t="s">
         <v>141</v>
       </c>
       <c r="T19" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="U19" s="84" t="s">
+      <c r="U19" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="V19" s="96"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
     </row>
     <row r="20" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -3553,33 +3572,33 @@
       <c r="E20" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="47" t="s">
+      <c r="F20" s="24"/>
+      <c r="G20" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="37">
         <v>18</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="K20" s="45" t="s">
+      <c r="K20" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="45" t="s">
+      <c r="L20" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45" t="s">
+      <c r="M20" s="38"/>
+      <c r="N20" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="49" t="s">
+      <c r="O20" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="P20" s="27" t="s">
+      <c r="P20" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="20">
@@ -3591,17 +3610,17 @@
       <c r="S20" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="T20" s="46" t="s">
+      <c r="T20" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="U20" s="89" t="s">
+      <c r="U20" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="V20" s="96" t="s">
+      <c r="V20" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="W20" s="92"/>
-      <c r="X20" s="92"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
     </row>
     <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -3617,31 +3636,31 @@
         <v>136</v>
       </c>
       <c r="E21" s="18"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="47" t="s">
+      <c r="F21" s="24"/>
+      <c r="G21" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="37">
         <v>19</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="J21" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45" t="s">
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="49" t="s">
+      <c r="O21" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="P21" s="27" t="s">
+      <c r="P21" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="20">
@@ -3653,17 +3672,17 @@
       <c r="S21" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="T21" s="46" t="s">
+      <c r="T21" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="U21" s="89" t="s">
+      <c r="U21" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="V21" s="96" t="s">
+      <c r="V21" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="W21" s="92"/>
-      <c r="X21" s="92"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3679,33 +3698,33 @@
         <v>136</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="47" t="s">
+      <c r="F22" s="24"/>
+      <c r="G22" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="37">
         <v>20</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="K22" s="45" t="s">
+      <c r="K22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="45" t="s">
+      <c r="L22" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45" t="s">
+      <c r="M22" s="38"/>
+      <c r="N22" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="49" t="s">
+      <c r="O22" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="P22" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="20">
@@ -3717,17 +3736,17 @@
       <c r="S22" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="T22" s="46" t="s">
+      <c r="T22" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="U22" s="89" t="s">
+      <c r="U22" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="V22" s="96" t="s">
+      <c r="V22" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -3745,49 +3764,49 @@
       <c r="E23" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="77" t="s">
+      <c r="F23" s="24"/>
+      <c r="G23" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="32">
         <v>21</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="78" t="s">
+      <c r="J23" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="K23" s="79" t="s">
+      <c r="K23" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="36" t="s">
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="80">
+      <c r="Q23" s="63">
         <v>9</v>
       </c>
-      <c r="R23" s="80" t="s">
+      <c r="R23" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="S23" s="80" t="s">
+      <c r="S23" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="T23" s="81" t="s">
+      <c r="T23" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="U23" s="85" t="s">
+      <c r="U23" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="V23" s="96"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
     </row>
     <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -3805,49 +3824,49 @@
       <c r="E24" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="82" t="s">
+      <c r="F24" s="24"/>
+      <c r="G24" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="27">
         <v>22</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="76" t="s">
+      <c r="J24" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="29" t="s">
+      <c r="K24" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="29" t="s">
+      <c r="L24" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="31" t="s">
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="32">
+      <c r="Q24" s="31">
         <v>9</v>
       </c>
-      <c r="R24" s="32" t="s">
+      <c r="R24" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="S24" s="32" t="s">
+      <c r="S24" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="T24" s="30" t="s">
+      <c r="T24" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="U24" s="83" t="s">
+      <c r="U24" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="V24" s="96"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
     </row>
     <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -3863,43 +3882,43 @@
         <v>208</v>
       </c>
       <c r="E25" s="18"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="140" t="s">
+      <c r="F25" s="24"/>
+      <c r="G25" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="141">
+      <c r="H25" s="121">
         <v>23</v>
       </c>
-      <c r="I25" s="142" t="s">
+      <c r="I25" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="143" t="s">
+      <c r="J25" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="K25" s="142" t="s">
+      <c r="K25" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="142" t="s">
+      <c r="L25" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="142"/>
-      <c r="N25" s="142"/>
-      <c r="O25" s="143"/>
-      <c r="P25" s="144" t="s">
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="145"/>
-      <c r="R25" s="145"/>
-      <c r="S25" s="145"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="146"/>
-      <c r="V25" s="97" t="s">
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="123"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="W25" s="92" t="s">
+      <c r="W25" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="X25" s="92" t="s">
+      <c r="X25" s="72" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3917,55 +3936,55 @@
         <v>208</v>
       </c>
       <c r="E26" s="18"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="55" t="s">
+      <c r="F26" s="24"/>
+      <c r="G26" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="43">
         <v>24</v>
       </c>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="56" t="s">
+      <c r="J26" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="K26" s="51" t="s">
+      <c r="K26" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="51" t="s">
+      <c r="L26" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51" t="s">
+      <c r="M26" s="44"/>
+      <c r="N26" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="56" t="s">
+      <c r="O26" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="P26" s="52" t="s">
+      <c r="P26" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="53">
+      <c r="Q26" s="46">
         <v>6</v>
       </c>
-      <c r="R26" s="53" t="s">
+      <c r="R26" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="S26" s="53" t="s">
+      <c r="S26" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="T26" s="54" t="s">
+      <c r="T26" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="U26" s="90" t="s">
+      <c r="U26" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="V26" s="96" t="s">
+      <c r="V26" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="W26" s="92"/>
-      <c r="X26" s="92"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
@@ -3981,49 +4000,49 @@
         <v>208</v>
       </c>
       <c r="E27" s="18"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="67" t="s">
+      <c r="F27" s="24"/>
+      <c r="G27" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="51">
         <v>25</v>
       </c>
-      <c r="I27" s="69" t="s">
+      <c r="I27" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="70" t="s">
+      <c r="J27" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="K27" s="69" t="s">
+      <c r="K27" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="69" t="s">
+      <c r="L27" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="71" t="s">
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="72">
+      <c r="Q27" s="55">
         <v>6</v>
       </c>
-      <c r="R27" s="72" t="s">
+      <c r="R27" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="S27" s="72" t="s">
+      <c r="S27" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="T27" s="73" t="s">
+      <c r="T27" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="U27" s="91" t="s">
+      <c r="U27" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="V27" s="98"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="93"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
     </row>
     <row r="28" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="15"/>
@@ -4220,6 +4239,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4234,12 +4259,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="246">
   <si>
     <t>Asignatura</t>
   </si>
@@ -506,11 +506,6 @@
     <t>Interactivo que presenta los diagramas de árbol y el cálculo factorial para poder aplicar en ejemplos de cálculo de probabilidades</t>
   </si>
   <si>
-    <t xml:space="preserve"> 
-Calcula la probabilidad mediante diagramas de árbol y permutación
-</t>
-  </si>
-  <si>
     <t>Actividad que permite a los alumnos practicar el cálculo de posibilidades mediante el diagrama de árbol y el cálculo factorial</t>
   </si>
   <si>
@@ -756,9 +751,6 @@
     <t>No se necesita</t>
   </si>
   <si>
-    <t>Vacío</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aplica la ley de Laplace
 </t>
   </si>
@@ -769,7 +761,20 @@
     <t>no mande</t>
   </si>
   <si>
-    <t>Cristian</t>
+    <t xml:space="preserve"> Calcula la probabilidad mediante diagramas de árbol y permutación
+</t>
+  </si>
+  <si>
+    <t>Recurso mal planteado, sin solicitud gráfica</t>
+  </si>
+  <si>
+    <t>Cambio de la palabra parchís por parqués a Pedro 31/03/2016</t>
+  </si>
+  <si>
+    <t>Recurso vacío</t>
+  </si>
+  <si>
+    <t>Camilo Fuentes</t>
   </si>
 </sst>
 </file>
@@ -829,7 +834,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -904,12 +909,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1361,7 +1360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1371,9 +1370,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1383,21 +1379,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1416,241 +1403,343 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1659,7 +1748,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1674,20 +1763,32 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1701,6 +1802,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1716,250 +1820,34 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2283,1968 +2171,2009 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="23" style="12" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="31" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="43" style="12" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="31" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="49.140625" style="9" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="4" customWidth="1"/>
     <col min="9" max="9" width="11" style="4" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" style="9" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="47.7109375" style="14" customWidth="1"/>
+    <col min="15" max="15" width="47.7109375" style="10" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="4" customWidth="1"/>
     <col min="17" max="17" width="17.7109375" style="4" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" style="3" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38" style="12" customWidth="1"/>
+    <col min="20" max="20" width="38" style="9" customWidth="1"/>
     <col min="21" max="21" width="19.7109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20" style="12" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" style="12" customWidth="1"/>
-    <col min="24" max="24" width="16.5703125" style="12" customWidth="1"/>
-    <col min="25" max="16384" width="11.42578125" style="12"/>
+    <col min="22" max="22" width="20" style="9" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" style="9" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" style="9" customWidth="1"/>
+    <col min="25" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="D1" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="154" t="s">
+      <c r="E1" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="150" t="s">
+      <c r="F1" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="158" t="s">
+      <c r="G1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="150" t="s">
+      <c r="H1" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="150" t="s">
+      <c r="I1" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="162" t="s">
+      <c r="J1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="158" t="s">
+      <c r="L1" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="164" t="s">
+      <c r="M1" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="164"/>
-      <c r="O1" s="152" t="s">
+      <c r="N1" s="124"/>
+      <c r="O1" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="152" t="s">
+      <c r="P1" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="168" t="s">
+      <c r="Q1" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="172" t="s">
+      <c r="R1" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="168" t="s">
+      <c r="S1" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="170" t="s">
+      <c r="T1" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="168" t="s">
+      <c r="U1" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="74"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="157"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="25" t="s">
+      <c r="A2" s="117"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="80" t="s">
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="X2" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="X2" s="82" t="s">
+    </row>
+    <row r="3" spans="1:25" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="44">
+        <v>1</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="P3" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="49">
+        <v>9</v>
+      </c>
+      <c r="R3" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="S3" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="T3" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="U3" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="V3" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="W3" s="26">
+        <v>42458</v>
+      </c>
+      <c r="X3" s="19" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="53">
+        <v>9</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="U4" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="W4" s="26">
+        <v>42458</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="29">
+        <v>3</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="35">
+        <v>6</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="V5" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="W5" s="26">
+        <v>42458</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="29">
+        <v>4</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>6</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="U6" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="W6" s="26">
+        <v>42458</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="77">
+        <v>5</v>
+      </c>
+      <c r="I7" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="78"/>
+      <c r="O7" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="P7" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="83">
+        <v>6</v>
+      </c>
+      <c r="R7" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="T7" s="93" t="s">
+        <v>215</v>
+      </c>
+      <c r="U7" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="V7" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="W7" s="92"/>
+      <c r="X7" s="41">
+        <v>42459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="29">
+        <v>6</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="53">
+        <v>9</v>
+      </c>
+      <c r="R8" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="S8" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="U8" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="W8" s="26">
+        <v>42458</v>
+      </c>
+      <c r="X8" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="57">
+        <v>7</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="62">
+        <v>9</v>
+      </c>
+      <c r="R9" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="S9" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="T9" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="U9" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="V9" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="W9" s="26">
+        <v>42642</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="99">
-        <v>1</v>
-      </c>
-      <c r="I3" s="100" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="157" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="158">
+        <v>8</v>
+      </c>
+      <c r="I10" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J10" s="160" t="s">
         <v>197</v>
       </c>
-      <c r="K3" s="100" t="s">
+      <c r="K10" s="159" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="159"/>
+      <c r="O10" s="161" t="s">
+        <v>191</v>
+      </c>
+      <c r="P10" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="100" t="s">
+      <c r="Q10" s="162">
+        <v>6</v>
+      </c>
+      <c r="R10" s="162" t="s">
+        <v>213</v>
+      </c>
+      <c r="S10" s="162" t="s">
+        <v>214</v>
+      </c>
+      <c r="T10" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="U10" s="164" t="s">
+        <v>216</v>
+      </c>
+      <c r="V10" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="W10" s="26">
+        <v>42460</v>
+      </c>
+      <c r="X10" s="41">
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="29">
+        <v>9</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="102" t="s">
-        <v>172</v>
-      </c>
-      <c r="P3" s="103" t="s">
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="P11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="104">
+      <c r="Q11" s="53">
         <v>9</v>
       </c>
-      <c r="R3" s="104" t="s">
+      <c r="R11" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="S11" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="T11" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="U11" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="S3" s="104" t="s">
+      <c r="V11" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="W11" s="26">
+        <v>42459</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="H12" s="29">
+        <v>10</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="53">
+        <v>9</v>
+      </c>
+      <c r="R12" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="S12" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="T3" s="102" t="s">
-        <v>140</v>
-      </c>
-      <c r="U3" s="105" t="s">
+      <c r="T12" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="U12" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="V12" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="W12" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="66">
+        <v>11</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="P13" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="70">
+        <v>9</v>
+      </c>
+      <c r="R13" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="S13" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="T13" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="U13" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="V13" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y13" s="75" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="76" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" s="77">
+        <v>12</v>
+      </c>
+      <c r="I14" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="83">
+        <v>6</v>
+      </c>
+      <c r="R14" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="S14" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="T14" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="U14" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="V14" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="W14" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="X14" s="41">
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="66">
+        <v>13</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="70">
+        <v>9</v>
+      </c>
+      <c r="R15" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="S15" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="U15" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="V15" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="W15" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="X15" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="66">
+        <v>14</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="70">
+        <v>9</v>
+      </c>
+      <c r="R16" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="S16" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="U16" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="V16" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="W16" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="X16" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="96">
+        <v>15</v>
+      </c>
+      <c r="I17" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="98" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="P17" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="101">
+        <v>6</v>
+      </c>
+      <c r="R17" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="S17" s="101" t="s">
+        <v>209</v>
+      </c>
+      <c r="T17" s="102" t="s">
+        <v>219</v>
+      </c>
+      <c r="U17" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="V17" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="W17" s="26">
+        <v>42459</v>
+      </c>
+      <c r="X17" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="129">
+        <v>16</v>
+      </c>
+      <c r="I18" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="132" t="s">
+        <v>170</v>
+      </c>
+      <c r="P18" s="133" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="134">
+        <v>9</v>
+      </c>
+      <c r="R18" s="134" t="s">
+        <v>226</v>
+      </c>
+      <c r="S18" s="134" t="s">
+        <v>141</v>
+      </c>
+      <c r="T18" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="U18" s="135" t="s">
+        <v>227</v>
+      </c>
+      <c r="V18" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" s="66">
+        <v>17</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="70">
+        <v>9</v>
+      </c>
+      <c r="R19" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="S19" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="T19" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="U19" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="V19" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="W19" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="X19" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="136" t="s">
+        <v>192</v>
+      </c>
+      <c r="H20" s="137">
+        <v>18</v>
+      </c>
+      <c r="I20" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="140" t="s">
+        <v>175</v>
+      </c>
+      <c r="P20" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="142">
+        <v>6</v>
+      </c>
+      <c r="R20" s="142" t="s">
+        <v>208</v>
+      </c>
+      <c r="S20" s="142" t="s">
+        <v>209</v>
+      </c>
+      <c r="T20" s="143" t="s">
+        <v>220</v>
+      </c>
+      <c r="U20" s="144" t="s">
+        <v>211</v>
+      </c>
+      <c r="V20" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="77">
+        <v>19</v>
+      </c>
+      <c r="I21" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="P21" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="83">
+        <v>6</v>
+      </c>
+      <c r="R21" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="S21" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="T21" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="U21" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="V21" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="W21" s="26">
+        <v>42460</v>
+      </c>
+      <c r="X21" s="41">
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" s="29">
+        <v>20</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="35">
+        <v>6</v>
+      </c>
+      <c r="R22" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="S22" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="T22" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="U22" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="W22" s="26">
+        <v>42460</v>
+      </c>
+      <c r="X22" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="146">
+        <v>21</v>
+      </c>
+      <c r="I23" s="147" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="148" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" s="149" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="147" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="147"/>
+      <c r="N23" s="147"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="151" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="152">
+        <v>9</v>
+      </c>
+      <c r="R23" s="152" t="s">
+        <v>226</v>
+      </c>
+      <c r="S23" s="152" t="s">
+        <v>141</v>
+      </c>
+      <c r="T23" s="153" t="s">
+        <v>138</v>
+      </c>
+      <c r="U23" s="154" t="s">
+        <v>227</v>
+      </c>
+      <c r="V23" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="W23" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="X23" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="155" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="129">
+        <v>22</v>
+      </c>
+      <c r="I24" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="131" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="130" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="130"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="133" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="134">
+        <v>9</v>
+      </c>
+      <c r="R24" s="134" t="s">
+        <v>226</v>
+      </c>
+      <c r="S24" s="134" t="s">
+        <v>141</v>
+      </c>
+      <c r="T24" s="132" t="s">
+        <v>167</v>
+      </c>
+      <c r="U24" s="135" t="s">
+        <v>227</v>
+      </c>
+      <c r="V24" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="66">
+        <v>23</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="W25" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="X25" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="136" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="137">
+        <v>24</v>
+      </c>
+      <c r="I26" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="140" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="140" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="142">
+        <v>6</v>
+      </c>
+      <c r="R26" s="142" t="s">
+        <v>208</v>
+      </c>
+      <c r="S26" s="142" t="s">
+        <v>209</v>
+      </c>
+      <c r="T26" s="143" t="s">
+        <v>223</v>
+      </c>
+      <c r="U26" s="144" t="s">
+        <v>211</v>
+      </c>
+      <c r="V26" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="145" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" s="146">
+        <v>25</v>
+      </c>
+      <c r="I27" s="147" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="150" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" s="147" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="147" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="147"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="152">
+        <v>6</v>
+      </c>
+      <c r="R27" s="152" t="s">
+        <v>208</v>
+      </c>
+      <c r="S27" s="152" t="s">
+        <v>209</v>
+      </c>
+      <c r="T27" s="153" t="s">
+        <v>225</v>
+      </c>
+      <c r="U27" s="154" t="s">
+        <v>211</v>
+      </c>
+      <c r="V27" s="156" t="s">
+        <v>235</v>
+      </c>
+      <c r="W27" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="X27" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V29" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="V3" s="97" t="s">
-        <v>236</v>
-      </c>
-      <c r="W3" s="81">
-        <v>42458</v>
-      </c>
-      <c r="X3" s="72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="106" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" s="84">
-        <v>2</v>
-      </c>
-      <c r="I4" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="88" t="s">
-        <v>237</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="108">
-        <v>9</v>
-      </c>
-      <c r="R4" s="108" t="s">
-        <v>227</v>
-      </c>
-      <c r="S4" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="T4" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="U4" s="109" t="s">
-        <v>228</v>
-      </c>
-      <c r="V4" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="W4" s="81">
-        <v>42458</v>
-      </c>
-      <c r="X4" s="72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="83" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5" s="84">
-        <v>3</v>
-      </c>
-      <c r="I5" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="K5" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="P5" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="90">
-        <v>6</v>
-      </c>
-      <c r="R5" s="90" t="s">
-        <v>209</v>
-      </c>
-      <c r="S5" s="90" t="s">
-        <v>210</v>
-      </c>
-      <c r="T5" s="91" t="s">
-        <v>211</v>
-      </c>
-      <c r="U5" s="92" t="s">
-        <v>212</v>
-      </c>
-      <c r="V5" s="77" t="s">
-        <v>231</v>
-      </c>
-      <c r="W5" s="81">
-        <v>42458</v>
-      </c>
-      <c r="X5" s="72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="93" t="s">
-        <v>189</v>
-      </c>
-      <c r="H6" s="84">
-        <v>4</v>
-      </c>
-      <c r="I6" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="94" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="95" t="s">
-        <v>186</v>
-      </c>
-      <c r="P6" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="90">
-        <v>6</v>
-      </c>
-      <c r="R6" s="90" t="s">
-        <v>209</v>
-      </c>
-      <c r="S6" s="90" t="s">
-        <v>210</v>
-      </c>
-      <c r="T6" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="U6" s="92" t="s">
-        <v>212</v>
-      </c>
-      <c r="V6" s="77" t="s">
-        <v>231</v>
-      </c>
-      <c r="W6" s="81">
-        <v>42458</v>
-      </c>
-      <c r="X6" s="72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="174" t="s">
-        <v>187</v>
-      </c>
-      <c r="H7" s="175">
-        <v>5</v>
-      </c>
-      <c r="I7" s="176" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="177" t="s">
-        <v>188</v>
-      </c>
-      <c r="K7" s="176" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="178" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="176" t="s">
-        <v>124</v>
-      </c>
-      <c r="N7" s="176"/>
-      <c r="O7" s="179" t="s">
-        <v>173</v>
-      </c>
-      <c r="P7" s="180" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="181">
-        <v>6</v>
-      </c>
-      <c r="R7" s="181" t="s">
-        <v>214</v>
-      </c>
-      <c r="S7" s="181" t="s">
-        <v>215</v>
-      </c>
-      <c r="T7" s="191" t="s">
-        <v>216</v>
-      </c>
-      <c r="U7" s="192" t="s">
-        <v>217</v>
-      </c>
-      <c r="V7" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="W7" s="190"/>
-      <c r="X7" s="96">
-        <v>42459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="110" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="84">
-        <v>6</v>
-      </c>
-      <c r="I8" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="K8" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="108">
-        <v>9</v>
-      </c>
-      <c r="R8" s="108" t="s">
-        <v>227</v>
-      </c>
-      <c r="S8" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="T8" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="U8" s="109" t="s">
-        <v>228</v>
-      </c>
-      <c r="V8" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="W8" s="81">
-        <v>42458</v>
-      </c>
-      <c r="X8" s="72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="112">
-        <v>7</v>
-      </c>
-      <c r="I9" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="114" t="s">
-        <v>202</v>
-      </c>
-      <c r="K9" s="113" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="117">
-        <v>9</v>
-      </c>
-      <c r="R9" s="117" t="s">
-        <v>227</v>
-      </c>
-      <c r="S9" s="117" t="s">
-        <v>141</v>
-      </c>
-      <c r="T9" s="118" t="s">
-        <v>190</v>
-      </c>
-      <c r="U9" s="119" t="s">
-        <v>228</v>
-      </c>
-      <c r="V9" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="W9" s="81">
-        <v>42642</v>
-      </c>
-      <c r="X9" s="72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="129" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="130">
-        <v>8</v>
-      </c>
-      <c r="I10" s="131" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="132" t="s">
-        <v>198</v>
-      </c>
-      <c r="K10" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="131"/>
-      <c r="O10" s="133" t="s">
-        <v>192</v>
-      </c>
-      <c r="P10" s="134" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="134">
-        <v>6</v>
-      </c>
-      <c r="R10" s="134" t="s">
-        <v>214</v>
-      </c>
-      <c r="S10" s="134" t="s">
-        <v>215</v>
-      </c>
-      <c r="T10" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="U10" s="136" t="s">
-        <v>217</v>
-      </c>
-      <c r="V10" s="127"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="72" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="93" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="84">
-        <v>9</v>
-      </c>
-      <c r="I11" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="K11" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="95" t="s">
-        <v>164</v>
-      </c>
-      <c r="P11" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="108">
-        <v>9</v>
-      </c>
-      <c r="R11" s="108" t="s">
-        <v>227</v>
-      </c>
-      <c r="S11" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="T11" s="137" t="s">
-        <v>160</v>
-      </c>
-      <c r="U11" s="138" t="s">
-        <v>228</v>
-      </c>
-      <c r="V11" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="W11" s="81">
-        <v>42459</v>
-      </c>
-      <c r="X11" s="72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="110" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" s="84">
-        <v>10</v>
-      </c>
-      <c r="I12" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="K12" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="108">
-        <v>9</v>
-      </c>
-      <c r="R12" s="108" t="s">
-        <v>227</v>
-      </c>
-      <c r="S12" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="T12" s="137" t="s">
-        <v>163</v>
-      </c>
-      <c r="U12" s="138" t="s">
-        <v>228</v>
-      </c>
-      <c r="V12" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="W12" s="72" t="s">
-        <v>238</v>
-      </c>
-      <c r="X12" s="72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="140">
-        <v>11</v>
-      </c>
-      <c r="I13" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="142" t="s">
-        <v>148</v>
-      </c>
-      <c r="K13" s="143" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="143" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="144" t="s">
-        <v>165</v>
-      </c>
-      <c r="P13" s="145" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="146">
-        <v>9</v>
-      </c>
-      <c r="R13" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="S13" s="146" t="s">
-        <v>141</v>
-      </c>
-      <c r="T13" s="147" t="s">
-        <v>147</v>
-      </c>
-      <c r="U13" s="148" t="s">
-        <v>228</v>
-      </c>
-      <c r="V13" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y13" s="149" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="174" t="s">
-        <v>230</v>
-      </c>
-      <c r="H14" s="175">
-        <v>12</v>
-      </c>
-      <c r="I14" s="176" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="177" t="s">
-        <v>183</v>
-      </c>
-      <c r="K14" s="178" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="178" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="176"/>
-      <c r="N14" s="176" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="179" t="s">
-        <v>182</v>
-      </c>
-      <c r="P14" s="180" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="181">
-        <v>6</v>
-      </c>
-      <c r="R14" s="181" t="s">
-        <v>209</v>
-      </c>
-      <c r="S14" s="181" t="s">
-        <v>210</v>
-      </c>
-      <c r="T14" s="182" t="s">
-        <v>219</v>
-      </c>
-      <c r="U14" s="183" t="s">
-        <v>212</v>
-      </c>
-      <c r="V14" s="77" t="s">
-        <v>231</v>
-      </c>
-      <c r="W14" s="184" t="s">
-        <v>242</v>
-      </c>
-      <c r="X14" s="96">
-        <v>42458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="185" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="121">
-        <v>13</v>
-      </c>
-      <c r="I15" s="122" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="186" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="187" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="187" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="125">
-        <v>9</v>
-      </c>
-      <c r="R15" s="125" t="s">
-        <v>227</v>
-      </c>
-      <c r="S15" s="125" t="s">
-        <v>141</v>
-      </c>
-      <c r="T15" s="188" t="s">
-        <v>151</v>
-      </c>
-      <c r="U15" s="189" t="s">
-        <v>228</v>
-      </c>
-      <c r="V15" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="W15" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="X15" s="72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="185" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="121">
-        <v>14</v>
-      </c>
-      <c r="I16" s="122" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="186" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="187" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="187" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="125">
-        <v>9</v>
-      </c>
-      <c r="R16" s="125" t="s">
-        <v>227</v>
-      </c>
-      <c r="S16" s="125" t="s">
-        <v>141</v>
-      </c>
-      <c r="T16" s="188" t="s">
-        <v>154</v>
-      </c>
-      <c r="U16" s="189" t="s">
-        <v>228</v>
-      </c>
-      <c r="V16" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="W16" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="X16" s="72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="193" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="194">
-        <v>15</v>
-      </c>
-      <c r="I17" s="195" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="196" t="s">
-        <v>203</v>
-      </c>
-      <c r="K17" s="195" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="195" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="195"/>
-      <c r="N17" s="195" t="s">
-        <v>123</v>
-      </c>
-      <c r="O17" s="197" t="s">
-        <v>174</v>
-      </c>
-      <c r="P17" s="198" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="199">
-        <v>6</v>
-      </c>
-      <c r="R17" s="199" t="s">
-        <v>209</v>
-      </c>
-      <c r="S17" s="199" t="s">
-        <v>210</v>
-      </c>
-      <c r="T17" s="200" t="s">
-        <v>220</v>
-      </c>
-      <c r="U17" s="201" t="s">
-        <v>212</v>
-      </c>
-      <c r="V17" s="77" t="s">
-        <v>231</v>
-      </c>
-      <c r="W17" s="81">
-        <v>42459</v>
-      </c>
-      <c r="X17" s="72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="27">
-        <v>16</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="P18" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="31">
-        <v>9</v>
-      </c>
-      <c r="R18" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="S18" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="T18" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="U18" s="66" t="s">
-        <v>228</v>
-      </c>
-      <c r="V18" s="76"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-    </row>
-    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="H19" s="10">
-        <v>17</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="22">
-        <v>9</v>
-      </c>
-      <c r="R19" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="S19" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="U19" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="V19" s="76"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-    </row>
-    <row r="20" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="37">
-        <v>18</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="K20" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="20">
-        <v>6</v>
-      </c>
-      <c r="R20" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="S20" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="T20" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="U20" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="V20" s="76" t="s">
-        <v>231</v>
-      </c>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-    </row>
-    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="H21" s="37">
-        <v>19</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="P21" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="20">
-        <v>6</v>
-      </c>
-      <c r="R21" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="S21" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="T21" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="U21" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="V21" s="76" t="s">
-        <v>231</v>
-      </c>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-    </row>
-    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="H22" s="37">
-        <v>20</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="K22" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="P22" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="20">
-        <v>6</v>
-      </c>
-      <c r="R22" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="S22" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="T22" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="U22" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="V22" s="76" t="s">
-        <v>232</v>
-      </c>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-    </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="32">
-        <v>21</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="K23" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="63">
-        <v>9</v>
-      </c>
-      <c r="R23" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="S23" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="T23" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="U23" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="V23" s="76"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-    </row>
-    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="H24" s="27">
-        <v>22</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="31">
-        <v>9</v>
-      </c>
-      <c r="R24" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="S24" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="T24" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="U24" s="66" t="s">
-        <v>228</v>
-      </c>
-      <c r="V24" s="76"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-    </row>
-    <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="121">
-        <v>23</v>
-      </c>
-      <c r="I25" s="122" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="K25" s="122" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="122" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="125"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="126"/>
-      <c r="V25" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="W25" s="72" t="s">
-        <v>238</v>
-      </c>
-      <c r="X25" s="72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="H26" s="43">
-        <v>24</v>
-      </c>
-      <c r="I26" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="K26" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="P26" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="46">
-        <v>6</v>
-      </c>
-      <c r="R26" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="S26" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="T26" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="U26" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="V26" s="76" t="s">
-        <v>231</v>
-      </c>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-    </row>
-    <row r="27" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="H27" s="51">
-        <v>25</v>
-      </c>
-      <c r="I27" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="K27" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="55">
-        <v>6</v>
-      </c>
-      <c r="R27" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="S27" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="T27" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="U27" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="V27" s="78"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-    </row>
-    <row r="28" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V29" s="12" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="42" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="9" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4259,6 +4188,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="244">
   <si>
     <t>Asignatura</t>
   </si>
@@ -506,6 +506,11 @@
     <t>Interactivo que presenta los diagramas de árbol y el cálculo factorial para poder aplicar en ejemplos de cálculo de probabilidades</t>
   </si>
   <si>
+    <t xml:space="preserve"> 
+Calcula la probabilidad mediante diagramas de árbol y permutación
+</t>
+  </si>
+  <si>
     <t>Actividad que permite a los alumnos practicar el cálculo de posibilidades mediante el diagrama de árbol y el cálculo factorial</t>
   </si>
   <si>
@@ -751,6 +756,9 @@
     <t>No se necesita</t>
   </si>
   <si>
+    <t>Vacío</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aplica la ley de Laplace
 </t>
   </si>
@@ -761,20 +769,7 @@
     <t>no mande</t>
   </si>
   <si>
-    <t xml:space="preserve"> Calcula la probabilidad mediante diagramas de árbol y permutación
-</t>
-  </si>
-  <si>
-    <t>Recurso mal planteado, sin solicitud gráfica</t>
-  </si>
-  <si>
-    <t>Cambio de la palabra parchís por parqués a Pedro 31/03/2016</t>
-  </si>
-  <si>
-    <t>Recurso vacío</t>
-  </si>
-  <si>
-    <t>Camilo Fuentes</t>
+    <t>Cristian</t>
   </si>
 </sst>
 </file>
@@ -834,7 +829,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -909,6 +904,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1360,7 +1361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1370,6 +1371,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1377,6 +1381,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1385,6 +1395,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1403,6 +1416,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1412,6 +1434,144 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1424,173 +1584,335 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1598,191 +1920,14 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1790,64 +1935,31 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2171,2009 +2283,1968 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="23" style="9" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="31" style="9" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="49.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23" style="12" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="31" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="43" style="12" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="4" customWidth="1"/>
     <col min="9" max="9" width="11" style="4" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" style="12" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="47.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="47.7109375" style="14" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="4" customWidth="1"/>
     <col min="17" max="17" width="17.7109375" style="4" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" style="3" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38" style="9" customWidth="1"/>
+    <col min="20" max="20" width="38" style="12" customWidth="1"/>
     <col min="21" max="21" width="19.7109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20" style="9" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" style="9" customWidth="1"/>
-    <col min="24" max="24" width="16.5703125" style="9" customWidth="1"/>
-    <col min="25" max="16384" width="11.42578125" style="9"/>
+    <col min="22" max="22" width="20" style="12" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" style="12" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" style="12" customWidth="1"/>
+    <col min="25" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="156" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="150" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="150" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="I1" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="120" t="s">
+      <c r="K1" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="118" t="s">
+      <c r="L1" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="124" t="s">
+      <c r="M1" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="124"/>
-      <c r="O1" s="104" t="s">
+      <c r="N1" s="164"/>
+      <c r="O1" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="104" t="s">
+      <c r="P1" s="152" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="106" t="s">
+      <c r="Q1" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="110" t="s">
+      <c r="R1" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="106" t="s">
+      <c r="S1" s="168" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="108" t="s">
+      <c r="T1" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="106" t="s">
+      <c r="U1" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="117"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="18" t="s">
+      <c r="A2" s="157"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="25" t="s">
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="X2" s="82" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="99">
+        <v>1</v>
+      </c>
+      <c r="I3" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="P3" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="104">
+        <v>9</v>
+      </c>
+      <c r="R3" s="104" t="s">
+        <v>227</v>
+      </c>
+      <c r="S3" s="104" t="s">
+        <v>141</v>
+      </c>
+      <c r="T3" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="U3" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="V3" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="W3" s="81">
+        <v>42458</v>
+      </c>
+      <c r="X3" s="72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="84">
+        <v>2</v>
+      </c>
+      <c r="I4" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="108">
+        <v>9</v>
+      </c>
+      <c r="R4" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="S4" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="U4" s="109" t="s">
+        <v>228</v>
+      </c>
+      <c r="V4" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="W4" s="81">
+        <v>42458</v>
+      </c>
+      <c r="X4" s="72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="84">
+        <v>3</v>
+      </c>
+      <c r="I5" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="P5" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="90">
+        <v>6</v>
+      </c>
+      <c r="R5" s="90" t="s">
+        <v>209</v>
+      </c>
+      <c r="S5" s="90" t="s">
+        <v>210</v>
+      </c>
+      <c r="T5" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="U5" s="92" t="s">
+        <v>212</v>
+      </c>
+      <c r="V5" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="W5" s="81">
+        <v>42458</v>
+      </c>
+      <c r="X5" s="72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="84">
+        <v>4</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="P6" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="90">
+        <v>6</v>
+      </c>
+      <c r="R6" s="90" t="s">
+        <v>209</v>
+      </c>
+      <c r="S6" s="90" t="s">
+        <v>210</v>
+      </c>
+      <c r="T6" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="U6" s="92" t="s">
+        <v>212</v>
+      </c>
+      <c r="V6" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="W6" s="81">
+        <v>42458</v>
+      </c>
+      <c r="X6" s="72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="175">
+        <v>5</v>
+      </c>
+      <c r="I7" s="176" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="177" t="s">
+        <v>188</v>
+      </c>
+      <c r="K7" s="176" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="178" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="176" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="176"/>
+      <c r="O7" s="179" t="s">
+        <v>173</v>
+      </c>
+      <c r="P7" s="180" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="181">
+        <v>6</v>
+      </c>
+      <c r="R7" s="181" t="s">
+        <v>214</v>
+      </c>
+      <c r="S7" s="181" t="s">
+        <v>215</v>
+      </c>
+      <c r="T7" s="191" t="s">
+        <v>216</v>
+      </c>
+      <c r="U7" s="192" t="s">
+        <v>217</v>
+      </c>
+      <c r="V7" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="W7" s="190"/>
+      <c r="X7" s="96">
+        <v>42459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="110" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="84">
+        <v>6</v>
+      </c>
+      <c r="I8" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="108">
+        <v>9</v>
+      </c>
+      <c r="R8" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="S8" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="T8" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="U8" s="109" t="s">
+        <v>228</v>
+      </c>
+      <c r="V8" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="W8" s="81">
+        <v>42458</v>
+      </c>
+      <c r="X8" s="72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="111" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="112">
+        <v>7</v>
+      </c>
+      <c r="I9" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="114" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="117">
+        <v>9</v>
+      </c>
+      <c r="R9" s="117" t="s">
+        <v>227</v>
+      </c>
+      <c r="S9" s="117" t="s">
+        <v>141</v>
+      </c>
+      <c r="T9" s="118" t="s">
+        <v>190</v>
+      </c>
+      <c r="U9" s="119" t="s">
+        <v>228</v>
+      </c>
+      <c r="V9" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="W9" s="81">
+        <v>42642</v>
+      </c>
+      <c r="X9" s="72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="130">
+        <v>8</v>
+      </c>
+      <c r="I10" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="132" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="131"/>
+      <c r="O10" s="133" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="134">
+        <v>6</v>
+      </c>
+      <c r="R10" s="134" t="s">
+        <v>214</v>
+      </c>
+      <c r="S10" s="134" t="s">
+        <v>215</v>
+      </c>
+      <c r="T10" s="135" t="s">
+        <v>218</v>
+      </c>
+      <c r="U10" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="V10" s="127"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="72" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="84">
+        <v>9</v>
+      </c>
+      <c r="I11" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="108">
+        <v>9</v>
+      </c>
+      <c r="R11" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="S11" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="T11" s="137" t="s">
+        <v>160</v>
+      </c>
+      <c r="U11" s="138" t="s">
+        <v>228</v>
+      </c>
+      <c r="V11" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="W11" s="81">
+        <v>42459</v>
+      </c>
+      <c r="X11" s="72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="110" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="84">
+        <v>10</v>
+      </c>
+      <c r="I12" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="108">
+        <v>9</v>
+      </c>
+      <c r="R12" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="S12" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="T12" s="137" t="s">
+        <v>163</v>
+      </c>
+      <c r="U12" s="138" t="s">
+        <v>228</v>
+      </c>
+      <c r="V12" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="W12" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="X12" s="72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="140">
+        <v>11</v>
+      </c>
+      <c r="I13" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="142" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="143" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="141"/>
+      <c r="N13" s="141"/>
+      <c r="O13" s="144" t="s">
+        <v>165</v>
+      </c>
+      <c r="P13" s="145" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="146">
+        <v>9</v>
+      </c>
+      <c r="R13" s="146" t="s">
+        <v>227</v>
+      </c>
+      <c r="S13" s="146" t="s">
+        <v>141</v>
+      </c>
+      <c r="T13" s="147" t="s">
+        <v>147</v>
+      </c>
+      <c r="U13" s="148" t="s">
+        <v>228</v>
+      </c>
+      <c r="V13" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y13" s="149" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="174" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" s="175">
+        <v>12</v>
+      </c>
+      <c r="I14" s="176" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="177" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="178" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="178" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="176"/>
+      <c r="N14" s="176" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="179" t="s">
+        <v>182</v>
+      </c>
+      <c r="P14" s="180" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="181">
+        <v>6</v>
+      </c>
+      <c r="R14" s="181" t="s">
+        <v>209</v>
+      </c>
+      <c r="S14" s="181" t="s">
+        <v>210</v>
+      </c>
+      <c r="T14" s="182" t="s">
+        <v>219</v>
+      </c>
+      <c r="U14" s="183" t="s">
+        <v>212</v>
+      </c>
+      <c r="V14" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="W14" s="184" t="s">
+        <v>242</v>
+      </c>
+      <c r="X14" s="96">
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="185" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="121">
+        <v>13</v>
+      </c>
+      <c r="I15" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="186" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="187" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="187" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="125">
+        <v>9</v>
+      </c>
+      <c r="R15" s="125" t="s">
+        <v>227</v>
+      </c>
+      <c r="S15" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15" s="188" t="s">
+        <v>151</v>
+      </c>
+      <c r="U15" s="189" t="s">
+        <v>228</v>
+      </c>
+      <c r="V15" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="W15" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="X15" s="72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="185" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="121">
+        <v>14</v>
+      </c>
+      <c r="I16" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="186" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="187" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="187" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="125">
+        <v>9</v>
+      </c>
+      <c r="R16" s="125" t="s">
+        <v>227</v>
+      </c>
+      <c r="S16" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="188" t="s">
+        <v>154</v>
+      </c>
+      <c r="U16" s="189" t="s">
+        <v>228</v>
+      </c>
+      <c r="V16" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="W16" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="X16" s="72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="193" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="194">
+        <v>15</v>
+      </c>
+      <c r="I17" s="195" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="196" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="195" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="195" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="195"/>
+      <c r="N17" s="195" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" s="197" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17" s="198" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="199">
+        <v>6</v>
+      </c>
+      <c r="R17" s="199" t="s">
+        <v>209</v>
+      </c>
+      <c r="S17" s="199" t="s">
+        <v>210</v>
+      </c>
+      <c r="T17" s="200" t="s">
+        <v>220</v>
+      </c>
+      <c r="U17" s="201" t="s">
+        <v>212</v>
+      </c>
+      <c r="V17" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="W17" s="81">
+        <v>42459</v>
+      </c>
+      <c r="X17" s="72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="27">
+        <v>16</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="31">
+        <v>9</v>
+      </c>
+      <c r="R18" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S18" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="T18" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="U18" s="66" t="s">
+        <v>228</v>
+      </c>
+      <c r="V18" s="76"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+    </row>
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="10">
+        <v>17</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>9</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="S19" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="U19" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="V19" s="76"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+    </row>
+    <row r="20" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="37">
+        <v>18</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>6</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="S20" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="T20" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="U20" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="V20" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+    </row>
+    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" s="37">
+        <v>19</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>6</v>
+      </c>
+      <c r="R21" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="S21" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="T21" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="U21" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="V21" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+    </row>
+    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="37">
+        <v>20</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="20">
+        <v>6</v>
+      </c>
+      <c r="R22" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="T22" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="U22" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="V22" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="X2" s="27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D23" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="32">
+        <v>21</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="44">
-        <v>1</v>
-      </c>
-      <c r="I3" s="45" t="s">
+      <c r="K23" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="L23" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="63">
+        <v>9</v>
+      </c>
+      <c r="R23" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="S23" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="T23" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="U23" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="V23" s="76"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+    </row>
+    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="27">
+        <v>22</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="31">
+        <v>9</v>
+      </c>
+      <c r="R24" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S24" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="T24" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="U24" s="66" t="s">
+        <v>228</v>
+      </c>
+      <c r="V24" s="76"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+    </row>
+    <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="121">
+        <v>23</v>
+      </c>
+      <c r="I25" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="123" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="123"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="W25" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="X25" s="72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="H26" s="43">
+        <v>24</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="P3" s="48" t="s">
+      <c r="Q26" s="46">
+        <v>6</v>
+      </c>
+      <c r="R26" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="S26" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="T26" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="U26" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="V26" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+    </row>
+    <row r="27" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" s="51">
+        <v>25</v>
+      </c>
+      <c r="I27" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="49">
-        <v>9</v>
-      </c>
-      <c r="R3" s="49" t="s">
+      <c r="J27" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="55">
+        <v>6</v>
+      </c>
+      <c r="R27" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="S27" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="T27" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="S3" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="T3" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="U3" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="V3" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="W3" s="26">
-        <v>42458</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" s="29">
-        <v>2</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="53">
-        <v>9</v>
-      </c>
-      <c r="R4" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="S4" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="T4" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="U4" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="V4" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="W4" s="26">
-        <v>42458</v>
-      </c>
-      <c r="X4" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="H5" s="29">
-        <v>3</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="35">
-        <v>6</v>
-      </c>
-      <c r="R5" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="S5" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="T5" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="U5" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="V5" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="W5" s="26">
-        <v>42458</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="29">
-        <v>4</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="35">
-        <v>6</v>
-      </c>
-      <c r="R6" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="S6" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="T6" s="36" t="s">
+      <c r="U27" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="U6" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="V6" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="W6" s="26">
-        <v>42458</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="H7" s="77">
-        <v>5</v>
-      </c>
-      <c r="I7" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="K7" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="N7" s="78"/>
-      <c r="O7" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="P7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="83">
-        <v>6</v>
-      </c>
-      <c r="R7" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="S7" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="T7" s="93" t="s">
-        <v>215</v>
-      </c>
-      <c r="U7" s="94" t="s">
-        <v>216</v>
-      </c>
-      <c r="V7" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="W7" s="92"/>
-      <c r="X7" s="41">
-        <v>42459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="29">
-        <v>6</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="53">
-        <v>9</v>
-      </c>
-      <c r="R8" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="S8" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="T8" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="U8" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="V8" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="W8" s="26">
-        <v>42458</v>
-      </c>
-      <c r="X8" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="57">
-        <v>7</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="K9" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="62">
-        <v>9</v>
-      </c>
-      <c r="R9" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="S9" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="T9" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="U9" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="V9" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="W9" s="26">
-        <v>42642</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="157" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="158">
-        <v>8</v>
-      </c>
-      <c r="I10" s="159" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="160" t="s">
-        <v>197</v>
-      </c>
-      <c r="K10" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="159"/>
-      <c r="O10" s="161" t="s">
-        <v>191</v>
-      </c>
-      <c r="P10" s="162" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="162">
-        <v>6</v>
-      </c>
-      <c r="R10" s="162" t="s">
-        <v>213</v>
-      </c>
-      <c r="S10" s="162" t="s">
-        <v>214</v>
-      </c>
-      <c r="T10" s="163" t="s">
-        <v>217</v>
-      </c>
-      <c r="U10" s="164" t="s">
-        <v>216</v>
-      </c>
-      <c r="V10" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="W10" s="26">
-        <v>42460</v>
-      </c>
-      <c r="X10" s="41">
-        <v>42460</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" s="29">
-        <v>9</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="53">
-        <v>9</v>
-      </c>
-      <c r="R11" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="S11" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="T11" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="U11" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="V11" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="W11" s="26">
-        <v>42459</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="H12" s="29">
-        <v>10</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="53">
-        <v>9</v>
-      </c>
-      <c r="R12" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="S12" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="T12" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="U12" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="V12" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="W12" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="66">
-        <v>11</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="K13" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="P13" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="70">
-        <v>9</v>
-      </c>
-      <c r="R13" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="S13" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="T13" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="U13" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="V13" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y13" s="75" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="76" t="s">
+      <c r="V27" s="78"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+    </row>
+    <row r="28" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V29" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="H14" s="77">
-        <v>12</v>
-      </c>
-      <c r="I14" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="K14" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="P14" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="83">
-        <v>6</v>
-      </c>
-      <c r="R14" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="S14" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="T14" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="U14" s="85" t="s">
-        <v>211</v>
-      </c>
-      <c r="V14" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="W14" s="86" t="s">
-        <v>240</v>
-      </c>
-      <c r="X14" s="41">
-        <v>42458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="87" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="66">
-        <v>13</v>
-      </c>
-      <c r="I15" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="70">
-        <v>9</v>
-      </c>
-      <c r="R15" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="S15" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="T15" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="U15" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="V15" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="W15" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="X15" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="66">
-        <v>14</v>
-      </c>
-      <c r="I16" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="70">
-        <v>9</v>
-      </c>
-      <c r="R16" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="S16" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="T16" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="U16" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="V16" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="W16" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="X16" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="96">
-        <v>15</v>
-      </c>
-      <c r="I17" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="98" t="s">
-        <v>202</v>
-      </c>
-      <c r="K17" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="O17" s="99" t="s">
-        <v>173</v>
-      </c>
-      <c r="P17" s="100" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="101">
-        <v>6</v>
-      </c>
-      <c r="R17" s="101" t="s">
-        <v>208</v>
-      </c>
-      <c r="S17" s="101" t="s">
-        <v>209</v>
-      </c>
-      <c r="T17" s="102" t="s">
-        <v>219</v>
-      </c>
-      <c r="U17" s="103" t="s">
-        <v>211</v>
-      </c>
-      <c r="V17" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="W17" s="26">
-        <v>42459</v>
-      </c>
-      <c r="X17" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="128" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="129">
-        <v>16</v>
-      </c>
-      <c r="I18" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="K18" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="130" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="130"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="132" t="s">
-        <v>170</v>
-      </c>
-      <c r="P18" s="133" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="134">
-        <v>9</v>
-      </c>
-      <c r="R18" s="134" t="s">
-        <v>226</v>
-      </c>
-      <c r="S18" s="134" t="s">
-        <v>141</v>
-      </c>
-      <c r="T18" s="132" t="s">
-        <v>155</v>
-      </c>
-      <c r="U18" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="V18" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="W18" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="X18" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="87" t="s">
-        <v>241</v>
-      </c>
-      <c r="H19" s="66">
-        <v>17</v>
-      </c>
-      <c r="I19" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="K19" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="70">
-        <v>9</v>
-      </c>
-      <c r="R19" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="S19" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="T19" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="U19" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="V19" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="W19" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="X19" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="136" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" s="137">
-        <v>18</v>
-      </c>
-      <c r="I20" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="K20" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="138" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="138"/>
-      <c r="N20" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="140" t="s">
-        <v>175</v>
-      </c>
-      <c r="P20" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="142">
-        <v>6</v>
-      </c>
-      <c r="R20" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="S20" s="142" t="s">
-        <v>209</v>
-      </c>
-      <c r="T20" s="143" t="s">
-        <v>220</v>
-      </c>
-      <c r="U20" s="144" t="s">
-        <v>211</v>
-      </c>
-      <c r="V20" s="72" t="s">
-        <v>230</v>
-      </c>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="H21" s="77">
-        <v>19</v>
-      </c>
-      <c r="I21" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="K21" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="81" t="s">
-        <v>179</v>
-      </c>
-      <c r="P21" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="83">
-        <v>6</v>
-      </c>
-      <c r="R21" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="S21" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="T21" s="93" t="s">
-        <v>221</v>
-      </c>
-      <c r="U21" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="V21" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="W21" s="26">
-        <v>42460</v>
-      </c>
-      <c r="X21" s="41">
-        <v>42460</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="H22" s="29">
-        <v>20</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="K22" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="P22" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="35">
-        <v>6</v>
-      </c>
-      <c r="R22" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="S22" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="T22" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="U22" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="V22" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="W22" s="26">
-        <v>42460</v>
-      </c>
-      <c r="X22" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="145" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="146">
-        <v>21</v>
-      </c>
-      <c r="I23" s="147" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="K23" s="149" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="147" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="147"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="150"/>
-      <c r="P23" s="151" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="152">
-        <v>9</v>
-      </c>
-      <c r="R23" s="152" t="s">
-        <v>226</v>
-      </c>
-      <c r="S23" s="152" t="s">
-        <v>141</v>
-      </c>
-      <c r="T23" s="153" t="s">
-        <v>138</v>
-      </c>
-      <c r="U23" s="154" t="s">
-        <v>227</v>
-      </c>
-      <c r="V23" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="W23" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="X23" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="155" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="129">
-        <v>22</v>
-      </c>
-      <c r="I24" s="130" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="131" t="s">
-        <v>166</v>
-      </c>
-      <c r="K24" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="130" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="130"/>
-      <c r="N24" s="130"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="133" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="134">
-        <v>9</v>
-      </c>
-      <c r="R24" s="134" t="s">
-        <v>226</v>
-      </c>
-      <c r="S24" s="134" t="s">
-        <v>141</v>
-      </c>
-      <c r="T24" s="132" t="s">
-        <v>167</v>
-      </c>
-      <c r="U24" s="135" t="s">
-        <v>227</v>
-      </c>
-      <c r="V24" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="66">
-        <v>23</v>
-      </c>
-      <c r="I25" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="K25" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="W25" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="X25" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="136" t="s">
-        <v>195</v>
-      </c>
-      <c r="H26" s="137">
-        <v>24</v>
-      </c>
-      <c r="I26" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="140" t="s">
-        <v>199</v>
-      </c>
-      <c r="K26" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="138" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="140" t="s">
-        <v>125</v>
-      </c>
-      <c r="P26" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="142">
-        <v>6</v>
-      </c>
-      <c r="R26" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="S26" s="142" t="s">
-        <v>209</v>
-      </c>
-      <c r="T26" s="143" t="s">
-        <v>223</v>
-      </c>
-      <c r="U26" s="144" t="s">
-        <v>211</v>
-      </c>
-      <c r="V26" s="72" t="s">
-        <v>230</v>
-      </c>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="146">
-        <v>25</v>
-      </c>
-      <c r="I27" s="147" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="150" t="s">
-        <v>200</v>
-      </c>
-      <c r="K27" s="147" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="147" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="147"/>
-      <c r="N27" s="147"/>
-      <c r="O27" s="150"/>
-      <c r="P27" s="151" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="152">
-        <v>6</v>
-      </c>
-      <c r="R27" s="152" t="s">
-        <v>208</v>
-      </c>
-      <c r="S27" s="152" t="s">
-        <v>209</v>
-      </c>
-      <c r="T27" s="153" t="s">
-        <v>225</v>
-      </c>
-      <c r="U27" s="154" t="s">
-        <v>211</v>
-      </c>
-      <c r="V27" s="156" t="s">
-        <v>235</v>
-      </c>
-      <c r="W27" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="X27" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V29" s="9" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="42" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="12" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4188,12 +4259,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="245">
   <si>
     <t>Asignatura</t>
   </si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>Cristian</t>
+  </si>
+  <si>
+    <t>Mal</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1806,58 +1809,94 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1878,88 +1917,79 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2283,9 +2313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2318,65 +2348,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="D1" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="154" t="s">
+      <c r="E1" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="150" t="s">
+      <c r="F1" s="186" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="158" t="s">
+      <c r="G1" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="150" t="s">
+      <c r="H1" s="186" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="150" t="s">
+      <c r="I1" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="162" t="s">
+      <c r="J1" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="194" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="158" t="s">
+      <c r="L1" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="164" t="s">
+      <c r="M1" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="164"/>
-      <c r="O1" s="152" t="s">
+      <c r="N1" s="198"/>
+      <c r="O1" s="178" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="152" t="s">
+      <c r="P1" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="168" t="s">
+      <c r="Q1" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="172" t="s">
+      <c r="R1" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="168" t="s">
+      <c r="S1" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="170" t="s">
+      <c r="T1" s="182" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="168" t="s">
+      <c r="U1" s="180" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="74"/>
@@ -2384,31 +2414,31 @@
       <c r="X1" s="79"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="157"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="159"/>
+      <c r="A2" s="191"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="193"/>
       <c r="M2" s="25" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="169"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="181"/>
       <c r="V2" s="75"/>
       <c r="W2" s="80" t="s">
         <v>233</v>
@@ -2710,53 +2740,53 @@
         <v>130</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="174" t="s">
+      <c r="G7" s="150" t="s">
         <v>187</v>
       </c>
-      <c r="H7" s="175">
+      <c r="H7" s="151">
         <v>5</v>
       </c>
-      <c r="I7" s="176" t="s">
+      <c r="I7" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="177" t="s">
+      <c r="J7" s="153" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="176" t="s">
+      <c r="K7" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="178" t="s">
+      <c r="L7" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="176" t="s">
+      <c r="M7" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="N7" s="176"/>
-      <c r="O7" s="179" t="s">
+      <c r="N7" s="152"/>
+      <c r="O7" s="155" t="s">
         <v>173</v>
       </c>
-      <c r="P7" s="180" t="s">
+      <c r="P7" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="181">
+      <c r="Q7" s="157">
         <v>6</v>
       </c>
-      <c r="R7" s="181" t="s">
+      <c r="R7" s="157" t="s">
         <v>214</v>
       </c>
-      <c r="S7" s="181" t="s">
+      <c r="S7" s="157" t="s">
         <v>215</v>
       </c>
-      <c r="T7" s="191" t="s">
+      <c r="T7" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="U7" s="192" t="s">
+      <c r="U7" s="168" t="s">
         <v>217</v>
       </c>
       <c r="V7" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="W7" s="190"/>
+      <c r="W7" s="166"/>
       <c r="X7" s="96">
         <v>42459</v>
       </c>
@@ -3183,53 +3213,53 @@
       <c r="F14" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="174" t="s">
+      <c r="G14" s="150" t="s">
         <v>230</v>
       </c>
-      <c r="H14" s="175">
+      <c r="H14" s="151">
         <v>12</v>
       </c>
-      <c r="I14" s="176" t="s">
+      <c r="I14" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="177" t="s">
+      <c r="J14" s="153" t="s">
         <v>183</v>
       </c>
-      <c r="K14" s="178" t="s">
+      <c r="K14" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="178" t="s">
+      <c r="L14" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="176"/>
-      <c r="N14" s="176" t="s">
+      <c r="M14" s="152"/>
+      <c r="N14" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="179" t="s">
+      <c r="O14" s="155" t="s">
         <v>182</v>
       </c>
-      <c r="P14" s="180" t="s">
+      <c r="P14" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="181">
+      <c r="Q14" s="157">
         <v>6</v>
       </c>
-      <c r="R14" s="181" t="s">
+      <c r="R14" s="157" t="s">
         <v>209</v>
       </c>
-      <c r="S14" s="181" t="s">
+      <c r="S14" s="157" t="s">
         <v>210</v>
       </c>
-      <c r="T14" s="182" t="s">
+      <c r="T14" s="158" t="s">
         <v>219</v>
       </c>
-      <c r="U14" s="183" t="s">
+      <c r="U14" s="159" t="s">
         <v>212</v>
       </c>
       <c r="V14" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="W14" s="184" t="s">
+      <c r="W14" s="160" t="s">
         <v>242</v>
       </c>
       <c r="X14" s="96">
@@ -3251,7 +3281,7 @@
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="185" t="s">
+      <c r="G15" s="161" t="s">
         <v>149</v>
       </c>
       <c r="H15" s="121">
@@ -3260,13 +3290,13 @@
       <c r="I15" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="186" t="s">
+      <c r="J15" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="K15" s="187" t="s">
+      <c r="K15" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="187" t="s">
+      <c r="L15" s="163" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="122"/>
@@ -3284,10 +3314,10 @@
       <c r="S15" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="T15" s="188" t="s">
+      <c r="T15" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="U15" s="189" t="s">
+      <c r="U15" s="165" t="s">
         <v>228</v>
       </c>
       <c r="V15" s="77" t="s">
@@ -3315,7 +3345,7 @@
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="185" t="s">
+      <c r="G16" s="161" t="s">
         <v>152</v>
       </c>
       <c r="H16" s="121">
@@ -3324,13 +3354,13 @@
       <c r="I16" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="186" t="s">
+      <c r="J16" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="187" t="s">
+      <c r="K16" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="187" t="s">
+      <c r="L16" s="163" t="s">
         <v>8</v>
       </c>
       <c r="M16" s="122"/>
@@ -3348,10 +3378,10 @@
       <c r="S16" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="T16" s="188" t="s">
+      <c r="T16" s="164" t="s">
         <v>154</v>
       </c>
-      <c r="U16" s="189" t="s">
+      <c r="U16" s="165" t="s">
         <v>228</v>
       </c>
       <c r="V16" s="77" t="s">
@@ -3364,7 +3394,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -3381,47 +3411,47 @@
         <v>122</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="193" t="s">
+      <c r="G17" s="169" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="194">
+      <c r="H17" s="170">
         <v>15</v>
       </c>
-      <c r="I17" s="195" t="s">
+      <c r="I17" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="196" t="s">
+      <c r="J17" s="172" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="195" t="s">
+      <c r="K17" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="195" t="s">
+      <c r="L17" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="195"/>
-      <c r="N17" s="195" t="s">
+      <c r="M17" s="171"/>
+      <c r="N17" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="197" t="s">
+      <c r="O17" s="173" t="s">
         <v>174</v>
       </c>
-      <c r="P17" s="198" t="s">
+      <c r="P17" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="199">
+      <c r="Q17" s="175">
         <v>6</v>
       </c>
-      <c r="R17" s="199" t="s">
+      <c r="R17" s="175" t="s">
         <v>209</v>
       </c>
-      <c r="S17" s="199" t="s">
+      <c r="S17" s="175" t="s">
         <v>210</v>
       </c>
-      <c r="T17" s="200" t="s">
+      <c r="T17" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="U17" s="201" t="s">
+      <c r="U17" s="177" t="s">
         <v>212</v>
       </c>
       <c r="V17" s="77" t="s">
@@ -3434,7 +3464,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -3496,7 +3526,7 @@
       <c r="W18" s="72"/>
       <c r="X18" s="72"/>
     </row>
-    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
@@ -3556,7 +3586,7 @@
       <c r="W19" s="72"/>
       <c r="X19" s="72"/>
     </row>
-    <row r="20" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
@@ -3573,56 +3603,59 @@
         <v>137</v>
       </c>
       <c r="F20" s="24"/>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="202" t="s">
         <v>193</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="203">
         <v>18</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="205" t="s">
         <v>175</v>
       </c>
-      <c r="K20" s="38" t="s">
+      <c r="K20" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="38" t="s">
+      <c r="L20" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38" t="s">
+      <c r="M20" s="204"/>
+      <c r="N20" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="42" t="s">
+      <c r="O20" s="206" t="s">
         <v>176</v>
       </c>
-      <c r="P20" s="26" t="s">
+      <c r="P20" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="208">
         <v>6</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="R20" s="208" t="s">
         <v>209</v>
       </c>
-      <c r="S20" s="20" t="s">
+      <c r="S20" s="208" t="s">
         <v>210</v>
       </c>
-      <c r="T20" s="39" t="s">
+      <c r="T20" s="209" t="s">
         <v>221</v>
       </c>
-      <c r="U20" s="69" t="s">
+      <c r="U20" s="210" t="s">
         <v>212</v>
       </c>
-      <c r="V20" s="76" t="s">
+      <c r="V20" s="127" t="s">
         <v>231</v>
       </c>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-    </row>
-    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W20" s="128"/>
+      <c r="X20" s="128"/>
+      <c r="Y20" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
@@ -3684,7 +3717,7 @@
       <c r="W21" s="72"/>
       <c r="X21" s="72"/>
     </row>
-    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
@@ -3748,7 +3781,7 @@
       <c r="W22" s="72"/>
       <c r="X22" s="72"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
@@ -3808,7 +3841,7 @@
       <c r="W23" s="72"/>
       <c r="X23" s="72"/>
     </row>
-    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -3868,7 +3901,7 @@
       <c r="W24" s="72"/>
       <c r="X24" s="72"/>
     </row>
-    <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
@@ -3922,7 +3955,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>15</v>
       </c>
@@ -3986,7 +4019,7 @@
       <c r="W26" s="72"/>
       <c r="X26" s="72"/>
     </row>
-    <row r="27" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
@@ -4044,10 +4077,10 @@
       <c r="W27" s="73"/>
       <c r="X27" s="73"/>
     </row>
-    <row r="28" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V29" s="12" t="s">
         <v>229</v>
       </c>
@@ -4239,12 +4272,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4259,6 +4286,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="246">
   <si>
     <t>Asignatura</t>
   </si>
@@ -756,9 +756,6 @@
     <t>No se necesita</t>
   </si>
   <si>
-    <t>Vacío</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aplica la ley de Laplace
 </t>
   </si>
@@ -773,6 +770,12 @@
   </si>
   <si>
     <t>Mal</t>
+  </si>
+  <si>
+    <t>falta</t>
+  </si>
+  <si>
+    <t>Listo</t>
   </si>
 </sst>
 </file>
@@ -907,12 +910,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -935,6 +932,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -1364,7 +1367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1419,9 +1422,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1437,9 +1437,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1470,29 +1467,89 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1503,12 +1560,60 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1518,6 +1623,9 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1530,105 +1638,198 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1638,31 +1839,22 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1671,26 +1863,41 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1701,9 +1908,6 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1719,278 +1923,8 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2313,9 +2247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W10" sqref="W10"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2326,7 +2260,7 @@
     <col min="4" max="4" width="26.140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="31" style="12" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="43" style="12" customWidth="1"/>
+    <col min="7" max="7" width="62.42578125" style="12" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="4" customWidth="1"/>
     <col min="9" max="9" width="11" style="4" customWidth="1"/>
     <col min="10" max="10" width="41.140625" style="12" customWidth="1"/>
@@ -2334,7 +2268,7 @@
     <col min="12" max="12" width="17.42578125" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="47.7109375" style="14" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="14" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="4" customWidth="1"/>
     <col min="17" max="17" width="17.7109375" style="4" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" style="3" customWidth="1"/>
@@ -2348,102 +2282,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="199" t="s">
+      <c r="C1" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="190" t="s">
+      <c r="D1" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="188" t="s">
+      <c r="E1" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="186" t="s">
+      <c r="F1" s="130" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="192" t="s">
+      <c r="G1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="186" t="s">
+      <c r="H1" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="186" t="s">
+      <c r="I1" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="196" t="s">
+      <c r="J1" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="194" t="s">
+      <c r="K1" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="192" t="s">
+      <c r="L1" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="198" t="s">
+      <c r="M1" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="198"/>
-      <c r="O1" s="178" t="s">
+      <c r="N1" s="144"/>
+      <c r="O1" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="178" t="s">
+      <c r="P1" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="180" t="s">
+      <c r="Q1" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="184" t="s">
+      <c r="R1" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="180" t="s">
+      <c r="S1" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="182" t="s">
+      <c r="T1" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="180" t="s">
+      <c r="U1" s="148" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="74"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="191"/>
-      <c r="B2" s="189"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="25" t="s">
+      <c r="A2" s="137"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="80" t="s">
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="X2" s="82" t="s">
+      <c r="X2" s="56" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2461,55 +2395,55 @@
         <v>205</v>
       </c>
       <c r="E3" s="16"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="99">
+      <c r="H3" s="72">
         <v>1</v>
       </c>
-      <c r="I3" s="100" t="s">
+      <c r="I3" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="K3" s="100" t="s">
+      <c r="K3" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="100" t="s">
+      <c r="L3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="102" t="s">
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="P3" s="103" t="s">
+      <c r="P3" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="104">
+      <c r="Q3" s="77">
         <v>9</v>
       </c>
-      <c r="R3" s="104" t="s">
+      <c r="R3" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="S3" s="104" t="s">
+      <c r="S3" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="T3" s="102" t="s">
+      <c r="T3" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="U3" s="105" t="s">
+      <c r="U3" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="V3" s="97" t="s">
+      <c r="V3" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="W3" s="81">
+      <c r="W3" s="55">
         <v>42458</v>
       </c>
-      <c r="X3" s="72" t="s">
+      <c r="X3" s="47" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2529,55 +2463,55 @@
       <c r="E4" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="106" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="84">
+      <c r="H4" s="58">
         <v>2</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="107" t="s">
+      <c r="J4" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="85" t="s">
+      <c r="L4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="88" t="s">
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="108">
+      <c r="Q4" s="81">
         <v>9</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="S4" s="108" t="s">
+      <c r="S4" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="T4" s="95" t="s">
+      <c r="T4" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="W4" s="81">
+      <c r="W4" s="55">
         <v>42458</v>
       </c>
-      <c r="X4" s="72" t="s">
+      <c r="X4" s="47" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2597,57 +2531,57 @@
       <c r="E5" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="83" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="H5" s="84">
+      <c r="H5" s="58">
         <v>3</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="K5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="85" t="s">
+      <c r="L5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85" t="s">
+      <c r="M5" s="59"/>
+      <c r="N5" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="88" t="s">
+      <c r="O5" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="P5" s="89" t="s">
+      <c r="P5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="90">
+      <c r="Q5" s="64">
         <v>6</v>
       </c>
-      <c r="R5" s="90" t="s">
+      <c r="R5" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="S5" s="90" t="s">
+      <c r="S5" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="T5" s="91" t="s">
+      <c r="T5" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="92" t="s">
+      <c r="U5" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="V5" s="77" t="s">
+      <c r="V5" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="W5" s="81">
+      <c r="W5" s="55">
         <v>42458</v>
       </c>
-      <c r="X5" s="72" t="s">
+      <c r="X5" s="47" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2667,59 +2601,59 @@
       <c r="E6" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="H6" s="84">
+      <c r="H6" s="58">
         <v>4</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="87" t="s">
+      <c r="K6" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="85" t="s">
+      <c r="L6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87" t="s">
+      <c r="M6" s="61"/>
+      <c r="N6" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="95" t="s">
+      <c r="O6" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="P6" s="89" t="s">
+      <c r="P6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="90">
+      <c r="Q6" s="64">
         <v>6</v>
       </c>
-      <c r="R6" s="90" t="s">
+      <c r="R6" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="S6" s="90" t="s">
+      <c r="S6" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="T6" s="91" t="s">
+      <c r="T6" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="V6" s="77" t="s">
+      <c r="V6" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="W6" s="81">
+      <c r="W6" s="55">
         <v>42458</v>
       </c>
-      <c r="X6" s="72" t="s">
+      <c r="X6" s="47" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2739,55 +2673,55 @@
       <c r="E7" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="150" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="H7" s="151">
+      <c r="H7" s="94">
         <v>5</v>
       </c>
-      <c r="I7" s="152" t="s">
+      <c r="I7" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="153" t="s">
+      <c r="J7" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="152" t="s">
+      <c r="K7" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="154" t="s">
+      <c r="L7" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="152" t="s">
+      <c r="M7" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="N7" s="152"/>
-      <c r="O7" s="155" t="s">
+      <c r="N7" s="95"/>
+      <c r="O7" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="P7" s="156" t="s">
+      <c r="P7" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="157">
+      <c r="Q7" s="156">
         <v>6</v>
       </c>
-      <c r="R7" s="157" t="s">
+      <c r="R7" s="156" t="s">
         <v>214</v>
       </c>
-      <c r="S7" s="157" t="s">
+      <c r="S7" s="156" t="s">
         <v>215</v>
       </c>
-      <c r="T7" s="167" t="s">
+      <c r="T7" s="157" t="s">
         <v>216</v>
       </c>
-      <c r="U7" s="168" t="s">
+      <c r="U7" s="158" t="s">
         <v>217</v>
       </c>
-      <c r="V7" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="W7" s="166"/>
-      <c r="X7" s="96">
+      <c r="V7" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="W7" s="118"/>
+      <c r="X7" s="155">
         <v>42459</v>
       </c>
     </row>
@@ -2807,53 +2741,53 @@
       <c r="E8" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="110" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="58">
         <v>6</v>
       </c>
-      <c r="I8" s="87" t="s">
+      <c r="I8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="94" t="s">
+      <c r="J8" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="K8" s="87" t="s">
+      <c r="K8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="87" t="s">
+      <c r="L8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="89" t="s">
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="108">
+      <c r="Q8" s="81">
         <v>9</v>
       </c>
-      <c r="R8" s="108" t="s">
+      <c r="R8" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="S8" s="108" t="s">
+      <c r="S8" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="T8" s="95" t="s">
+      <c r="T8" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="U8" s="109" t="s">
+      <c r="U8" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="V8" s="77" t="s">
+      <c r="V8" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="W8" s="81">
+      <c r="W8" s="55">
         <v>42458</v>
       </c>
-      <c r="X8" s="72" t="s">
+      <c r="X8" s="47" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2873,53 +2807,53 @@
       <c r="E9" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="111" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="112">
+      <c r="H9" s="85">
         <v>7</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="114" t="s">
+      <c r="J9" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="K9" s="113" t="s">
+      <c r="K9" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="113" t="s">
+      <c r="L9" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="116" t="s">
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="117">
+      <c r="Q9" s="90">
         <v>9</v>
       </c>
-      <c r="R9" s="117" t="s">
+      <c r="R9" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="S9" s="117" t="s">
+      <c r="S9" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="T9" s="118" t="s">
+      <c r="T9" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="U9" s="119" t="s">
+      <c r="U9" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="V9" s="77" t="s">
+      <c r="V9" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="W9" s="81">
+      <c r="W9" s="55">
         <v>42642</v>
       </c>
-      <c r="X9" s="72" t="s">
+      <c r="X9" s="47" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2937,52 +2871,52 @@
         <v>206</v>
       </c>
       <c r="E10" s="18"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="129" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="161" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="130">
+      <c r="H10" s="162">
         <v>8</v>
       </c>
-      <c r="I10" s="131" t="s">
+      <c r="I10" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="132" t="s">
+      <c r="J10" s="164" t="s">
         <v>198</v>
       </c>
-      <c r="K10" s="131" t="s">
+      <c r="K10" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131" t="s">
+      <c r="L10" s="163"/>
+      <c r="M10" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="131"/>
-      <c r="O10" s="133" t="s">
+      <c r="N10" s="163"/>
+      <c r="O10" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="P10" s="134" t="s">
+      <c r="P10" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="134">
+      <c r="Q10" s="166">
         <v>6</v>
       </c>
-      <c r="R10" s="134" t="s">
+      <c r="R10" s="166" t="s">
         <v>214</v>
       </c>
-      <c r="S10" s="134" t="s">
+      <c r="S10" s="166" t="s">
         <v>215</v>
       </c>
-      <c r="T10" s="135" t="s">
+      <c r="T10" s="167" t="s">
         <v>218</v>
       </c>
-      <c r="U10" s="136" t="s">
+      <c r="U10" s="168" t="s">
         <v>217</v>
       </c>
-      <c r="V10" s="127"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="72" t="s">
-        <v>239</v>
+      <c r="V10" s="52"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3001,57 +2935,57 @@
       <c r="E11" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="58">
         <v>9</v>
       </c>
-      <c r="I11" s="87" t="s">
+      <c r="I11" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="94" t="s">
+      <c r="J11" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="K11" s="85" t="s">
+      <c r="K11" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="85" t="s">
+      <c r="L11" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="95" t="s">
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="P11" s="89" t="s">
+      <c r="P11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="108">
+      <c r="Q11" s="81">
         <v>9</v>
       </c>
-      <c r="R11" s="108" t="s">
+      <c r="R11" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="S11" s="108" t="s">
+      <c r="S11" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="T11" s="137" t="s">
+      <c r="T11" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="U11" s="138" t="s">
+      <c r="U11" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="V11" s="77" t="s">
+      <c r="V11" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="W11" s="81">
+      <c r="W11" s="55">
         <v>42459</v>
       </c>
-      <c r="X11" s="72" t="s">
+      <c r="X11" s="47" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3071,55 +3005,55 @@
       <c r="E12" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="110" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" s="84">
+      <c r="G12" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="H12" s="58">
         <v>10</v>
       </c>
-      <c r="I12" s="87" t="s">
+      <c r="I12" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="89" t="s">
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="108">
+      <c r="Q12" s="81">
         <v>9</v>
       </c>
-      <c r="R12" s="108" t="s">
+      <c r="R12" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="S12" s="108" t="s">
+      <c r="S12" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="T12" s="137" t="s">
+      <c r="T12" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="U12" s="138" t="s">
+      <c r="U12" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="V12" s="77" t="s">
+      <c r="V12" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="W12" s="72" t="s">
+      <c r="W12" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="X12" s="72" t="s">
+      <c r="X12" s="47" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3139,59 +3073,59 @@
       <c r="E13" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="139" t="s">
+      <c r="G13" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="140">
+      <c r="H13" s="94">
         <v>11</v>
       </c>
-      <c r="I13" s="141" t="s">
+      <c r="I13" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="142" t="s">
+      <c r="J13" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="143" t="s">
+      <c r="K13" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="143" t="s">
+      <c r="L13" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="144" t="s">
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="P13" s="145" t="s">
+      <c r="P13" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="146">
+      <c r="Q13" s="98">
         <v>9</v>
       </c>
-      <c r="R13" s="146" t="s">
+      <c r="R13" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="S13" s="146" t="s">
+      <c r="S13" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="T13" s="147" t="s">
+      <c r="T13" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="U13" s="148" t="s">
+      <c r="U13" s="117" t="s">
         <v>228</v>
       </c>
-      <c r="V13" s="77" t="s">
+      <c r="V13" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72" t="s">
+      <c r="W13" s="47"/>
+      <c r="X13" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="Y13" s="149" t="s">
-        <v>241</v>
+      <c r="Y13" s="104" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3210,59 +3144,59 @@
       <c r="E14" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="150" t="s">
+      <c r="G14" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="H14" s="151">
+      <c r="H14" s="94">
         <v>12</v>
       </c>
-      <c r="I14" s="152" t="s">
+      <c r="I14" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="153" t="s">
+      <c r="J14" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="K14" s="154" t="s">
+      <c r="K14" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="154" t="s">
+      <c r="L14" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152" t="s">
+      <c r="M14" s="95"/>
+      <c r="N14" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="155" t="s">
+      <c r="O14" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="P14" s="156" t="s">
+      <c r="P14" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="157">
+      <c r="Q14" s="156">
         <v>6</v>
       </c>
-      <c r="R14" s="157" t="s">
+      <c r="R14" s="156" t="s">
         <v>209</v>
       </c>
-      <c r="S14" s="157" t="s">
+      <c r="S14" s="156" t="s">
         <v>210</v>
       </c>
-      <c r="T14" s="158" t="s">
+      <c r="T14" s="159" t="s">
         <v>219</v>
       </c>
-      <c r="U14" s="159" t="s">
+      <c r="U14" s="160" t="s">
         <v>212</v>
       </c>
-      <c r="V14" s="77" t="s">
+      <c r="V14" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="W14" s="160" t="s">
-        <v>242</v>
-      </c>
-      <c r="X14" s="96">
+      <c r="W14" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="X14" s="155">
         <v>42458</v>
       </c>
     </row>
@@ -3280,53 +3214,53 @@
         <v>206</v>
       </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="161" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="121">
+      <c r="H15" s="94">
         <v>13</v>
       </c>
-      <c r="I15" s="122" t="s">
+      <c r="I15" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="162" t="s">
+      <c r="J15" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="K15" s="163" t="s">
+      <c r="K15" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="163" t="s">
+      <c r="L15" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="124" t="s">
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="125">
+      <c r="Q15" s="98">
         <v>9</v>
       </c>
-      <c r="R15" s="125" t="s">
+      <c r="R15" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="S15" s="125" t="s">
+      <c r="S15" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="T15" s="164" t="s">
+      <c r="T15" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="U15" s="165" t="s">
+      <c r="U15" s="117" t="s">
         <v>228</v>
       </c>
-      <c r="V15" s="77" t="s">
+      <c r="V15" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="W15" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="X15" s="72" t="s">
+      <c r="W15" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="X15" s="47" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3344,53 +3278,53 @@
         <v>206</v>
       </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="161" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="121">
+      <c r="H16" s="94">
         <v>14</v>
       </c>
-      <c r="I16" s="122" t="s">
+      <c r="I16" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="162" t="s">
+      <c r="J16" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="163" t="s">
+      <c r="K16" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="163" t="s">
+      <c r="L16" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="124" t="s">
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="125">
+      <c r="Q16" s="98">
         <v>9</v>
       </c>
-      <c r="R16" s="125" t="s">
+      <c r="R16" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="S16" s="125" t="s">
+      <c r="S16" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="T16" s="164" t="s">
+      <c r="T16" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="U16" s="165" t="s">
+      <c r="U16" s="117" t="s">
         <v>228</v>
       </c>
-      <c r="V16" s="77" t="s">
+      <c r="V16" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="W16" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="X16" s="72" t="s">
+      <c r="W16" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="X16" s="47" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3410,57 +3344,57 @@
       <c r="E17" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="169" t="s">
+      <c r="F17" s="23"/>
+      <c r="G17" s="170" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="170">
+      <c r="H17" s="171">
         <v>15</v>
       </c>
-      <c r="I17" s="171" t="s">
+      <c r="I17" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="172" t="s">
+      <c r="J17" s="173" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="171" t="s">
+      <c r="K17" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="171" t="s">
+      <c r="L17" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="171"/>
-      <c r="N17" s="171" t="s">
+      <c r="M17" s="172"/>
+      <c r="N17" s="172" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="173" t="s">
+      <c r="O17" s="174" t="s">
         <v>174</v>
       </c>
-      <c r="P17" s="174" t="s">
+      <c r="P17" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="175">
+      <c r="Q17" s="176">
         <v>6</v>
       </c>
-      <c r="R17" s="175" t="s">
+      <c r="R17" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="S17" s="175" t="s">
+      <c r="S17" s="176" t="s">
         <v>210</v>
       </c>
-      <c r="T17" s="176" t="s">
+      <c r="T17" s="177" t="s">
         <v>220</v>
       </c>
-      <c r="U17" s="177" t="s">
+      <c r="U17" s="178" t="s">
         <v>212</v>
       </c>
-      <c r="V17" s="77" t="s">
+      <c r="V17" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="W17" s="81">
+      <c r="W17" s="155">
         <v>42459</v>
       </c>
-      <c r="X17" s="72" t="s">
+      <c r="X17" s="47" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3480,51 +3414,53 @@
       <c r="E18" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="58" t="s">
+      <c r="F18" s="23"/>
+      <c r="G18" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="25">
         <v>16</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="29" t="s">
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="P18" s="30" t="s">
+      <c r="P18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="29">
         <v>9</v>
       </c>
-      <c r="R18" s="31" t="s">
+      <c r="R18" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="S18" s="31" t="s">
+      <c r="S18" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="T18" s="29" t="s">
+      <c r="T18" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="U18" s="66" t="s">
+      <c r="U18" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="V18" s="76"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -3542,17 +3478,17 @@
       <c r="E19" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="57" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="35" t="s">
         <v>157</v>
       </c>
       <c r="H19" s="10">
         <v>17</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="34" t="s">
         <v>158</v>
       </c>
       <c r="K19" s="9" t="s">
@@ -3561,30 +3497,32 @@
       <c r="L19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
       <c r="O19" s="13"/>
       <c r="P19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="21">
         <v>9</v>
       </c>
-      <c r="R19" s="22" t="s">
+      <c r="R19" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="S19" s="22" t="s">
+      <c r="S19" s="21" t="s">
         <v>141</v>
       </c>
       <c r="T19" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="U19" s="67" t="s">
+      <c r="U19" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="V19" s="76"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="20" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -3602,57 +3540,57 @@
       <c r="E20" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="202" t="s">
+      <c r="F20" s="23"/>
+      <c r="G20" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="H20" s="203">
+      <c r="H20" s="122">
         <v>18</v>
       </c>
-      <c r="I20" s="204" t="s">
+      <c r="I20" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="205" t="s">
+      <c r="J20" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="K20" s="204" t="s">
+      <c r="K20" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="204" t="s">
+      <c r="L20" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="204"/>
-      <c r="N20" s="204" t="s">
+      <c r="M20" s="123"/>
+      <c r="N20" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="206" t="s">
+      <c r="O20" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="P20" s="207" t="s">
+      <c r="P20" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="208">
+      <c r="Q20" s="127">
         <v>6</v>
       </c>
-      <c r="R20" s="208" t="s">
+      <c r="R20" s="127" t="s">
         <v>209</v>
       </c>
-      <c r="S20" s="208" t="s">
+      <c r="S20" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="T20" s="209" t="s">
+      <c r="T20" s="128" t="s">
         <v>221</v>
       </c>
-      <c r="U20" s="210" t="s">
+      <c r="U20" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="V20" s="127" t="s">
+      <c r="V20" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
+      <c r="W20" s="101"/>
+      <c r="X20" s="101"/>
       <c r="Y20" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3669,53 +3607,55 @@
         <v>136</v>
       </c>
       <c r="E21" s="18"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="40" t="s">
+      <c r="F21" s="23"/>
+      <c r="G21" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="106">
         <v>19</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="J21" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38" t="s">
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="42" t="s">
+      <c r="O21" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="P21" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q21" s="111">
         <v>6</v>
       </c>
-      <c r="R21" s="20" t="s">
+      <c r="R21" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="S21" s="20" t="s">
+      <c r="S21" s="111" t="s">
         <v>210</v>
       </c>
-      <c r="T21" s="39" t="s">
+      <c r="T21" s="119" t="s">
         <v>222</v>
       </c>
-      <c r="U21" s="69" t="s">
+      <c r="U21" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="V21" s="76" t="s">
+      <c r="V21" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="154" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3731,55 +3671,57 @@
         <v>136</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="40" t="s">
+      <c r="F22" s="23"/>
+      <c r="G22" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="94">
         <v>20</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="114" t="s">
         <v>177</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38" t="s">
+      <c r="M22" s="95"/>
+      <c r="N22" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="42" t="s">
+      <c r="O22" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="P22" s="26" t="s">
+      <c r="P22" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="20">
+      <c r="Q22" s="156">
         <v>6</v>
       </c>
-      <c r="R22" s="20" t="s">
+      <c r="R22" s="156" t="s">
         <v>209</v>
       </c>
-      <c r="S22" s="20" t="s">
+      <c r="S22" s="156" t="s">
         <v>210</v>
       </c>
-      <c r="T22" s="39" t="s">
+      <c r="T22" s="157" t="s">
         <v>223</v>
       </c>
-      <c r="U22" s="69" t="s">
+      <c r="U22" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="V22" s="76" t="s">
+      <c r="V22" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -3797,49 +3739,51 @@
       <c r="E23" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="60" t="s">
+      <c r="F23" s="23"/>
+      <c r="G23" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="30">
         <v>21</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="J23" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="K23" s="62" t="s">
+      <c r="K23" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="33" t="s">
+      <c r="L23" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="35" t="s">
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="63">
+      <c r="Q23" s="41">
         <v>9</v>
       </c>
-      <c r="R23" s="63" t="s">
+      <c r="R23" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="S23" s="63" t="s">
+      <c r="S23" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="T23" s="64" t="s">
+      <c r="T23" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U23" s="68" t="s">
+      <c r="U23" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="V23" s="76"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="24" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -3857,49 +3801,51 @@
       <c r="E24" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="65" t="s">
+      <c r="F24" s="23"/>
+      <c r="G24" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="25">
         <v>22</v>
       </c>
-      <c r="I24" s="28" t="s">
+      <c r="I24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="28" t="s">
+      <c r="K24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="28" t="s">
+      <c r="L24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30" t="s">
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="31">
+      <c r="Q24" s="29">
         <v>9</v>
       </c>
-      <c r="R24" s="31" t="s">
+      <c r="R24" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="S24" s="31" t="s">
+      <c r="S24" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="T24" s="29" t="s">
+      <c r="T24" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="U24" s="66" t="s">
+      <c r="U24" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="V24" s="76"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="25" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -3915,43 +3861,43 @@
         <v>208</v>
       </c>
       <c r="E25" s="18"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="120" t="s">
+      <c r="F25" s="23"/>
+      <c r="G25" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="121">
+      <c r="H25" s="94">
         <v>23</v>
       </c>
-      <c r="I25" s="122" t="s">
+      <c r="I25" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="123" t="s">
+      <c r="J25" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="K25" s="122" t="s">
+      <c r="K25" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="122" t="s">
+      <c r="L25" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="124" t="s">
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="125"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="126"/>
-      <c r="V25" s="77" t="s">
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="W25" s="72" t="s">
+      <c r="W25" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="X25" s="72" t="s">
+      <c r="X25" s="47" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3969,55 +3915,57 @@
         <v>208</v>
       </c>
       <c r="E26" s="18"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="48" t="s">
+      <c r="F26" s="23"/>
+      <c r="G26" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="94">
         <v>24</v>
       </c>
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="49" t="s">
+      <c r="J26" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="K26" s="44" t="s">
+      <c r="K26" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="44" t="s">
+      <c r="L26" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44" t="s">
+      <c r="M26" s="95"/>
+      <c r="N26" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="49" t="s">
+      <c r="O26" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="P26" s="45" t="s">
+      <c r="P26" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="46">
+      <c r="Q26" s="156">
         <v>6</v>
       </c>
-      <c r="R26" s="46" t="s">
+      <c r="R26" s="156" t="s">
         <v>209</v>
       </c>
-      <c r="S26" s="46" t="s">
+      <c r="S26" s="156" t="s">
         <v>210</v>
       </c>
-      <c r="T26" s="47" t="s">
+      <c r="T26" s="157" t="s">
         <v>224</v>
       </c>
-      <c r="U26" s="70" t="s">
+      <c r="U26" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="V26" s="76" t="s">
+      <c r="V26" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="27" spans="1:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
@@ -4033,49 +3981,51 @@
         <v>208</v>
       </c>
       <c r="E27" s="18"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="50" t="s">
+      <c r="F27" s="23"/>
+      <c r="G27" s="179" t="s">
         <v>179</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="180">
         <v>25</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="182" t="s">
         <v>201</v>
       </c>
-      <c r="K27" s="52" t="s">
+      <c r="K27" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="52" t="s">
+      <c r="L27" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54" t="s">
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="182"/>
+      <c r="P27" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="55">
+      <c r="Q27" s="184">
         <v>6</v>
       </c>
-      <c r="R27" s="55" t="s">
+      <c r="R27" s="184" t="s">
         <v>209</v>
       </c>
-      <c r="S27" s="55" t="s">
+      <c r="S27" s="184" t="s">
         <v>210</v>
       </c>
-      <c r="T27" s="56" t="s">
+      <c r="T27" s="185" t="s">
         <v>226</v>
       </c>
-      <c r="U27" s="71" t="s">
+      <c r="U27" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="V27" s="78"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
+      <c r="V27" s="187"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="28" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="15"/>
@@ -4272,6 +4222,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4286,12 +4242,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion12/ESCALETA_MA_08_12_CO.xlsx
@@ -618,9 +618,6 @@
     <t>Construir un f13 off line. Explicar en 4 u 8 pestañas, frecuencias absuluta y relativa, probabilidad experimental, ley de números grandes. Mostrar ejemplos, y proponer ejerccios.</t>
   </si>
   <si>
-    <t xml:space="preserve">Determina probabiliddaes a partir de diagramas </t>
-  </si>
-  <si>
     <t xml:space="preserve">Indica la probabilidad de un evento </t>
   </si>
   <si>
@@ -776,6 +773,9 @@
   </si>
   <si>
     <t>Listo</t>
+  </si>
+  <si>
+    <t>Determina probabilidades</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -932,12 +932,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -1367,7 +1361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1677,27 +1671,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1719,12 +1692,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1752,58 +1719,109 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1824,107 +1842,53 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2249,7 +2213,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2282,65 +2246,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="145" t="s">
+      <c r="C1" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="162" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="130" t="s">
+      <c r="H1" s="162" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="130" t="s">
+      <c r="I1" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="142" t="s">
+      <c r="J1" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="140" t="s">
+      <c r="K1" s="170" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="138" t="s">
+      <c r="L1" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="144" t="s">
+      <c r="M1" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="144"/>
-      <c r="O1" s="132" t="s">
+      <c r="N1" s="174"/>
+      <c r="O1" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="132" t="s">
+      <c r="P1" s="154" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="148" t="s">
+      <c r="Q1" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="152" t="s">
+      <c r="R1" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="148" t="s">
+      <c r="S1" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="150" t="s">
+      <c r="T1" s="158" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="148" t="s">
+      <c r="U1" s="156" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="49"/>
@@ -2348,37 +2312,37 @@
       <c r="X1" s="53"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="137"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="139"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="169"/>
       <c r="M2" s="24" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="149"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="157"/>
       <c r="V2" s="50"/>
       <c r="W2" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="X2" s="56" t="s">
         <v>233</v>
-      </c>
-      <c r="X2" s="56" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2392,7 +2356,7 @@
         <v>127</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="22"/>
@@ -2406,7 +2370,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K3" s="73" t="s">
         <v>19</v>
@@ -2426,7 +2390,7 @@
         <v>9</v>
       </c>
       <c r="R3" s="77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S3" s="77" t="s">
         <v>141</v>
@@ -2435,16 +2399,16 @@
         <v>140</v>
       </c>
       <c r="U3" s="78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V3" s="70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W3" s="55">
         <v>42458</v>
       </c>
       <c r="X3" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2458,7 +2422,7 @@
         <v>127</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>128</v>
@@ -2485,7 +2449,7 @@
       <c r="M4" s="59"/>
       <c r="N4" s="59"/>
       <c r="O4" s="62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P4" s="63" t="s">
         <v>19</v>
@@ -2494,7 +2458,7 @@
         <v>9</v>
       </c>
       <c r="R4" s="81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S4" s="81" t="s">
         <v>141</v>
@@ -2503,16 +2467,16 @@
         <v>142</v>
       </c>
       <c r="U4" s="82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V4" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W4" s="55">
         <v>42458</v>
       </c>
       <c r="X4" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2526,7 +2490,7 @@
         <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>128</v>
@@ -2564,25 +2528,25 @@
         <v>6</v>
       </c>
       <c r="R5" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="S5" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="S5" s="64" t="s">
+      <c r="T5" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="T5" s="65" t="s">
+      <c r="U5" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="66" t="s">
-        <v>212</v>
-      </c>
       <c r="V5" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W5" s="55">
         <v>42458</v>
       </c>
       <c r="X5" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2596,7 +2560,7 @@
         <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>129</v>
@@ -2636,25 +2600,25 @@
         <v>6</v>
       </c>
       <c r="R6" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="S6" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="S6" s="64" t="s">
-        <v>210</v>
-      </c>
       <c r="T6" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U6" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="V6" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W6" s="55">
         <v>42458</v>
       </c>
       <c r="X6" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2668,7 +2632,7 @@
         <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>130</v>
@@ -2683,13 +2647,13 @@
       <c r="I7" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="114" t="s">
+      <c r="J7" s="107" t="s">
         <v>188</v>
       </c>
       <c r="K7" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="115" t="s">
+      <c r="L7" s="108" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="95" t="s">
@@ -2702,26 +2666,26 @@
       <c r="P7" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="156">
+      <c r="Q7" s="122">
         <v>6</v>
       </c>
-      <c r="R7" s="156" t="s">
+      <c r="R7" s="122" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7" s="122" t="s">
         <v>214</v>
       </c>
-      <c r="S7" s="156" t="s">
+      <c r="T7" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="T7" s="157" t="s">
+      <c r="U7" s="124" t="s">
         <v>216</v>
       </c>
-      <c r="U7" s="158" t="s">
-        <v>217</v>
-      </c>
       <c r="V7" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="W7" s="118"/>
-      <c r="X7" s="155">
+        <v>241</v>
+      </c>
+      <c r="W7" s="111"/>
+      <c r="X7" s="121">
         <v>42459</v>
       </c>
     </row>
@@ -2736,7 +2700,7 @@
         <v>127</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>130</v>
@@ -2770,7 +2734,7 @@
         <v>9</v>
       </c>
       <c r="R8" s="81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S8" s="81" t="s">
         <v>141</v>
@@ -2779,16 +2743,16 @@
         <v>146</v>
       </c>
       <c r="U8" s="82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V8" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W8" s="55">
         <v>42458</v>
       </c>
       <c r="X8" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2802,7 +2766,7 @@
         <v>127</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>122</v>
@@ -2818,7 +2782,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K9" s="86" t="s">
         <v>19</v>
@@ -2836,7 +2800,7 @@
         <v>9</v>
       </c>
       <c r="R9" s="90" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S9" s="90" t="s">
         <v>141</v>
@@ -2845,16 +2809,16 @@
         <v>190</v>
       </c>
       <c r="U9" s="92" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V9" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W9" s="55">
         <v>42642</v>
       </c>
       <c r="X9" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2868,55 +2832,55 @@
         <v>127</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="161" t="s">
+      <c r="G10" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="162">
+      <c r="H10" s="128">
         <v>8</v>
       </c>
-      <c r="I10" s="163" t="s">
+      <c r="I10" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="164" t="s">
-        <v>198</v>
-      </c>
-      <c r="K10" s="163" t="s">
+      <c r="J10" s="130" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163" t="s">
+      <c r="L10" s="129"/>
+      <c r="M10" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="163"/>
-      <c r="O10" s="165" t="s">
+      <c r="N10" s="129"/>
+      <c r="O10" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="P10" s="166" t="s">
+      <c r="P10" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="166">
+      <c r="Q10" s="132">
         <v>6</v>
       </c>
-      <c r="R10" s="166" t="s">
+      <c r="R10" s="132" t="s">
+        <v>213</v>
+      </c>
+      <c r="S10" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="S10" s="166" t="s">
-        <v>215</v>
-      </c>
-      <c r="T10" s="167" t="s">
-        <v>218</v>
-      </c>
-      <c r="U10" s="168" t="s">
+      <c r="T10" s="133" t="s">
         <v>217</v>
       </c>
+      <c r="U10" s="134" t="s">
+        <v>216</v>
+      </c>
       <c r="V10" s="52"/>
-      <c r="W10" s="169"/>
-      <c r="X10" s="169" t="s">
-        <v>245</v>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2930,7 +2894,7 @@
         <v>127</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>133</v>
@@ -2968,7 +2932,7 @@
         <v>9</v>
       </c>
       <c r="R11" s="81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S11" s="81" t="s">
         <v>141</v>
@@ -2977,16 +2941,16 @@
         <v>160</v>
       </c>
       <c r="U11" s="103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V11" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W11" s="55">
         <v>42459</v>
       </c>
       <c r="X11" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -3000,7 +2964,7 @@
         <v>127</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>133</v>
@@ -3009,7 +2973,7 @@
         <v>134</v>
       </c>
       <c r="G12" s="83" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H12" s="58">
         <v>10</v>
@@ -3036,7 +3000,7 @@
         <v>9</v>
       </c>
       <c r="R12" s="81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S12" s="81" t="s">
         <v>141</v>
@@ -3045,16 +3009,16 @@
         <v>163</v>
       </c>
       <c r="U12" s="103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V12" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W12" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X12" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3068,7 +3032,7 @@
         <v>127</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>133</v>
@@ -3085,13 +3049,13 @@
       <c r="I13" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="114" t="s">
+      <c r="J13" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="115" t="s">
+      <c r="K13" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="115" t="s">
+      <c r="L13" s="108" t="s">
         <v>5</v>
       </c>
       <c r="M13" s="95"/>
@@ -3106,26 +3070,26 @@
         <v>9</v>
       </c>
       <c r="R13" s="98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S13" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="T13" s="116" t="s">
+      <c r="T13" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="U13" s="117" t="s">
-        <v>228</v>
+      <c r="U13" s="110" t="s">
+        <v>227</v>
       </c>
       <c r="V13" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W13" s="47"/>
       <c r="X13" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y13" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3139,7 +3103,7 @@
         <v>127</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>133</v>
@@ -3148,7 +3112,7 @@
         <v>135</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H14" s="94">
         <v>12</v>
@@ -3156,13 +3120,13 @@
       <c r="I14" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="114" t="s">
+      <c r="J14" s="107" t="s">
         <v>183</v>
       </c>
-      <c r="K14" s="115" t="s">
+      <c r="K14" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="115" t="s">
+      <c r="L14" s="108" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="95"/>
@@ -3175,28 +3139,28 @@
       <c r="P14" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="156">
+      <c r="Q14" s="122">
         <v>6</v>
       </c>
-      <c r="R14" s="156" t="s">
+      <c r="R14" s="122" t="s">
+        <v>208</v>
+      </c>
+      <c r="S14" s="122" t="s">
         <v>209</v>
       </c>
-      <c r="S14" s="156" t="s">
-        <v>210</v>
-      </c>
-      <c r="T14" s="159" t="s">
-        <v>219</v>
-      </c>
-      <c r="U14" s="160" t="s">
-        <v>212</v>
+      <c r="T14" s="125" t="s">
+        <v>218</v>
+      </c>
+      <c r="U14" s="126" t="s">
+        <v>211</v>
       </c>
       <c r="V14" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="W14" s="112" t="s">
-        <v>241</v>
-      </c>
-      <c r="X14" s="155">
+        <v>230</v>
+      </c>
+      <c r="W14" s="105" t="s">
+        <v>240</v>
+      </c>
+      <c r="X14" s="121">
         <v>42458</v>
       </c>
     </row>
@@ -3211,11 +3175,11 @@
         <v>127</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="113" t="s">
+      <c r="G15" s="106" t="s">
         <v>149</v>
       </c>
       <c r="H15" s="94">
@@ -3224,13 +3188,13 @@
       <c r="I15" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="114" t="s">
+      <c r="J15" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="K15" s="115" t="s">
+      <c r="K15" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="115" t="s">
+      <c r="L15" s="108" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="95"/>
@@ -3243,25 +3207,25 @@
         <v>9</v>
       </c>
       <c r="R15" s="98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S15" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="T15" s="116" t="s">
+      <c r="T15" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="U15" s="117" t="s">
-        <v>228</v>
+      <c r="U15" s="110" t="s">
+        <v>227</v>
       </c>
       <c r="V15" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W15" s="47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X15" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3275,11 +3239,11 @@
         <v>127</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="113" t="s">
+      <c r="G16" s="106" t="s">
         <v>152</v>
       </c>
       <c r="H16" s="94">
@@ -3288,13 +3252,13 @@
       <c r="I16" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="114" t="s">
+      <c r="J16" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="115" t="s">
+      <c r="K16" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="115" t="s">
+      <c r="L16" s="108" t="s">
         <v>8</v>
       </c>
       <c r="M16" s="95"/>
@@ -3307,25 +3271,25 @@
         <v>9</v>
       </c>
       <c r="R16" s="98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S16" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="T16" s="116" t="s">
+      <c r="T16" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="U16" s="117" t="s">
-        <v>228</v>
+      <c r="U16" s="110" t="s">
+        <v>227</v>
       </c>
       <c r="V16" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W16" s="47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X16" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3339,63 +3303,63 @@
         <v>127</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="23"/>
-      <c r="G17" s="170" t="s">
+      <c r="G17" s="136" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="171">
+      <c r="H17" s="137">
         <v>15</v>
       </c>
-      <c r="I17" s="172" t="s">
+      <c r="I17" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="173" t="s">
-        <v>203</v>
-      </c>
-      <c r="K17" s="172" t="s">
+      <c r="J17" s="139" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="172" t="s">
+      <c r="L17" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="172"/>
-      <c r="N17" s="172" t="s">
+      <c r="M17" s="138"/>
+      <c r="N17" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="174" t="s">
+      <c r="O17" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="P17" s="175" t="s">
+      <c r="P17" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="176">
+      <c r="Q17" s="142">
         <v>6</v>
       </c>
-      <c r="R17" s="176" t="s">
+      <c r="R17" s="142" t="s">
+        <v>208</v>
+      </c>
+      <c r="S17" s="142" t="s">
         <v>209</v>
       </c>
-      <c r="S17" s="176" t="s">
-        <v>210</v>
-      </c>
-      <c r="T17" s="177" t="s">
-        <v>220</v>
-      </c>
-      <c r="U17" s="178" t="s">
-        <v>212</v>
+      <c r="T17" s="143" t="s">
+        <v>219</v>
+      </c>
+      <c r="U17" s="144" t="s">
+        <v>211</v>
       </c>
       <c r="V17" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="W17" s="155">
+        <v>230</v>
+      </c>
+      <c r="W17" s="121">
         <v>42459</v>
       </c>
       <c r="X17" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3445,7 +3409,7 @@
         <v>9</v>
       </c>
       <c r="R18" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S18" s="29" t="s">
         <v>141</v>
@@ -3454,12 +3418,12 @@
         <v>155</v>
       </c>
       <c r="U18" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V18" s="51"/>
       <c r="W18" s="47"/>
       <c r="X18" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3507,7 +3471,7 @@
         <v>9</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S19" s="21" t="s">
         <v>141</v>
@@ -3516,12 +3480,12 @@
         <v>159</v>
       </c>
       <c r="U19" s="45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V19" s="51"/>
       <c r="W19" s="47"/>
       <c r="X19" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3541,56 +3505,56 @@
         <v>137</v>
       </c>
       <c r="F20" s="23"/>
-      <c r="G20" s="121" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="122">
+      <c r="G20" s="112" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="113">
         <v>18</v>
       </c>
-      <c r="I20" s="123" t="s">
+      <c r="I20" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="124" t="s">
+      <c r="J20" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="K20" s="123" t="s">
+      <c r="K20" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="123" t="s">
+      <c r="L20" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123" t="s">
+      <c r="M20" s="114"/>
+      <c r="N20" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="125" t="s">
+      <c r="O20" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="P20" s="126" t="s">
+      <c r="P20" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="127">
+      <c r="Q20" s="118">
         <v>6</v>
       </c>
-      <c r="R20" s="127" t="s">
+      <c r="R20" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="S20" s="118" t="s">
         <v>209</v>
       </c>
-      <c r="S20" s="127" t="s">
-        <v>210</v>
-      </c>
-      <c r="T20" s="128" t="s">
-        <v>221</v>
-      </c>
-      <c r="U20" s="129" t="s">
-        <v>212</v>
+      <c r="T20" s="119" t="s">
+        <v>220</v>
+      </c>
+      <c r="U20" s="120" t="s">
+        <v>211</v>
       </c>
       <c r="V20" s="100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W20" s="101"/>
       <c r="X20" s="101"/>
       <c r="Y20" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3608,53 +3572,53 @@
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="23"/>
-      <c r="G21" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="H21" s="106">
+      <c r="G21" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="94">
         <v>19</v>
       </c>
-      <c r="I21" s="107" t="s">
+      <c r="I21" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="108" t="s">
+      <c r="J21" s="107" t="s">
         <v>181</v>
       </c>
-      <c r="K21" s="107" t="s">
+      <c r="K21" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107" t="s">
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="109" t="s">
+      <c r="O21" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="P21" s="110" t="s">
+      <c r="P21" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="111">
+      <c r="Q21" s="122">
         <v>6</v>
       </c>
-      <c r="R21" s="111" t="s">
+      <c r="R21" s="122" t="s">
+        <v>208</v>
+      </c>
+      <c r="S21" s="122" t="s">
         <v>209</v>
       </c>
-      <c r="S21" s="111" t="s">
-        <v>210</v>
-      </c>
-      <c r="T21" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="U21" s="120" t="s">
-        <v>212</v>
-      </c>
-      <c r="V21" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="W21" s="47"/>
-      <c r="X21" s="154" t="s">
-        <v>244</v>
+      <c r="T21" s="123" t="s">
+        <v>221</v>
+      </c>
+      <c r="U21" s="124" t="s">
+        <v>211</v>
+      </c>
+      <c r="V21" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3673,7 +3637,7 @@
       <c r="E22" s="18"/>
       <c r="F22" s="23"/>
       <c r="G22" s="93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H22" s="94">
         <v>20</v>
@@ -3681,7 +3645,7 @@
       <c r="I22" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="114" t="s">
+      <c r="J22" s="107" t="s">
         <v>177</v>
       </c>
       <c r="K22" s="95" t="s">
@@ -3700,27 +3664,27 @@
       <c r="P22" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="156">
+      <c r="Q22" s="122">
         <v>6</v>
       </c>
-      <c r="R22" s="156" t="s">
+      <c r="R22" s="122" t="s">
+        <v>208</v>
+      </c>
+      <c r="S22" s="122" t="s">
         <v>209</v>
       </c>
-      <c r="S22" s="156" t="s">
-        <v>210</v>
-      </c>
-      <c r="T22" s="157" t="s">
-        <v>223</v>
-      </c>
-      <c r="U22" s="158" t="s">
-        <v>212</v>
+      <c r="T22" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="U22" s="124" t="s">
+        <v>211</v>
       </c>
       <c r="V22" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W22" s="47"/>
       <c r="X22" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3750,7 +3714,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K23" s="40" t="s">
         <v>19</v>
@@ -3768,7 +3732,7 @@
         <v>9</v>
       </c>
       <c r="R23" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S23" s="41" t="s">
         <v>141</v>
@@ -3777,12 +3741,12 @@
         <v>138</v>
       </c>
       <c r="U23" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V23" s="51"/>
       <c r="W23" s="47"/>
       <c r="X23" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3796,10 +3760,10 @@
         <v>127</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="43" t="s">
@@ -3830,7 +3794,7 @@
         <v>9</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S24" s="29" t="s">
         <v>141</v>
@@ -3839,12 +3803,12 @@
         <v>168</v>
       </c>
       <c r="U24" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V24" s="51"/>
       <c r="W24" s="47"/>
       <c r="X24" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3858,7 +3822,7 @@
         <v>127</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="23"/>
@@ -3872,7 +3836,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K25" s="95" t="s">
         <v>20</v>
@@ -3892,13 +3856,13 @@
       <c r="T25" s="96"/>
       <c r="U25" s="99"/>
       <c r="V25" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W25" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X25" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3912,12 +3876,12 @@
         <v>127</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="23"/>
       <c r="G26" s="93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H26" s="94">
         <v>24</v>
@@ -3926,7 +3890,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K26" s="95" t="s">
         <v>20</v>
@@ -3944,27 +3908,27 @@
       <c r="P26" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="156">
+      <c r="Q26" s="122">
         <v>6</v>
       </c>
-      <c r="R26" s="156" t="s">
+      <c r="R26" s="122" t="s">
+        <v>208</v>
+      </c>
+      <c r="S26" s="122" t="s">
         <v>209</v>
       </c>
-      <c r="S26" s="156" t="s">
-        <v>210</v>
-      </c>
-      <c r="T26" s="157" t="s">
-        <v>224</v>
-      </c>
-      <c r="U26" s="158" t="s">
-        <v>212</v>
+      <c r="T26" s="123" t="s">
+        <v>223</v>
+      </c>
+      <c r="U26" s="124" t="s">
+        <v>211</v>
       </c>
       <c r="V26" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W26" s="47"/>
       <c r="X26" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3978,53 +3942,53 @@
         <v>127</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="179" t="s">
+      <c r="G27" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="H27" s="180">
+      <c r="H27" s="146">
         <v>25</v>
       </c>
-      <c r="I27" s="181" t="s">
+      <c r="I27" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="182" t="s">
-        <v>201</v>
-      </c>
-      <c r="K27" s="181" t="s">
+      <c r="J27" s="148" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="181" t="s">
+      <c r="L27" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="181"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="182"/>
-      <c r="P27" s="183" t="s">
+      <c r="M27" s="147"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="184">
+      <c r="Q27" s="150">
         <v>6</v>
       </c>
-      <c r="R27" s="184" t="s">
+      <c r="R27" s="150" t="s">
+        <v>208</v>
+      </c>
+      <c r="S27" s="150" t="s">
         <v>209</v>
       </c>
-      <c r="S27" s="184" t="s">
-        <v>210</v>
-      </c>
-      <c r="T27" s="185" t="s">
-        <v>226</v>
-      </c>
-      <c r="U27" s="186" t="s">
-        <v>212</v>
-      </c>
-      <c r="V27" s="187"/>
+      <c r="T27" s="151" t="s">
+        <v>225</v>
+      </c>
+      <c r="U27" s="152" t="s">
+        <v>211</v>
+      </c>
+      <c r="V27" s="153"/>
       <c r="W27" s="48"/>
       <c r="X27" s="48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4032,7 +3996,7 @@
     </row>
     <row r="29" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V29" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4222,12 +4186,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4242,6 +4200,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
